--- a/data/QTTY/Gold/QTTY1.xlsx
+++ b/data/QTTY/Gold/QTTY1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\HCMUS\Thesis\Automatic Sentence Alignment\QTTY\Gold\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\HCMUS\Thesis\Automatic Sentence Alignment\data\QTTY\Gold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADF125E-EFC4-4E60-9FCE-AF97C4905AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E15355-D7BF-4B9C-A97A-E36010F307C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1225,601 +1225,601 @@
     <t>禮 記 云 : 陽 門 之 介 夫 死 司 城 子 罕 入 而 哭 之 哀 晉 人 之 覘 宋 者 反 報 於 晉 侯 曰 陽 門 之 介 夫 死 而 子 罕 哭 之 哀 而 民 悅 殆 不 可 伐 也 孔 子 聞 之 曰 善 哉 覘 國 乎 。</t>
   </si>
   <si>
-    <t>Sách Hán Thư viết :  Từ thời đại ( thái bình của ) vua Thành Khang đến nay , cũng gần 1000 năm , có nhiều bậc vua chúa muốn được vậy , thế mà cảnh thái bình ấy không thể hưng khởi trở lại , tại vì sao ? Bởi vì họ đã bỏ đi pháp độ mà chỉ thích theo Ý riêng , làm việc thì xa xỉ mà phế đi nhân-nghĩa .</t>
-  </si>
-  <si>
-    <t>Sách Nguỵ Chí viết :  Phàm vật gì phát triển quá nhanh , thì suy vong cũng nhanh . Phát triển từ từ , thì được tốt lành . Hoa cỏ nở vào buổi sáng đến chiều thì đã héo , còn cây tùng , cây bách thì lá xum xuê , dù mùa đông lạnh giá cũng không thể suy tàn . Cho nên người quân-tử cao thượng ghét sự mau thành .</t>
-  </si>
-  <si>
-    <t>Sách Sử Ký viết :  Ông Vinh- (Di )-Công thích chiếm quyền lợi mà không biết đó là cái nạn lớn , làm lợi ích cho mọi vật sinh sống , thì trời đất che chở , còn thích chiếm riêng thì nhiều tai hại . Trời đất và mọi vật điều muốn lấy Điều đó chiếm được ư ? hay chỉ tạo ra nhiều sự phẫn nộ , không biết đề phòng cái nạn lớn , rồi đi chỉ bảo vua , liệu vua có thể trụ lâu dày sao ?  .</t>
-  </si>
-  <si>
-    <t>Sách Lão Tử viết :  5 màu khiến người mù mắt , 5 âm khiến người điếc tai , 5 mùi khiến người tê lưỡi , cưỡi ngựa săn bắn khiến lòng người phát cuồng , của cải khó được khiến người gặp nhiều tai hoạ .</t>
-  </si>
-  <si>
-    <t>Sách Thượng Thư viết : Có lời răn : trong thì ham mê nữ sắc , ngoài thì vui chơi săn bắn , rượu chè , ca hát không biết đủ , nhà cao cửa rộng trặm khắc lộng lẫy . Nếu có một trong những thứ trên sao không khỏi mất nước .</t>
-  </si>
-  <si>
-    <t>Sách Văn Tử viết : Vua của một nước loạn , chỉ vì chú trọng vào việc mở rộng đất đai mà không quan tâm đến nhân nghĩa , chỉ chú trọng đến địa vị cao mà không quan tâm đến đạo đức . Đó là bỏ đi cái còn mà tạo dựng cái mất .</t>
-  </si>
-  <si>
-    <t>Sách Thể Luận viết : Tai hoạ lớn nhất của người lãnh đạo , chẳng có cái nào lớn hơn ngoài việc háo danh , lãnh đạo háo danh thì cấp dưới cũng biết những điều đó vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hán Thư viết rằng : Người xưa nói rằng , một nông dân không cày thì có người bị đói , một phụ nữ không dệt thì có người bị lạnh , vạn vật sinh trưởng có thời mà dùng quá độ thì ắt sẽ cạn kiệt . Thời xưa khi trị thiên-hạ đạt đến mức nhỏ nhặt , đến mức tường tận thì sẽ tích chứa đủ ( của cải , lương thực ) để dự phòng .</t>
-  </si>
-  <si>
-    <t>Sách Chính Yếu Luận viết : Tu thân , trị quốc chẳng gì lớn hơn ngoài tiết chế dục vọng , Truyện ( sách Lễ Ký ) viết : “không buông thả dục vọng” , xét từ xưa đến nay người có nhà , có nước đạt được thành công chẳng gì hơn ngoài tiết kiệm mà mất đi chẳng phải do hoang phí đó sao . Người tiết kiệm biết tiết chế dục vọng , kẻ hoang phí thì sống phóng túng , kẻ phóng túng thì gặp nguy hiểm , người tiết chế dục vọng thì được an ổn .</t>
-  </si>
-  <si>
-    <t>Sách Bão Phác Tử viết : Lệnh cấm không rõ ràng mà dùng hình phạt nghiêm dẹp yên động loạn , mưu tính không thoả đáng mà dùng binh lực xâm lược nước láng giềng . Việc đó khác nào cắt hết hoa màu để diệt châu chấu , chặt hết cây cối để diệt sâu mọt , ăn thuốc độc để diệt chấy rận , phá bỏ nhà cửa để diệt chim sẻ và chuột .</t>
-  </si>
-  <si>
-    <t>Sách Hán Thư viết : Là bậc thánh-nhân thì bao dung hết thiên-hạ , không vì lòng yêu ghét của mình mà gây hại đến sự thành tựu của thiên-hạ .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Đức Khổng-tử nói : ba người đi cùng ắt có thầy ta , chọn người tốt mà gắng học theo , còn người không tốt xem đó mà sửa đổi .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Đức Khổng-tử nói : có lỗi mà không sửa đổi thì thật sai lầm vậy .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Thầy Tử-Cống nói : lỗi của người quân-tử thì như nhật thực , nguyệt thực , lỗi đó ai cũng nhìn thấy , đến khi sửa lỗi thì ai cũng ngưỡng mộ .</t>
-  </si>
-  <si>
-    <t>Sách Hán Thư viết : Thời xưa các vị vua thánh , định ra quan chép sử trước mặt , để ghi chép lại lỗi lầm của mình , định ra quan ngâm tụng , đọc các bài thơ khuyên gián , nói lên các lời chê bai của dân chúng , hay lời dị nghị của thương nhân ở chợ , nên sau vua mới nghe được lỗi mình , nghe được lỗi mà sửa đổi , vậy là thấy được lẽ phải để làm theo . Nên họ giữ được thiên-hạ lâu dài vậy .</t>
-  </si>
-  <si>
-    <t>Sách Dục Tử viết : Điều đại kỵ lớn nhất là biết lỗi mình mà không sửa đổi , đến nỗi hại đến thân , mất cả tánh mạng , như có hành vi như thế đó là điều đại kỵ .</t>
-  </si>
-  <si>
-    <t>Sách Trung Luận viết : Người đời trước có hai câu nói khó , là khó vui khi người nói lỗi mình , khó khi nói lỗi người .</t>
-  </si>
-  <si>
-    <t>Hiếu Kinh viết : Đức Khổng-Tử nói : Yêu cha mẹ không dám ghét người , kính cha mẹ không dám khinh người , hết lòng yêu kính phụng sự cha mẹ rồi dùng đức đó giáo hóa dân chúng , làm hình mẫu khắp bốn biển , đó là nết hiếu của thiên-tử . Thiên Lã-Hình ( Kinh Thi ) viết : Một người có phước , triệu dân được nhờ .</t>
-  </si>
-  <si>
-    <t>Sách Khổng-Tử Gia Ngữ viết : Xưa kia các vị vua hiền minh của ba nhà ( Hạ , Thương , Chu ) ắt kính trọng vợ con , thật là có đạo lý . Bởi vợ là người chủ chăm sóc người thân , con là người thừa kế gia đình sau này , chẳng dám không kính hai bậc đó . Cho nên người quân-tử chẳng dám không kính trọng về lòng kính , thì kính bản thân là lớn nhất , là người tiếp nối của cha mẹ , không dám không kính cha mẹ và kính bản thân . Nên làm tổn thương mình là làm tổn thương cha mẹ , làm tổn thương cha mẹ thì đã làm tổn thương căn gốc , làm thương căn gốc thì chi nhánh sẽ khô héo theo . Ba bậc đó ( bản thân , vợ , con ) nên lấy đó đó làm hình mẫu cho dân chúng , lấy lời ấy mà làm phép tắc cho dân chúng , mà làm từ mình , đến con và mình , đến con và vợ , rồi đến vợ . Vua mà làm được ba điều ấy thì sự giáo hóa sẽ sâu rộng khắp thiên-hạ .</t>
-  </si>
-  <si>
-    <t>Sách Hậu Hán Thư viết : Đế vương tuy yêu thương người thân thích nhưng ắt phải giữ sự tôn nghiêm của mình , tuy quý trọng nhưng ắt phải cấm đoán để họ không làm bậy .</t>
-  </si>
-  <si>
-    <t>Sách Xương Ngôn viết : Quý điều thiện bởi vì nó hợp lễ nghi , khinh điều ác bởi vì có tội lỗi . Nay người ta đem điều quý để dạy dân , đem điều khinh để dạy người thân thật là trái lẽ .</t>
-  </si>
-  <si>
-    <t>Sách Phó Tử viết : Gốc của lập đức chẳng gì hơn làm tâm chánh , tâm chánh sau thân chánh , thân chánh sau bề tôi chánh , bề tôi chánh sau triều đình chánh , triều đình chánh sau quốc gia chánh , quốc gia chánh sau thiên-hạ chánh .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết rằng : Thầy Tăng-Tử nói : Ta hằng ngày phản tỉnh ba điều , làm việc cho người đã dốc hết lòng chưa ?  , qua lại cùng bạn bè đã giữ chữ tín chưa ?  , điều thầy dạy đã học được và truyền lại chưa ?  .</t>
-  </si>
-  <si>
-    <t>Sách Sử Ký viết : Vua không nói lời đùa giỡn , vì vừa nói một lời quan sử liền ghi chép lại để thành lễ pháp , thành ca khúc để truyền bá .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Đức Khổng-Tử nói : đối với bản thân phải nghiêm khắc , còn với người phải độ lượng thì xa rời sự oán hận vậy .</t>
-  </si>
-  <si>
-    <t>Sách Lục Thao viết : Vua không có phẩm hạnh tốt thì quốc gia sẽ lâm nguy , dân chúng loạn lạc . Vua hiền thánh thì quốc gia an ổn , thiên-hạ trị . Nên họa phước tại vua không phải tại số trời .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Trẫm ( vua Thành-Thang ) có tội thì không liên quan gì đến dân chúng , dân chúng có tội thì tội đó là tại trẫm .</t>
-  </si>
-  <si>
-    <t>Sách Quản Tử viết : Nên vị vua sáng có lỗi tắc phản tỉnh lại bản thân , còn có điều tốt lành thì quy hết cho dân chúng . Có lỗi mà phản tỉnh bản thân thì tự biết sợ sệt , có điều tốt lành quy hết cho dân thì dân vui mừng , cho dân sự vui mừng , mang cho mình sự sợ sệt như thế thì vị vua sáng mới trị an được dân chúng .</t>
-  </si>
-  <si>
-    <t>Sách Chính Yếu Luận viết : Trong sách Truyện ( Tả-Truyện ) viết : Vua Vũ , vua Thang quy hết tội cho bản thân mà trở nên tốt đẹp hơn . Còn như vua Kiệt , vua Trụ quy hết tội cho người mà mất nước . Từ đó cho thấy , lời nói nuôi dân trị quốc thì tại bản thân ( vua ) là căn gốc .</t>
-  </si>
-  <si>
-    <t>Sách Mạnh-Tử viết  : Thầy Mạnh-Tử đến gặp vua Tề-Tuyên-Vương nói : vua mà coi bề tôi như tay chân thì bề tôi sẽ coi vua tim gan , vua mà coi bề tôi như chó ngựa thì bề tôi sẽ coi vua như người dưng , vua mà coi bề tôi như đất cỏ thì bề tôi sẽ coi vua như kẻ thù .</t>
-  </si>
-  <si>
-    <t>Sách Yến Tử viết rằng : Vua ( Tề )-Cảnh-Công hỏi ông Yến-Tử rằng : làm cho dân giàu , người người được an định liệu có khó không ?  , Yến-Tử đáp : thưa rất dễ , nếu vua tiết chế dục vọng thì dân giàu , xét xử công bằng thì người người an định , chỉ cần làm hai điều ấy mà thôi .</t>
-  </si>
-  <si>
-    <t>Sách Thuyết Uyển viết : Bậc vua sáng có ba điều sợ , thứ nhất là ở ngôi cao mà không nghe được lỗi lầm của mình , thứ hai được đắc ý sợ sẽ kiêu ngạo , thứ ba là nghe được lời đúng đắn của người thiên-hạ mà sợ không làm theo .</t>
-  </si>
-  <si>
-    <t>Sách Hậu Hán Thư viết : Xưa kia vua Thành-Thang gặp nạn hạn hán thì lấy sáu điều ra trách mình rằng : 1 .việc chính sự có phù hợp không , 2 .sai khiến dân có quá mức không , 3 .cung thất có xa hoa quá không , 4 .nữ nhân có can thiệp vào chính sự quá không , 5 .việc nhận hối lộ có quá không , 6 .kẻ nói lời gièm pha có quá không .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Thầy Tăng-Tử nói rằng : bậc trên đánh mất đạo đức , dân chúng không có phép tắc đã lâu , như biết được tình hình thì nên thương xót chớ mà vui mừng ( khi xử án được ) .</t>
-  </si>
-  <si>
-    <t>Sách Khổng Tử Gia Ngữ viết : Bậc trên mất đạo đức mà giết cấp dưới là chuyện phi lý . Không dạy đạo hiếu , hễ nghe đến phạm tội thì cầm tù đó là giết người vô tội .</t>
-  </si>
-  <si>
-    <t>Sách Thân Giám viết : Cái thuật để có nền cai trị tốt trước tiên phải ngăn bốn họa hoạn và dùng năm chính sách sau . thứ nhất dối trá , hai là tư lợi , ba là phóng túng , bốn là xa xỉ . Dối trá làm loạn phong tục , tư lợi phá hoại pháp luật , phóng túng thì bỏ qua phép tắc , xa xỉ làm bại hoại chế độ , bốn cái họa hoạn ấy không trử bỏ thì nền chính trị tốt không thể thi hành được . Phong tục loạn thì đạo đức bại hoại dẫu trời đất cũng không thể bảo vệ được bản tính đó , pháp luật bị phá hại thì triều đại sẽ sụp đổ dẫu bậc vua chúa cũng không thể bảo vệ được chế độ , phóng túng bỏ qua phép tắc thì lễ nghĩa mất dẫu có bậc thánh-nhân cũng không thể làm gì bảo toàn được . Chế độ bại hoại thì dục vọng sẽ hoành hành , tuy lãnh thổ khắp bốn phương cũng không thể thỏa mãn lòng mong cầu đó . Đó là bốn điều họa hoạn . 1 .đẩy mạnh việc làm ruộng , trồng dâu , nuôi tằm để dưỡng dân , 2 .hiểu rõ tốt xấu để làm chánh phong tục , 3 .tuyên dương việc giáo học để giáo hóa dân chúng , 4 .xây dựng quân đội để thị uy bảo vệ quốc gia , 5 . Thưởng phạt rõ ràng để thống nhất luật pháp , đó là năm chính sách .</t>
-  </si>
-  <si>
-    <t>Sách Thuyết Uyển viết : Quốc gia thường không an định , thì không trị dân lâu dài được , có người hiền giúp thì được an ổn tốt đẹp , mà mất đi thì sẽ diệt vong . Từ xưa đến nay chẳng phải như vậy ư .</t>
-  </si>
-  <si>
-    <t>Sách Ngụy Chí viết : Sách viết : không có vị vua xuất chúng thì ắt không dùng bề tôi xuất chúng . Không dùng bề tôi xuất chúng thì ắt không thể lập nên sự nghiệp xuất chúng .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Đức Khổng-Tử nói : bậc đại-thần không thể không kính trọng , vì họ là tấm gương của dân chúng . Chọn bề tôi thân cận không thể không thận trọng , vì họ là người dẫn dắt dân chúng .</t>
-  </si>
-  <si>
-    <t>Sách Hán Thư viết : Vua Văn-Vương thích điều nhân nên điều nhân hưng khởi , được kẻ sĩ thì kính trọng nên dùng được họ , khi dùng họ thì nương theo lễ nghi . Nên không có lòng yêu kính chí thành , thì họ không thể dốc hết lòng , không thể dốc hết lực , không thể không làm hết khả năng để nên công trạng được . Nên bậc vua hiền đức xưa đối với bề tôi , vì tôn kính mà ban tước lộc để được gần gũi , khi họ bệnh thì nhiều lần đến thăm hỏi , khi họ chết liền đến chia buồn khóc than , lại mặc áo tang , phải ba lần đến nơi an táng , khi tẩm liệm thì không uống rượu , không ăn thịt , khi lễ chôn cất chưa xong thì không tấu nhạc , đương lúc làm lễ tế nơi tông miếu mà ngay lúc họ chết thì bỏ đi việc tấu nhạc . Có thể thấy người làm vua thời xưa đối với bề tôi , đúng là tận hết lễ rồi vậy . Nên phận bề tôi chẳng dám không tận lực đến chết để báo ân vua .</t>
-  </si>
-  <si>
-    <t>Sách Sử Ký viết : Chu-Công răn ( con là ) Bá-Cầm rằng : ta là con của vua Văn-Vương , em của vua Võ-Vương , chú của vua Thành-Vương , địa vị của ta so với thiên-hạ không phải là thấp . Vậy mà nhiều khi đang gội đầu chưa kịp chải tóc , ăn cơm chưa kịp nuốt , đã phải đứng dậy mà đón tiếp các bậc sĩ , vì lo sợ sẽ để mất đi người tài đức đi . Con về đến nước Lỗ phải thận trọng , chớ lấy thân phận vua mà kiêu căng với người .</t>
-  </si>
-  <si>
-    <t>Sách Thân Giám viết : Suy ngẫm thì có 10 điều khó khi dùng bậc hiền-năng ( tài giỏi ) , 1 là không biết , 2 là không cầu , 3 là không tín nhiệm , 4 là không đến cùng , 5 là thù oán nhỏ mà bỏ đi hết đức lớn , 6 là vì lỗi nhỏ mà bỏ đi hết công lớn , 7 là vì khuyết điểm nhỏ mà che lấp hết cái đẹp lớn , 8 là vì những lời nói bới móc mà làm tổn thương lòng trung chánh , 9 vì những lời tà thuyết mà làm loạn chánh độ ( phép tắc ) , 10 vì những lời gièm pha mà phế đi bậc hiền-năng . Đó là 10 cái khó , không trừ bỏ thì bề tôi hiền đức không dùng được , bề tôi hiền đức không dùng được thì đất nước không phải là đất nước nữa .</t>
-  </si>
-  <si>
-    <t>Sách Lục Thao viết : Vua Văn-Vương hỏi Thái-Công rằng : Vua lo việc tiến cử người tài vậy mà không thu được kết quả thành công , thế gian loạn lạc vô cùng lại còn dẫn đến cảnh đất nước nguy vong , việc đó là sao ? Thái-Công đáp : vì ( vua ) tiến cử người tài mà không dùng họ , ( nếu vua ) có tiến cử người tài thì chỉ là trên danh nghĩa thôi , không thể ( nói là ) có người tài thực được . Vua Văn-Vương nói : vậy sai lầm nằm ở đâu ? Thái-Công đáp : sai lầm nằm ở chỗ ( vua ) thích dùng người do thế-tục tán tụng nên không thể có được người tài thực sự .</t>
-  </si>
-  <si>
-    <t>Sách Tân Tự viết : Người làm vua mà coi thường bề tôi , thì kẻ trí sẽ không mưu toan , kẻ giỏi biện luận không đi sứ , kẻ dũng cảm không chiến đấu . Kẻ trí không mưu toan thì xã-tắc ( đất nước ) lâm nguy , kẻ giỏi biện luận không đi sứ thì đất nước sẽ không thông , kẻ dũng cảm không chiến đấu thì biên giới bị giặc xâm lấn .</t>
-  </si>
-  <si>
-    <t>Sách Tiềm Phu Luận viết : Quốc gia được an trị là có vua sáng suốt , mà loạn lạc là vì vua hôn ám . Vua sáng suốt là nhờ biết lắng nghe khắp cả ( quần thần ) , vua hôn ám là vì chỉ tin vào một phía . Nên người làm vua thông suốt ắt lắng nghe khắp cả ( quần thần ) , họ sẽ thành thánh , đức hạnh ngày một lớn vậy . Còn chỉ thích nghe lời vui lòng , tin vào một phía , thì trở thành ngu muội , đức hạnh ngày càng suy vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hậu Hán Thư viết :  Thần nghe người làm vua chẳng ai không thích người trung-chánh ghét kẻ xu nịnh , thế mà lịch sử ghi chép tai họa của các triều đại chẳng phải là người trung-chánh bị kết tội còn kẻ xu nịnh lại được sủng ái . Nên thấy nghe lời người trung khó , nghe /theo kẻ xu nịnh thì dễ .</t>
-  </si>
-  <si>
-    <t>Sách Phó Tử viết : Lãnh đạo sáng suốt sẽ bị nhiều kẻ xu nịnh mình , nên không thể nghe biết được lỗi lầm . Nên phải phóng khoáng để nhận sự can gián , mở đường để thu nhận những lời nghịch mình . Nếu có những lời nói xuất phát từ lòng trung-thành tuy không đúng , thì cũng nên vui vẻ mà tiếp nhận .</t>
-  </si>
-  <si>
-    <t>Sách Tiềm Phu Luận viết : Vua Thuấn nói : như ta có lỗi thì các khanh phải giúp ta sữa , đừng có  trước mặt thì thuận theo sau khi thoái lui lại bàn tán . Nên cái đạo của việc trị quốc là phải khuyến khích mọi người can gián , tuyên dương những lời nói phải , như thế vua mới sáng suốt để trị nước thấu tình , đạt lý .</t>
-  </si>
-  <si>
-    <t>Sách Ngô Chí viết : Vua của nước hưng thịnh vui khi nghe lỗi lầm , vua của nước loạn động vui nghe lời khen ngợi . Vui nghe lỗi lầm , thì lỗi lầm ngày càng tiêu mất , phước lộc đến theo . Vui nghe lời khen ngợi , thì lời khen ngợi ngày càng gây thêm tổn hại , tai họa đến theo .</t>
-  </si>
-  <si>
-    <t>Sách Hán Thư viết : Tổn hại tiết tháo của kẻ sĩ chính trực , bỏ qua lời khuyên của bề tôi . Quần-thần đều biết sai mà không tranh luận gì , người thiên-hạ nói ra thì ngăn cấm , đó thật là tai họa lớn của quốc gia .</t>
-  </si>
-  <si>
-    <t>Sách Khổng Tử Gia Ngữ viết : Đức Khổng-Tử nói : Thuốc tuy đắng miệng nhưng lợi cho việc trị bệnh , lời nói thật tuy nghịch lỗ tai nhưng lợi cho việc làm . Vua Thang , vua Võ thích nghe lời nói thật nên được hưng thịnh . Vua Kiệt , vua Trụ thích nghe lời thuận theo mình mà mất nước .</t>
-  </si>
-  <si>
-    <t>Sách Phó Tử viết : Nghe lời nói chưa xét rõ ràng , rồi lại cho là tốt xấu , thế thì thị-phi sẽ đảo lộn , những lời biện luận xảo trá theo đó mà khởi lên .</t>
-  </si>
-  <si>
-    <t>Sách Lưu Dực Chính Luận viết : Lãnh đạo chẳng ai là không yêu kẻ quý trọng mình , thế mà họ không biết được kẻ quý trọng mình không nên yêu quá mức . Nên ( khi ) say mê những lời nịnh hót của tiểu-thần thì không thể bỏ họ đi , đó là quên mất chính mình , muốn tốt cho mình thì đừng trọng dụng họ ( quá mức ) .</t>
-  </si>
-  <si>
-    <t>Sách Lão Tử viết : Vàng bạc đầy nhà không giữ được lâu , phú quý mà kiêu ngạo tự mời họa đến , việc đã làm thành thì nên thoái lui , đó là đạo trời .</t>
-  </si>
-  <si>
-    <t>Sách Thể Luận viết : Việc lắng nghe , xem xét là điều trọng yếu của việc tồn vong hay an nguy của nước nhà . Nếu người lãnh đạo lắng nghe , xem xét không rõ chỉ thiên tin về một phía , thì khi mưu sự sẽ có sơ hỡ không hoàn bị . Còn như có kế sách tốt biết lắng nghe , quan sát thu nhận từ nhiều phía , nhưng không biết phương pháp làm , khảo sát thì không tinh thì chỉ mang nhiều rối rắm .</t>
-  </si>
-  <si>
-    <t>Sách Tiềm Phu Luận viết : Đức Khổng-Tử nói : Kẻ có nhiều người thích ắt phải xét lại , kẻ có nhiều người ghét ắt phải xét lại . Nên bậc thánh-nhân thì xả bỏ , không ắt phải tin mọi người , lại cũng không ắt phải tin chính mình , mà ắt phải xét bên họ bên mình rồi phán xét cho hợp với đạo nghĩa . Nên khi tiến cử người thì không sai mất , và công lao cũng không mất đi .</t>
-  </si>
-  <si>
-    <t>Sách Trung Luận viết : Người làm vua có họa lớn , chẳng gì lớn bằng chỉ biết việc nhỏ mà bỏ qua việc lớn , chỉ thấy vật trước mắt mà mù cái nhiều ở xa . Từ xưa đến nay chưa có vua nào như thế mà không mất nước .</t>
-  </si>
-  <si>
-    <t>Sách Yến Tử viết : Vua ( Tề ) Cảnh-Công hỏi Yến-Tử rằng : Xưa kia khi ly tán dân chúng thì mất nước , thường những việc ( dẫn đến mất nước ) đó là gì ? Yến-Tử đáp : thưa nước nghèo thích làm việc lớn , trí kém thích tự làm , thích lời nịn hót mà bỏ đi đi người hiền , khoái sự kiêu mạn mà xem thường dân chúng , luật pháp quốc gia lúc có lúc không , dân chúng không có kỷ luật , thích biện luận cho rằng là hiểu biết , hà khắc với dân cho rằng làm hết mình , uống rượu quá mức đến mất nước , thích việc bịnh bị mà quên mất dân , răn đe giết kẻ có tội mà trì hoãn việc ban thưởng khen tặng , lấy sự đau khổ của người là niềm vui , cho lợi người là hại , đức trạch không đủ để dân nhớ tới , chính sách không đủ để giúp dân , khen thưởng không đủ để khuyến thiện , hình phạt không đủ để răn đe , đó là những việc làm dẫn đến mất nước . Nay dân nghe đến lệnh công như gặp kẻ thù , đó chẳng phải là việc xưa kia ly tán dân chúng thì mất nước thường làm đó .</t>
-  </si>
-  <si>
-    <t>Sách Hoài Nam Tử viết : Bậc thánh-nhân giữ cái có , không cầu cái chưa có . Cầu cái chưa có thì những cái có sẽ mất đi . Bồi dưỡng cái mình đã có thì những điều mong muốn sẽ đến vậy .</t>
-  </si>
-  <si>
-    <t>Sách Ngô Chí viết : Tuyệt dứt những dục vọng vô ích mà vâng theo đạo-đức , nhân-nghĩa , gác lại những việc không nguy cấp để lo gây dựng công nghiệp , đó là nền móng cho danh tiếng , đức hạnh há chẳng phải là việc tốt ư !  .</t>
-  </si>
-  <si>
-    <t>Sách Hàn Thi Ngoại Truyện viết : Phúc sinh ra từ không , mà họa sinh ra từ nhiều dục vọng . Nên biết đủ thì phúc thường theo , vua có đức thì sự quý trọng theo sau . Vì vậy người trọng tước vị mà khinh đức hạnh cho dù là thiên-tử thì cũng không cho là quý . Kẻ tham lam vật chất không biết dừng tuy có được cả thiên-hạ cũng không thể giàu nổi vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hoài Nam Tử viết : Kẻ có nhiều dục vọng sẽ bại vong , chưa có người vô dục mà bị nguy hiểm . Kẻ có dục vọng cai trị thì loạn , chưa có người giữ đạo thường mà tổn thất bao giờ .</t>
-  </si>
-  <si>
-    <t>Sách Tấn Thư viết : Ba triều đại ( Hạ , Thương , Chu ) được hưng vượng chẳng phải là biết đè nén lòng ham muốn , đến cuối triều đại suy vong chẳng phải là phóng túng , xa xỉ quá mức ( đó ư ) .</t>
-  </si>
-  <si>
-    <t>Sách Hoài Nam Tử viết : Mặt trời , mặt trăng muốn sáng nhưng bị mây che , sông nước muốn trong nhưng bị cát đá làm đục , tính người muốn được bình lặng mà bị thị dục làm hại . Thường phóng túng dục vọng thì mất đi nhân tính , nên khi làm gì thì thường không chánh , dẫn đến việc sửa thân cũng sai , đến việc trị nước cũng thất bại .</t>
-  </si>
-  <si>
-    <t>Sách Ngô Việt Xuân Thu viết : Trong thiên-hạ không có cái ngu nào hơn là chỉ biết lợi ích trước mắt , mà không trông thấy được họa hoạn sau này .</t>
-  </si>
-  <si>
-    <t>Sách Hoài Nam Tử viết : Ngày nay người sở dĩ phạm phải lao ngục , bị tội mà phải chịu họa hình-lục ( giết phanh thây ) , chẳng phải là do ham mê dục vọng vô bờ bến , không biết răn sửa mình mà gây nên đó ư .</t>
-  </si>
-  <si>
-    <t>Sách Hậu Hán Thư viết : Thường vật sinh trưởng đột ngột ắt sẽ chết yểu , sự nghiệp thành công quá nhanh ắt sẽ hoại nhanh chóng .</t>
-  </si>
-  <si>
-    <t>Sách Tấn Thư viết : Tiết kiệm là đức tính nên tôn trọng , xa xỉ là điều xấu lớn .</t>
-  </si>
-  <si>
-    <t>Sách Phó Tử viết  : Thời xưa lời nói không phù hợp với nghĩa lý kinh điển thì kẻ sĩ không để tâm . Việc chẳng phải làm ruộng , trồng dâu thì nông dân không làm rối việc và không coi trọng . Dụng cụ không dùng được người thợ sẽ không động tay làm . Vật phẩm không phải thế gian cần đến thì thương nhân sẽ không mang ra chợ bán . Kẻ sĩ nghĩ đến giáo huấn , nông dân nghĩ đến mùa vụ , người thợ nghĩ đến vật dùng được , thương nhân nghĩ đến đồ thường dùng , thế nên trên thì vật dụng đầy đủ mà dưới không thiếu thốn .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Quẻ ( Sơn Trạch ) Tổn , người quân-tử phải kiềm chế nóng giận và ngăn che dục vọng của mình .</t>
-  </si>
-  <si>
-    <t>Sách Phó Tử viết : Vua Tần-Thủy-Hoàng vô đạo há chẳng quá đáng ư !  , xem việc giết người như giết chó lợn , chó lợn người nhân dùng đến còn có tiết chế , vua ( Tần ) Thủy-Hoàng giết người chỉ do kích động mà thôi , việc làm vô đạo như vậy vậy mà ( thừa tướng ) Lý-Tư lại còn thêm hình phạt hà khắc nữa , chỉ tùy theo ý muốn của mình mà giết người tùy tiện , kết quả nhà Tần không trụ nổi hai đời vua rồi diệt vong , còn Lý-Tư không thoát cảnh ấy ( diệt tộc ) .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Đức Khổng Tử nói : gặp người hiền phải nghĩ sao cho giống họ , gặp người chẳng hiền thì tự phản tỉnh lại mình .</t>
-  </si>
-  <si>
-    <t>Sách Tăng Tử viết : Cảnh giới cao nhất là vui với việc thiện , kế là an trong việc thiện , dưới nữa tự cố gắng làm thiện .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Quẻ ( Phong Lôi ) Ích , người quân-tử thấy việc thiện thì theo , có lỗi phải sửa đổi .</t>
-  </si>
-  <si>
-    <t>Sách Tả Truyện viết : Người ai mà không lỗi , lỗi mà sửa đổi thì chẳng gì tốt hơn .</t>
-  </si>
-  <si>
-    <t>Sách Tăng Tử viết : Bậc cao nhất là không nảy sinh điều ác , bậc kế là nảy sinh rồi mà sớm đoạn tuyệt , bậc dưới mắc nhiều lần rồi sửa đổi lại .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Đức Khổng Tử nói : người quân-tử không biết tự trọng thì không có uy nghi , việc học sẽ không vững bền . Lấy đức trung-tín làm đầu , không kết bạn với người không như mình , có lỗi chớ ngại sửa đổi .</t>
-  </si>
-  <si>
-    <t>Sách Mao Thi ( Kinh Thi ) viết : Làm ra hình mẫu tốt cho vợ con , rồi lan đến anh em , rồi đến cả nước .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Vua với thế-tử ( con ) , có quan hệ gần gũi là cha , nhưng là vua phải có sự tôn nghiêm . Làm cha thì gẫn gũi , làm vua thì tôn nghiêm , như thế sau mới có thể kiêm quản thiên-hạ được .</t>
-  </si>
-  <si>
-    <t>Sách Ngụy Chí viết : Trong Truyện ( Tả Truyện ) viết : nhà Chu hội hợp các nước đồng minh đối với người khác họ hàng , thì xếp ngồi sau . Đó là ân tình với cốt-nhục không đổi , khoáng đạt mà không xa người thân , yêu người thân chân thật bền chắc . Không có đạo nghĩa mà sau ( người khác họ hàng xếp ngồi sau ) đó là lòng nhân từ của vua không lìa xa người thân vậy .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Người quân-tử dốc hết lòng với người thân thì dân hưng khởi lòng nhân , không bỏ rơi bậc cố-cựu thì dân sống không bạt bẽo .</t>
-  </si>
-  <si>
-    <t>Sách Hán Thư viết : Đức Khổng Tử nói : Người có thể hoằng đạo , đạo không thể hoằng người . Nên bình trị , loạn lạc , suy bại , hưng thịnh , là tại chính mình không phải mệnh trời , làm gì không được thì nên phản tỉnh lại mình .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Thầy Tử-Lộ hỏi về người quân-tử ?  , đức Khổng-Tử đáp : sửa mình trở nên cung kính , thầy Tử-Lộ hỏi : thưa chỉ như thế thôi sao , đức Khổng-Tử đáp : sửa mình để bách-tính an ổn , việc sửa mình để bách-tính an ổn đến vua Nghiêu , vua Thuấn còn chưa làm được .</t>
-  </si>
-  <si>
-    <t>Sách Hoài Nam Tử viết : Lãnh đạo như tâm của cả nước , tâm trị thì trăm hạnh tốt an , tâm nhiễu thì trăm hạnh tốt loạn .</t>
-  </si>
-  <si>
-    <t>Sách Phó Tử viết : Nên thiên-hạ không đúng thì tu sửa quốc-gia , quốc-gia không đúng thì tu sửa lại triều-đình , triều-đình không đúng thì tu sửa lại ( các quan ) trái phải , ( các quan ) trái phải không đúng thì tu sửa lại thân mình , thân mình không đúng thì tu sửa lại tâm . Nên tu sửa trọn khắp từ chổ gần mà tiến giúp trọn khắp những chổ xa . Vua Vũ , vua Thang trách tội mình mà hưng thịnh nhanh chóng , tâm chánh mới được vậy .</t>
-  </si>
-  <si>
-    <t>Sách Phó Tử viết : Không suy lòng ta ra lòng người , cho nên dùng người như cỏ rác . Khiến chổ dụng của người như chổ dụng của mình thì đạt được bản tính ư ?  . Người xưa thông đạt đạo trị nước thì hiểu tâm , làm mọi việc mà không chủ động và hành vi không tiết độ thì loạn . Nên trước phải làm tâm ngay thẳng , tâm ngay thẳng bên trong mà sau khi làm việc động hay tĩnh sẽ không tùy tiện , trước cho thiên-hạ noi theo mà sau thiên-hạ sẽ theo sự ngay thẳng mà bảo toàn được bản tính . Những yêu cầu này có xa chăng ? chẳng qua là cầu nơi tâm mà thôi vậy .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Nên trên kính dưỡng người già thì dân hưng khởi nết hiếu , trên tôn kính người lớn thì dân hưng khởi nết đễ ( kính nhường ) , trên thương xót người lẻ loi thì dân không phản bội nhau . Trên ghét gì thì đừng lấy đó sai khiến dưới , dưới ghét gì thì đừng lấy đó phụng sự trên .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Vua Nghiêu , vua Thuấn dùng lòng nhân lãnh đạo thiên-hạ thế mà dân theo . Vua Kiệt , vua Trụ dùng tàn bạo lãnh đạo thiên-hạ thế mà dân ( miễn cưỡng ) theo .</t>
-  </si>
-  <si>
-    <t>Sách Tả Truyện viết : Việc làm của trên sẽ là quy phạm ( hình mẫu ) cho dân , trên không làm lẽ nào bắt dân làm , ( dân không làm ) rồi nhân đó xử phạt họ thì ai mà không dám đề phòng . Nên việc trên làm thì dân cũng làm theo vậy , sao lại có thể ngăn cấm ?  .</t>
-  </si>
-  <si>
-    <t>Sách Diêm Thiết Luận viết : Đức Khổng-Tử nói : người mà không có lòng nhân , lại có tật đố kị thì chỉ làm rối loạn thêm . Nên dân loạn thì xem lại nền chính trị , nền trính trị loạn thì xem lại bản thân , bản thân chánh thì sau thiên-hạ an định . Do đó người quân-tử khen ngợi điều tốt mà không thể khoe khoang , ban ân tới kẻ đang chịu hình phạt , bố đức trạch khắp cả người cùng khổ . Bố thí ân huệ thì lòng vui sướng vậy , còn chấp hành hình phạt thì không vui .</t>
-  </si>
-  <si>
-    <t>Sách Chính Yếu Luận viết : Vì thế trời che phủ vạn-vật , vua thì che trùm vạn-vật . Thường mọi loài sinh vật loài nào chưa nhuần-thấm ân trạch thì trời đã phụ lòng , trong dân chúng có một người nào chưa thấm-ướt ân huệ thì vua thì lấy làm hổ thẹn .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Tượng viết : Núi cao có nước chảy bế tắc , người quân-tử xem lại bản thân , tu đức . Thoán viết : quẻ Thủy Sơn Kiển gian nan , nguy hiểm trước mặt , thấy nguy hiểm mà có thể dừng lại sáng suốt vậy thay .</t>
-  </si>
-  <si>
-    <t>Sách Tả Truyện viết : Sửa mình mà không trách người thì tránh được hoạn nạn .</t>
-  </si>
-  <si>
-    <t>Sách Tân Tự viết : Người nhân từ là vật bảo của quốc gia , bậc trí-sĩ là tài sản của quốc gia , bậc học sĩ uyên bác quốc gia phải tôn trọng . Nên quốc gia có người nhân từ thì quần-thần không tranh nhau , quốc gia có bậc trí-sĩ thì không có họa hoạn bốn phía các nước chư-hầu láng giềng xâm lấn , quốc gia có bậc học sĩ uyên bác thì lãnh đạo được tôn trọng .</t>
-  </si>
-  <si>
-    <t>Sách Tôn Khanh Tử viết : Tôn sùng thánh-nhân thì làm vua , quý trọng hiền-nhân thì làm bá . Kính hiền-nhân thì nước còn , khinh mạn hiền-nhân thì mất nước , từ xưa đến nay là vậy .</t>
-  </si>
-  <si>
-    <t>Sách Tả Truyện viết : Người tốt ở trên thì quốc gia không cho là may mắn . Dân chúng có câu ngạn ngữ : “dân nhiều hy vọng , nước không may mắn” . Đó là nói không có người tốt ( dẫn dắt ) vậy .</t>
-  </si>
-  <si>
-    <t>Sách Tả Truyện viết : Không có người tốt thì quốc gia sẽ theo đó ( mà diệt vong ) . Kinh Thi viết : “Người tốt nói cùng nhau ẩn trốn , thì nước nhà nguy khốn diệt vong” . Đó là nói ( nước ) không có người tốt vậy . Nên sách Hạ Thư viết : thà thiếu sót do không dùng hình pháp , còn hơn giết nhầm người vô tội . Đó là sợ mất người tốt vậy .</t>
-  </si>
-  <si>
-    <t>Sách Tân Tự viết : Nên vua phải lao nhọc tìm cầu người hiền , khi có được thì rất an nhàn . Vua Thuấn tiến cử người hiền trong dân chúng , cho họ ở đúng chức vị , ( nên cứ thế an nhiên ) áo quần rủ xuống , chính mình cung kính , không làm gì mà trị yên được thiên-hạ .</t>
-  </si>
-  <si>
-    <t>Sách Thi Tử viết : Các vị vua sáng suốt xưa kia tìm cầu người hiền , không kể xa gần , không luận sang hèn , buông bỏ tước vị để đón tiếp người hiền , hạ thấp bản thân trước kẻ sĩ .</t>
-  </si>
-  <si>
-    <t>Sách Lục Thao viết : Nay vua địa vị tôn quý tiếp đãi bậc hiền-sĩ trong thiên-hạ , chớ coi như bề tôi , mà nên xem như bạn thì vua sẽ có được thiên-hạ vậy .</t>
-  </si>
-  <si>
-    <t>Sách Thuyết Uyển viết : Chu-Công thay thiên-tử nhiếp chính 7 năm , ngài thay kẻ sĩ tặng quà gặp mặt cho thầy giáo có 10 người , gặp gỡ 12 người bạn ( đối đãi theo lễ ) , số người cùng xóm nghèo khó được ưu tiên gặp mặt có 49 người , số người đưa ra lời khuyên thiện có cả trăm người , kẻ sĩ được ngài chỉ bảo có cả ngàn người , số người ( được ngài tiến cử ) đang làm quan trong triều đình có cả vạn người . Đó là vì ngài chân thành giả như Chu-Công kiêu mạng và hẹp hòi thì chắc bậc hiền-sĩ trong thiên-hạ đến rất ít vậy .</t>
-  </si>
-  <si>
-    <t>Sách Chính Yếu Luận viết : Người làm vua chú trọng tại việc khơi thông bế tắc , khơi thông bế tắc thì chú trọng tại lời khuyên cấp dưới , được lời khuyên cấp dưới thì đạo lý tại lắng nghe nhiều , lắng nghe nhiều nghĩa là không phân sang hay hèn , giống hay khác , dẫu là nô bộc đến kẻ chăn trâu ngựa hễ đúng lý thì dùng được .</t>
-  </si>
-  <si>
-    <t>Sách Lã Thị Xuân Thu viết : Muốn biết vật ngay hay thẳng thì ắt phải dùng thước đo , dây đo . Muốn biết vật vuông hay tròn thì ắt phải dùng thước tròn , thước vuông . Lãnh đạo muốn tự biết thì ắt phải dùng kẻ sĩ chính trực .</t>
-  </si>
-  <si>
-    <t>Sách Phó Tử viết : Các vị vua hiền xưa kia thích nghe lỗi ( mình ) . Nên ( khi nghe ) được lời nói chính trực thì liền sửa lại khuyết điểm đó .</t>
-  </si>
-  <si>
-    <t>Sách Tiềm Phu Luận viết : Vua sáng cai trị dân chúng , thì chăm chú tiếp nhận lời nói của cấp dưới để rõ tình hình bên ngoài ( triều đình ) .  Cung kính thu nạp những kẻ thấp hèn để thu hút người tài , nên không cự tuyệt những lời khuyên sai thì ắt những lời khuyên ấy đều có chổ dùng , chỉ sợ khi cự tuyệt những lời khuyên vô dụng thì sẽ mất luôn những lời khuyên hữu dụng vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hậu Hán Thư viết : Vua có lòng nhân thì quảng đại như núi , là chổ chứa lớn để thu nạp những mưu lược thẳng thắng .</t>
-  </si>
-  <si>
-    <t>Sách Hậu Hán Thư viết : Ngày nay quần-thần nên lấy vua Thái-Ung mà răn , trên lo tai nạn khó lường , dưới sợ kiếm-khách đến giết hại , quần-thần biết triều-đình không thể gặp lại được những lời trung thành . Lời nói ra không chỉ rõ điều lỗi , thì cũng như trách khi dùng gương soi vì không thấy được tỳ vết nên oán ghét , lời nói ra ghi lại có lỗi thì không đáng học , không muốn gương sáng soi thấy tỳ vết thì đừng soi . Mong bệ-hạ hãy suy nghĩ kỹ về lời thần nói , không ai ghi lại lỗi lầm , không thấy tỳ vết thì phải khiển trách .</t>
-  </si>
-  <si>
-    <t>Sách Phó Tử viết : Có thể bao dung bề tôi chính trực , thì dù trên có lỗi cũng không hại đến  dưới , mà nỗi lo của dân trên cũng nghe được vậy .</t>
-  </si>
-  <si>
-    <t>Sách Ngụy Chí viết : Vua sáng thì bề tôi chính trực , thời xưa các vị thánh-vương lo sợ không nghe được điều lỗi nên có để cái trống mong người đến can gián .</t>
-  </si>
-  <si>
-    <t>Sách Hậu Hán Thư viết : Thời đại vua Nghiêu , vua Thuấn có để cái trống can gián , dựng cột gỗ chê bai ở triều-đình . Các vị vua sáng suốt nhà Ân , Chu đối với các oán trách , lời chửi mắng của dân chúng thì liền rửa mắt , đổi sắc mà lắng nghe nên họ thông đạt , rõ được sự tình , họ khai mở không kiêng dè ai , tiếp thu rộng để hiểu được tường tận hơn tình cảnh của dân chúng .</t>
-  </si>
-  <si>
-    <t>Sách Dục Tử viết : Vua Vũ trị thiên-hạ , thì nghe 5 loại âm thanh . Trước cửa ( triều đình ) treo cái chuông , trống , đạc , khánh bên cạnh có cái trống cơm lấy đó mà tiếp nhận ( các ý kiến ) kẻ sĩ trong bốn biển , trên cái đòn ngang treo khánh có khắc bài văn rằng : “ dạy đạo lý cho quả-nhân thì đánh vào trống , dạy quả-nhân điều nghĩa thì đánh vào chuông , dạy quả-nhân công việc thì rung cái đạc , báo cáo quả-nhân về nỗi ưu lo thì đánh vào cái khánh , bàn luận với quả-nhân chuyện kiện tụng , ngục tù thì rung cái trống cơm” , đó là 5 loại âm thanh . Cho nên vua Vũ thường trong một bữa ăn mà phải bảy lần đứng dậy , đến giữa ngày mà chưa rảnh để ăn no bụng , vua nói : “ ta không sợ kẻ sĩ trong bốn biển dừng lại ở bên đường , ta sợ không lưu lại ( các ý kiến của họ trên ) cửa triều đình ta” . Do vậy kẻ sĩ trong bốn biển đều kéo đến thế mà bên trong cửa triều-đình vùa Vũ khá là yên tĩnh ( la-tước ) .</t>
-  </si>
-  <si>
-    <t>Sách Hán Thư viết : Xưa kia Hán Cao Tổ ( Lưu Bang ) tiếp nhận điều thiện như theo không kịp , nghe theo lời can gián như quay vòng ( liên tục ) .</t>
-  </si>
-  <si>
-    <t>Sách Phó Tử viết : Tiếp nhận những lời nói xấu thẳng thắng mà hướng đến không vì danh . Khi không nghe những lời nói chính trực , thì tai mắt bế tắc , tai mắt bế tắc thì bên trong nịnh hót , bên ngoài thuận theo . Đó cũng chính là nguyên nhân khiến ba triều đại ( Hạ , Thương , Chu ) bị diệt vong thế mà chính họ không biết .</t>
-  </si>
-  <si>
-    <t>Sách Diêm Thiết Luận viết : Ông Biển-Thước không thể trị bệnh mà không dùng đến kim châm và thuốc thang , bậc thánh hiền không thể giúp khi vua không tiếp nhận những lời nói tốt lành . Nên vua Kiệt có ông Loan-Long-Phùng mà nhà Hạ vẫn diệt vong , vua Trụ có 3 người nhân đức mà cũng diệt vong . Nên thấy chẳng lo không có người như ông Di-Ngô ( Quản-Trọng ) hay ông Do-Dư , còn bàn đến thì lo sợ không có vua như Tề Hoàn Công và Tần Mục Công biết lắng tai nghe .</t>
-  </si>
-  <si>
-    <t>Sách Ngô Chí viết : Cho nên người làm vua cùng người giao du ắt phải chọn người đứng đắn , xem nhìn ắt phải xét hình tượng cho ngay thẳng , âm nhạc buông thả nước Trịnh ( dâm đãng ) thì không nghe , xa lánh kẻ nịnh bợ mà không gần gũi , có như vậy sau lòng gian tà không sinh mà chánh đạo có thể hoằng dương .</t>
-  </si>
-  <si>
-    <t>Sách Thân Giám viết : Có người hỏi thiên-tử canh phòng bốn phía các tộc man-di ( xâm phạm ) có phải không ? đáp : đó là canh phòng ở ngoài , thiên-tử bên trong canh phòng bản thân , hỏi : nghĩa là sao ?  , đáp : người ở địa vị rất tôn quý ( thiên-tử ) bị người công kích rất nhiều . Nên những kẻ hầu khéo giả bộ công kích vua ( thiên-tử ) để chiếm đoạt của cải , gần thì thê-thiếp công kích vua để giành sự sủng ái , kẻ du ca múa hát công kích vua để đoạt chí hướng , các quan nhỏ trái phải công kích vua để đoạt đi đức hạnh , không lệnh mà bề tôi công kích vua để chiếm việc đó gọi là giặc từ bên trong .</t>
-  </si>
-  <si>
-    <t>Sách Viên Tử Chính Thư viết : Gian thần nhân đó làm ra hình tượng và lời lẽ khiến vua vui lòng , nên ( vua ) không có khả năng phân biệt ( đúng sai ) rồi cho là đúng , vui lòng trong mê hoặc loạn tâm , cử động hàng ngày lầm lỗi mà thường tự cho mình là theo đúng đạo , việc đó là mối lo thường của người có quốc gia . Lời lẽ kẻ tà nịnh nhu thuận mà không tốt đẹp , lời người trung-chánh thẳng tắt mà đa phần khó nghe .</t>
-  </si>
-  <si>
-    <t>Sách Bão Phác Tử viết : Kẻ tiểu-nhân nịnh hót vui đùa để tán dương việc tốt , mặt thì thuận theo vỗ tay phụ tiết để khen ngợi công lao . Nhưng việc đó chỉ khiến người thêm mê hoặc không biết gì , tự cho lanh lẹ như Đoan Yến ( Yến Tử và Tử Cống ) , biện luận hơn người mà không tỉnh ngộ đó là chiêu vời tai họa đến thật rõ ràng .</t>
-  </si>
-  <si>
-    <t>Sách Ngụy Chí viết : Xưa ( thừa tướng ) Lý-Tư dạy hai đời vua Tần rằng : “ làm vua mà không bạo ngược phóng túng thì sai khiến thiên-hạ phải ràng buộc” . Hai đời vua Tần làm theo , nước Tần bị lật đổ , ( thừa tướng ) Lý-Tư cũng bị họa diệt tộc .</t>
-  </si>
-  <si>
-    <t>Sách Hán Thư viết : Dùng người hiền thì làm tốt việc chính trị , nghe theo lời gièm pha thì người hiền sẽ thoái lui , dẫn đến không thể làm tốt việc chính trị vậy .</t>
-  </si>
-  <si>
-    <t>Sách Thời Vụ Luận viết : Các nước trong thiên-hạ chẳng thể không có trung-thần và mưu-sĩ . Như việc hao binh , tổn tướng , hại thân , mất nước , thành thực là do tại vua lắng nghe không tinh tường , không tỉ mỉ .</t>
-  </si>
-  <si>
-    <t>Sách Hậu Hán Thư viết : Kẻ nói lời gièm pha , xảo trá nhìn tựa như thật thà , như cái lưỡi gà ( trong kèn sáo thổi lên ) khiến người nghe bị mê hoặc , người nhìn bị tối tăm . Sự lành dữ dấu hiệu ở đâu ? là ở sự khéo léo nhận thức , sự thành bại then chốt tại biết xét rõ lời nói .</t>
-  </si>
-  <si>
-    <t>Sách Phó Tử viết : Phàm loài có huyết khí nếu không thuận nhau thì sẽ nảy sinh lòng tranh đấu , sự việc đó ẩn dấu nên khó phân biệt được , nó nhỏ nhặt nên tai hại cũng sâu , đó chẳng phải là lời nói quá mức . Người làm vua hòa thuận với mọi người , an định dân chúng mà biết phân biệt việc tốt xấu để Rõ được cái chí của thiên-hạ , nên nghe lời nói không thể không xem xét kỹ càng vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hoài Nam Tử viết : Luật pháp không dùng được thánh-chủ không làm . Lời nói không chứng cứ minh-chủ không nghe .</t>
-  </si>
-  <si>
-    <t>Sách Tam Lược viết : Vua xét rõ lời nói dị thường bèn thấy rõ mầm móng tai họa , vua mời đón nho sĩ hiền-đức kẻ gian-hùng bèn trốn chạy , vua tín nhiệm cựu thần muôn sự bèn được xử lý , vua tìm hỏi ẩn sĩ bèn có được sự thật .</t>
-  </si>
-  <si>
-    <t>Sách Thuyết Uyển viết : Tề hầu hỏi Yến Tử rằng : làm chính trị thì lo việc gì ?  , Yến Tử đáp : thưa ( lo ) không phân biệt được việc tốt xấu , Tề hầu nói : thế phải phân biệt khảo sát thế nào ?  , Yến Tử đáp : phải khảo sát chọn lựa bề tôi thân tín ( trái phải ) , bề tôi thân tín tốt thì trăm quan có được vị trí phù hợp , nên việc tốt xấu phân biệt được vậy . Đức Khổng-Tử nghe được lời đó rồi khen rằng : Lời nói đó thật đúng , người tốt được tiến cử thì kẻ xấu không thể vào ( triều-đình ) , kẻ xấu được tiến cử thì người tốt lẽ nào lại vào được .</t>
-  </si>
-  <si>
-    <t>Sách Hàn Thi Ngoại Truyện viết : Số đông người dạ dạ ( vâng vâng ) không bằng lời nói thẳng của kẻ sĩ chính trực .</t>
-  </si>
-  <si>
-    <t>Sách Viên Tử Chính Thư viết : Người làm vua chẳng ai là không mong cầu có được người hiền để dùng nhưng đến khi dùng thì không thể tránh khỏi cảnh dùng kẻ bất tài , chẳng ai là không muốn trừ bỏ kẻ gian tà nhưng đến khi trừ bỏ thì không thể thoát khỏi cảnh trừ bỏ luôn người hiền . Nếu có chuyện đó là do việc thưởng phạt , bổ nhiệm , sai khiến , không thích đáng vậy . Người làm vua không thưởng việc không đáng thưởng , thì ắt là việc làm thích đáng vậy . Người làm vua không kết tội việc không đáng kết tội , thì ắt là việc làm đúng vậy . Có trí tuệ không thể thấy rõ chuyện thị-phi , rõ lý mà không thể tra xét , để những lời nói sai dần thấm vào , rồi tín nhiệm kẻ chưa hẳn là giỏi , tin dùng người không hẳn là trung thành . Nên trên danh nghĩa có việc thưởng người hiền , phạt kẻ hung bạo thì cũng có thực tế việc giết ( người hiền ) , dưỡng kẻ gian tà . Đó là cái họa lớn của thiên-hạ vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hán Thư viết : Thiên Hồng-Phạm ( Kinh Thư ) viết : Thiên-tử làm cha mẹ của dân , là vua của thiên-hạ , bậc thánh-nhân lấy đó để làm rõ danh phận nên gọi vua là cha mẹ của dân . Làm rõ chữ nhân , chữ ái , chữ đức , chữ nhượng đó là đạo căn bản để làm vua vậy .</t>
-  </si>
-  <si>
-    <t>Sách Văn Tử viết : Bậc thánh-nhân theo việc tuy có khác đường lối nhưng cùng mục tiêu . Việc nước được mất , an định hay nghiêng đổ nếu họ không cùng một chí hướng lẽ nào quên đi ?  , muốn lợi người nên lòng của thánh-nhân sáng tối lẽ nào quên đi ?  , vì muốn lợi người mà ân trạch bèn lại lan ra rất xa vậy .</t>
-  </si>
-  <si>
-    <t>Sách Giả Tử viết : Đạo là gốc của phúc , là điềm báo vinh quang của phúc . Vô đạo ắt là gốc của họa , là điềm báo ắt mất vinh quang của phúc . Do đó hành động mà không theo đạo dẫn đến lời nói , ắt không đoái hoài đến nghĩa vậy . Nên thấy vua Trụ tự xưng là thiên-vương còn vua Kiệt tự xưng là thiên-tử sau bị diệt vong dân chúng còn lăng mạ . Lấy đó thì biết địa vị của họ không đủ để được tôn trọng mà danh hiệu không đủ để được người tôn vinh vậy . Nên cái quý của người quân- tử ( vua ) là được dân chúng và kẻ sĩ quý trọng thì mới thật gọi là quý vậy . Nên cái giàu của người quân-tử là vui cùng dân chúng và kẻ sĩ , thì mới thật gọi là giàu vậy . Nên cái quý của người quân-tử là cùng hưởng phúc với dân , nên họ quý kẻ sĩ với dân chúng . Nên cái giàu của người quân-tử là hưởng của cải cùng với dân , nên họ vui cùng kẻ sĩ với dân chúng .</t>
-  </si>
-  <si>
-    <t>Sách Hoài Nam Tử viết : Vua Võ-Vương chiến thắng nhà Ân , liền phát lúa ở đất Cự-Kiều , tháo dỡ cung Lộc-Đài lấy tiền chia cho dân , phong cho Tỷ-Can coi giữ mộ tổ tiên , giải thoát Cơ-Tử khỏi tù , ngài không phân biệt quan cũ mới miễn là người hiền tài thì liền thân cận , vật dùng không nhất thiết là cái vốn có , sai khiến không nhất thiết là người thân cận , cứ thế ngài cứ an nhiên , coi những việc đó là thứ vốn có . Từ đó thấy được cái chí hướng lớn của thánh-nhân vậy .</t>
-  </si>
-  <si>
-    <t>Sách Lão Tử viết : Chẳng tội nào lớn bằng ( tội ) dâm dục , chẳng họa nào lớn bằng ( họa ) không biết đủ , chẳng hại nào lớn bằng ( hại ) muốn được . Nên biết đủ trong cái đủ , thì thường đủ vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hoài Nam Tử viết : Nay dòng nước chảy nhiều có thể tràn đầy cái khạp , thế mà nước từ sông ngòi không thể làm tràn cái chén lủng . Nên lòng con người cũng như vậy , phải lấy đạo thuật để đo lường , ăn để no bụng , quần áo để tránh rét thì đủ dưỡng cái hình hài bảy thước này . Nhưng nếu không dùng đạo thuật để đo lường thì dù có dùng gì đi nữa cũng không cảm thấy đủ , ví được tôn quý nhất ( làm vua ) thiên-hạ , thì sự giàu có cũng không đủ để vui vậy .</t>
-  </si>
-  <si>
-    <t>Sách Văn Tử viết : Mắt thích hình sắc , miệng muốn vị ngon , tai thích đắm chìm trong năm thanh âm . Khi thất-khiếu ( 7 lỗ trên thân : 2 con mắt , 1 cái miệng , 2 lỗ tai , 2 lỗ mũi ) giao-tranh thì chỉ hại đến bản tính , hàng ngày bị dẫn dụ bởi tà-dục làm kiệt quệ đến bản tính hài hòa của trời . Bản thân cứ không thể trị được thì làm sao xử trí được việc thiên-hạ ?  .</t>
-  </si>
-  <si>
-    <t>Sách Quốc Ngữ viết : Vẻ đẹp mà trên-dưới , trong-ngoài , lớn-nhỏ , xa-gần đều không bị hại gì , vậy mới gọi là đẹp . Như mắt xem thì phải đẹp , thì tiền của sẽ thiếu hụt . Nên tụ hợp dân vì lợi , thì tự che lấp mình mà làm tổn hại dân , như thế thì sao gọi là đẹp ?  . Vua một nước cùng với dân ở cùng một chổ , dân thật đúng gầy yếu , vua béo đích xác an vui ( ư ?  ) .</t>
-  </si>
-  <si>
-    <t>Sách Phó Tử viết : Cái hại trong thiên-hạ chẳng gì tệ hại bằng để nữ-nhân trang điểm ( quá mức ) . Người trên không tiết chế dục vọng tai mắt sẽ làm cạn kiệt việc sinh kế của dân , đồ vật tinh xảo quá mức sẽ làm thiên-hạ biến đổi . Một món đồ trang sức đầy đủ trên đầu giá đến ngàn lượng vàng , áo quần của tỳ thiếp thì gấp đôi của báu trong bốn biển . Buông thả dục vọng thì vô-hạn , mà dụng sức thì có giới-hạn . Dùng cái-giới hạn để làm thỏa mãn dục vọng cái vô-hạn , đấy cũng là nguyên nhân khiến vua Hán Linh ( Đế )  mất ( lòng ) dân . Trên không không tiết chế dục vọng , thì việc kẻ dưới túng tình , dâm đãng quá mức sẽ hưng khởi rồi làm dân chúng nhận lãnh nhiều tai hại vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hàn Thi Ngoại Truyện viết : Vua Tề-Cảnh-Công sai sứ-giả đến nước Sở , vua Sở cùng với sứ-giả đứng trên tòa tháp cao 9 tầng rồi ngoảnh lại nhìn vị sứ-giả hỏi : nước Tề cũng có tòa tháp như thế không ?  , vị sứ-giả đáp : thưa vua của tôi có nhà triều-đường để xử lý việc nước , nhà có bậc thềm bằng đất cao 3 thước , mái lợp cỏ tranh không cắt tỉa , cột nhà không đẽo gọt , vua tôi cho làm vậy là cực nhọc , mà sống trong đó quá thư thái . Nên vua của tôi rất ghét việc đó nên sao có được tòa tháp như thế ?  , vua Sở nghe xong liền tỏ vẻ bất an .</t>
-  </si>
-  <si>
-    <t>Sách Tân Ngữ viết : Bậc thánh-nhân ở trong cung-thất tồi tàn mà đề cao đạo-đức , y phục sơ sài mà chăm làm việc nhân-nghĩa , không tổn hại phẩm hạnh để cho hình dáng được tốt đẹp , không tổn hại đức tốt để làm đẹp cho bản thân , đất nước không hưng thịnh không làm chuyện vô ích , nhà không chứa khí cụ không dùng được .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Đức Khổng-Tử nói : đối với vua Vũ ta thật không chê vào đâu được , ăn uống đạm bạc mà cúng tế tổ tiên rất trí-hiếu , quần áo sơ sài mà khi thăng triều áo mũ rất đẹp đẽ , cung-thất ở tồi tàn mà dốc sức vào việc khơi thông kênh gạch , sông ngòi . Vua Vũ ta thật không chê vào đâu được vậy !  .</t>
-  </si>
-  <si>
-    <t>Sách Thượng Thư viết : Đối với kẻ bạo ngược và ngoan cố thì không tức giận , không mong cầu một người hoàn bị ( hoàn hảo mọi mặt ) .</t>
-  </si>
-  <si>
-    <t>Sách Hàn Tử viết : Trên không phẫn-nộ lây xuống dưới , dưới không giấu oán hận gây họa lên trên . Việc đó giúp tăng thêm lợi ích , tích nhiều sự thành công lớn , lập nên những danh tốt trước mắt , lưu truyền đức tốt đến đời sau , việc cai trị đạt tốt đẹp vậy .</t>
-  </si>
-  <si>
-    <t>Sách Chính Yếu Luận viết : Có bề tôi nói chuyện vụng về mà đúng công việc , hay lời nói hơi nghịch mà thuận lợi cho công việc , chẳng lẽ bỏ qua lời nói chính trực đó ?  . Có bề tôi chất phát , ngây ngốc và lời lẽ vụng về bề ngoài sơ sài mà bên trong rất thông minh , chẳng lẽ bỏ qua những lời nói chất phát đó ?  . Có bề tôi mạo phạm khuyên nhưng điều khó của một kẻ sĩ , nhận phỉ báng của người trong nước , chẳng lẽ bỏ qua những lời nói trung thành đó ?  . Có bề tôi tuân thủ đúng việc mà nghịch lại với ý đại chúng , chấp-pháp mà không màng đến ý riêng , chẳng lẽ bỏ qua những lời nói công bằng đó ?  . Có bề tôi không uốn mình , chẳng cầu người thế gian để lấy chổ dung thân , chẳng lẽ bỏ qua nhưng lời nói liêm khiết đó ?  . Có bề tôi theo địa vị thấp hèn mà dâng lên những lời nói rõ ràng , chẳng màng địa vị ty-tiện mà nói công việc đất nước , chẳng lẽ bỏ qua những lời nói khó có đó ?  . Có bề tôi bị cô lập mà biết giữ tiết khí , thân phận độc lập mà gặp nhiều hủy báng , chẳng lẽ bỏ qua những lời nói cứng mạnh đó ?  . Đó là 7 điều chẳng thể bỏ qua , để tiếp nhận những lời nói tốt lành , là đạo lý để tiếp nhận ý kiến từ cấp dưới vậy .</t>
-  </si>
-  <si>
-    <t>Sách Mao Thi ( Kinh Thi ) viết : Không cày làm ruộng đất to , khỏi lo cỏ dại mọc đầy . Không nhớ tưởng đến người xa , thì chẳng lao tâm khổ trí .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Đức Khổng Tử nói : thấy việc thiện như cảm thấy chưa đủ , thấy việc bất thiện như thò ( tay ) vào nước sôi .</t>
-  </si>
-  <si>
-    <t>Sách Mạnh Tử viết : Thầy Mạnh Tử nói : thầy Tử-Lộ khi thấy người chỉ ra sai lầm liền vui vẻ . Vua Vũ khi nghe một lời nói phải thì liền bái tạ . Vua Thuấn lại còn lớn hơn nữa , làm thiện cùng người , bỏ mình theo người , vui vẻ nhận lấy ( chỉ dẫn ) từ người để làm thiện . Từ lúc cày cày ruộng , trồng lúa , làm đồ gốm , đánh cá , cho đến khi làm vua , không lúc nào mà ngài chẳng giữ lấy điều thiện của người để học theo . Giữ lấy những điều thiện của người , đó cũng như cùng người làm thiện . Nên công việc của người quân-tử chẳng gì lớn hơn là cùng người làm thiện .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Tượng viết ( quẻ Chấn ) : sấm liên tiếp thì chấn động . Người quân-tử nên sợ hãi mà tu tỉnh ( xét mình sửa lỗi ) lại .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Đức Khổng Tử nói : Con của họ Nhan ( ám chỉ thầy Nhan Hồi ) cơ hồ đã gần đạt đạo ư !  . Có điều bất-thiện chưa từng không biết , đã biết rồi thì không làm lại nữa . Dịch viết : xa rời không làm trở lại thì không hối hận nhiều , thì bắt đầu tốt lành .</t>
-  </si>
-  <si>
-    <t>Sách Trung Luận viết : Tài trí nhạy bén hơn người chưa đủ để quý , biện bác thông suốt hơn người chưa đủ để quý , dũng cảm quyết đoán hơn người chưa đủ để quý . Cái quý của người quân-tử là thay đổi để thành thiện , lo lắng khi làm không tới , sửa chữa những điều xấu , sợ hãi khi làm còn thiếu sót .</t>
-  </si>
-  <si>
-    <t>Sách Trung Luận viết : Khi nghe lỗi mà chẳng sửa đổi thì gọi là táng-tâm , nghĩ tới lỗi mà chẳng sửa đổi thì gọi là thất-thể . Người bị thất-thể và táng-tâm thì họa loạn sẽ tìm đến . Người quân-tử xả bỏ ( hai ) thứ đó .</t>
-  </si>
-  <si>
-    <t>Sách Ngụy Chí viết : Kinh Dịch viết : gia-đạo ăn ở đúng phép rồi thiên-hạ được an định , là ( sửa trị ) từ trong đến ngoài . Đó là lệnh-điển ( hiến pháp ) của tiên-vương vậy .</t>
-  </si>
-  <si>
-    <t>Sách Thượng Thư viết : Gây dựng lòng yêu thương nơi cha mẹ , gây dựng sự cung kính nơi bậc lớn . Ban đầu từ gia đình , rồi đến đất nước , sau cùng lan khắp nơi trong bốn-biển .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Thế nên đạo-người là yêu cha-mẹ mình , yêu cha-mẹ mình nên mới tôn kính tổ-tiên , tôn kính tổ-tiên nên kính trọng dòng-họ , kính trọng dòng-họ nên mới thu-tộc ( trên dưới ăn ở theo phép ) , thu-tộc rồi nên tông-miếu trang nghiêm , tông-miếu trang nghiêm nên biết quý trọng xã-tắc ( đất nước ) , quý trọng xã-tắc nên yêu thương bách- tính ( dân chúng ) , yêu thương bách-tính nên hình phạt đúng , hình phạt đúng nên lòng thứ-dân an , lòng thứ-dân an nên của cải đủ dùng , của cải đủ dùng nên mọi chí hướng điều thành , mọi chí hướng thành nên lễ tục thành hình , lễ tục thành hình mà sau ( đất nước ) được yên ổn . Kinh Thi viết : “ ( Đức của vua Văn-vương ) chẳng rõ rệt chẳng vâng theo ( sao ?  ) , cái đức ấy ) không bị người chán ghét .” Điều ở trên đã nói lên vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hán Thư viết : Nhà Hạ ở ngôi thiên-tử được hơn 10 đời ( vua ) , nhà Ân ở ngôi thiên-tử được hơn 20 đời , nhà Chu ở ngôi thiên-tử được hơn 30 đời , nhà Tần ở ngôi ở ngôi thiên-tử được 2 đời ( vua ) rồi diệt vong . Tính người không quá xa , vì sao vua của ba nhà ( Hạ , Ân , Chu ) có đạo đức thì truyền lâu dài mà vua nhà Tần vô đạo đức tàn bạo ( bị diệt vong ) ?  , việc đó có thể biết được vậy . Các vị vua xưa , khi thái-tử vừa sinh ra lúc cử động thì chấp theo lễ pháp , sai quan-sĩ cõng thế-tử , cùng quan hữu-tư sửa lại mũ áo chỉnh tề đến lễ tế trời đất . Khi đi qua cửa cung điện thì xuống đi bộ , khi đến tông miếu thì đi nhanh , đó là đạo của người con hiếu vậy . Nên từ khi còn là trẻ sơ sinh ( thế-tử ) đã được dạy phải chấp hành ( theo lễ pháp ) vậy .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Nói chung ba đời vua ( Hạ , Thương , Chu ) dạy thế-tử ắt lấy lễ-nhạc . ( Dạy ) Nhạc là để tu dưỡng bên trong , ( dạy ) lễ là để tu dưỡng bên ngoài . Lễ-nhạc đã hòa lẫn vào trong , thì biểu hiện ra ngoài hình tướng .</t>
-  </si>
-  <si>
-    <t>Sách Tả Truyện viết : Quan đại phu Thạch-Thác can gián ( vua nước Vệ ) rằng : bề tôi nghe yêu thương con thì phải dạy nghĩa lý , không cho chúng tiếp thu những tật xấu . Kiêu-mạn , xa-xỉ , dâm-loạn , phóng-túng là các tật xấu . Bốn thứ đó tìm đến là do sự nuông chiều quá mức vậy .</t>
-  </si>
-  <si>
-    <t>Sách Ngụy Chí viết : ( Tào ) Cổn bệnh nặng bảo thế-tử rằng : ta thuở nhỏ không hiểu biết nghĩa lý , làm vua từ rất sớm , chỉ biết hưởng lạc mà không biết khổ gì là ắt sẽ vướng phải lỗi kiêu căng , xa xỉ . Khi tiếp các bậc đại-thần ( con ) phải dùng lễ , còn không phải là đại-thần nhưng với người già thì phải vái chào đáp lại , làm việc cho anh phải cung kính , chăm sóc em thì phải yêu thương . Anh em làm không tốt , thì phải can gián hết lòng . Can gián mà không theo , thì khóc lóc khuyên bảo , khuyên bảo mà không sửa đổi thì liền báo cho mẹ . Nếu không sửa đổi thì phải trình tấu lên trên , để trên tước bớt đất đai . Chuyện đó so với việc giữ lấy sự nuông chiều đến bị họa , thì chẳng bằng nghèo hèn để bảo toàn thân mạng . Đó lại là nói đến những tội lớn , còn những việc xấu nhỏ , thì nên che dấu đi . Than ôi ! con trai phải cẩn thận mà tu dưỡng bản thân . Phụng mệnh thánh-chỉ của triều-đình phải tận hết lòng trung-trinh , phụng sự cho Thái-Phi phải tận hết lòng hiếu-kính , việc trong cửa cung vâng theo lệnh của Thái-Phi , còn việc bên ngoài cửa cung thì nhận sự dạy bảo từ Bái-Vương , không được để lòng chểnh mảng , lấy điều ấy mà an ủi lình hồn ta .</t>
-  </si>
-  <si>
-    <t>Sách Mao Thi ( Kinh Thi bài Quan-Thư ) viết : Thư-Cưu kiêu quan quan , ở tại bãi sông xa . Cô thục-nữ diệu hiền , quân-tử mong sánh đôi .</t>
-  </si>
-  <si>
-    <t>Sách Chính Yếu Luận viết : Ngựa của Ngô-Phản nếu người tầm thường đến cưỡi thì rất tệ hại , còn đưa cho ông Bá-Lạc cầm dây cương thì thành ngựa lương-ký , ngựa không khác nhau là mấy vậy . Việc dạy dân cũng như thế , nên gặp vua Vũ , vua Thang thì họ làm dân tốt , gặp vua Trụ , vua Kiệt thì họ làm dân ngu ác , do việc cai trị khiến cho họ như thế vậy . Nên khéo trị nước thì chẳng oán hận người dân mà nên đổ hết tội nơi mình , không trách phạt các cấp dưới mà nên tìm cầu ( lỗi ) hết nơi mình .</t>
-  </si>
-  <si>
-    <t>Sách Giả Tử viết : Vua có thể làm tốt , thì quan-lại ắt có thể làm tốt , quan-lại có thể làm tốt , thì dân chúng ắt có thể làm tốt . Nên dân không tốt là tội của quan-lại , quan-lại không tốt là lỗi của vua . Than- Ôi ! nên răn ! nên răn !  .</t>
-  </si>
-  <si>
-    <t>Sách Khổng Tử Gia Ngữ viết : Yêu người thì người yêu lại , ghét người thì người ghét lại . Biết đạt được nơi mình , thì biết đạt được nơi người . Sở dĩ không ra khỏi tường rào nhà mà biết được việc thiên-hạ , là vì biết phản tỉnh chính mình mà được vậy .</t>
-  </si>
-  <si>
-    <t>Sách Phó Tử viết : Bậc đại quân-tử thời xưa khi sửa mình , trị người , thì trước làm lòng dạ ngay thẳng mà sau đạt đạo mà thôi . Có thể đạt đạo thì không gì chẳng đạt được vậy . Nếu mất đạo thì không gì chẳng mất vậy , không gì chẳng đạt được thì việc trị thiên- hạ rất nhàn rỗi , nếu không thì cũng sẽ bảo toàn được bản thân , ở nơi chánh đáng hết năm không mất hòa thuận , đạt được thì làm thiên-hạ trở nên tốt đẹp , và mọi vật không gì chẳng đạt được . Còn mất đạo không gì chẳng mất , đến nỗi không đủ nuôi sống vợ con . Nếu không phản tỉnh chính mình lại trách người thì tai họa bèn đuổi theo thân . Lúc thịnh đạt thì phóng túng tình cảm hoang phí vật dụng thì tai ương bèn giáng xuống người thiên-hạ vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hàn Thi Ngoại Truyện viết : Biết căn nguyên mệnh trời , hiểu trị tâm thuật , rõ đạo lý ưa ghét , làm thích hợp với tính tình đó là đạo lý cai trị hoàn bị . Biết căn nguyên mệnh trời thì không nghi hoặc việc họa phúc , không nghi hoặc việc họa phúc thì hành động hay nghĩ ngơi đều hợp lý . Hiểu trị tâm thuật thì không có chuyện vui giận thất thường , không có chuyện vui giận thất thường thì việc thưởng phạt không thiêng vị . Rõ đạo lý ưa ghét thì không tham những thứ vô dụng , không tham những thứ vô dụng thì vật chất không hại được bản tính . Làm thích hợp với tính tình thì lòng dục không quá mức , lòng dục không quá mức thì nuôi dưỡng bản tính biết đủ vậy . Bốn điều ấy chẳng cầu ở ngoài , chẳng cần người trợ giúp , chỉ quay lại tìm hết ở nơi mình mà thôi .</t>
-  </si>
-  <si>
-    <t>Sách Hán Thư viết : Truyện viết : “ Xét đạo lý ưa ghét của tính tình mà sự nghiệp vương-đạo được hoàn bị” . Có thể biết được hết bản tính ( mình ) rồi sau mới có thể biết được bản tính người và vật , biết hết bản tính người và vật thì có thể giúp đỡ trời đất vào việc giáo hóa . Cái đạo của việc sửa trị bản tính , ắt phải xét rõ mình để biết những chổ dư thừa , rồi biết ra sức bù vào chổ còn thiếu . Như thông-minh sáng suốt phải ngừa xét nét chuyện lớn , nghe biết ít ỏi phải ngừa che lấp sự bế tắc , dũng mãnh kiên cường phải ngừa sự bạo ngược quá đáng , nhân ái hiền lành phải ngừa sự không quyết đoán , trầm tĩnh thư thái phải ngừa sự bỏ lỡ thời cơ sau này , tâm lượng rộng lớn phải ngừa sự quên mất việc . Ắt hẳn phải xét rõ mình để ngăn lại , sửa mình theo điều nghĩa sau ứng hóa theo đạo trung hòa , thì những kẻ xảo trá chẳng dám lộng hành và không dám mơ đến nữa .</t>
-  </si>
-  <si>
-    <t>Sách Thi Tử viết : Đức Khổng Tử nói : Người quân-tử như cái bát , dân như nước trong bát . Bát hình vuông thì nước vuông , bát hình tròn thì nước tròn . Trên thích gì ? mà dân chẳng làm theo .</t>
-  </si>
-  <si>
-    <t>Sách Hoài Nam Tử viết : Bậc trên tham gỗ , bề tôi hủy hoại cây cối . Bậc trên tham cá , bề tôi tát khô sông suối . Bậc trên ham mái trèo mà cấp dưới đem cả con thuyền . Bậc trên nói ra một mà cấp dưới nói như cả bó sợi tơ . Bậc trên có một việc tốt thì cấp dưới khen ngợi hai việc . Bậc trên giảm ba phần thì cấp dưới bớt chín phần .</t>
-  </si>
-  <si>
-    <t>̃7 .Sách Mặc Tử viết : Các bậc vua thánh xưa kia làm chính trị , thì biểu dương đức hạnh và tôn trọng người hiền . Dù là hạng nông dân hay thợ nghề , kẻ bán buôn có năng lực thì được tiến cử , ban tước vị cao , thưởng bỗng lộc hậu để họ đảm nhiệm việc chính sự , không vì tài đức của họ mà ban thưởng để mong nên việc . Nên người có đức hạnh tốt thì sắp đặt theo quan-phục và công việc , lấy công lao để xét thưởng , lấy thành tích mà chia bổng lộc . Do đó quan chức không thường quý hiển mà dân chúng không mãi thấp hèn , có năng lực thì được tiến cử , không có năng lực thì bị hạ xuống , tiến cử thì công bằng theo lẽ phải thì ngừa lòng thù oán riêng . Nên có được kẻ sĩ , có được kẻ sĩ thì kế sách không khốn đốn , thân thể không lao nhọc , danh tiếng tốt mà công việc thành tựu mỹ mãng , điều xấu chẳng sinh . Cho nên tôn trọng người hiền là gốc của làm chính trị vậy .</t>
-  </si>
-  <si>
-    <t>Sách Ngụy Chí viết : Tục ngữ nói : “ Đời có người làm loạn , mà pháp luật không loạn “ . Như lấy luật pháp sử dụng có thể dụng được thì thời Đường , Ngu có thể không cần đến sự giúp đỡ của ông Tắc , ông Tiết , nhà Ân , nhà Chu không quý trọng sự phụ giúp của ông Y-Doãn , ông Lã-Thượng rồi .</t>
-  </si>
-  <si>
-    <t>Sách Thi Tử viết : Thường đạo lý của việc cai trị chẳng gì hơn nương theo cái khôn của kẻ trí , đạo lý của kẻ trí chẳng gì hơn là nương theo người hiền . Thí dụ như việc nhận biết ngựa thì phải nhờ đến ông Bá-Nhạc , nhận biết ngọc thạch thì phải nhờ đến ông Y-Đốn , thế thì ắt không sai lầm vậy .</t>
-  </si>
-  <si>
-    <t>Sách Lã Thị Xuân Thu viết : Qua sông dựa vào thuyền , đi xa dựa vào ngựa-ký , còn làm bá-vương thì dựa vào người hiền .</t>
-  </si>
-  <si>
-    <t>Sách Hàn Thi Ngoại Truyện viết : Kìa chim , thú , cá còn biết mượn ( sức của tự nhiên ) huống chi là vua có vạn binh mã mà lại đơn độc , không biết mượn sức của các bậc anh-hùng xuất chúng trong thiên-hạ cùng làm việc trong hàng ngũ sao , há chẳng phải là việc đáng tiếc ư ! Nên nói : lấy người mắt sáng giúp kẻ mắt sáng thì thăng hoa lên trời , lấy người mắt sáng giúp kẻ mắt mờ thì giúp nhau quay về ( đường tốt ) , cả hai mắt đều mù giúp nhau không va vào tường hay cây cối , không rớt xuống giếng hay hố bẫy thì may mắn lắm rồi .</t>
-  </si>
-  <si>
-    <t>Sách Quản Tử viết : Nghe lời người hiền mà không cất nhắc thì nguy hiểm , nghe lời tốt lành mà không tìm hiểu thì nguy khốn , thấy có thể mà không sử dụng thì mỏi mệt , gần người nhân mà không kiên trì thì nguy ngập , cùng mưu sự mà không tuân theo thì không yên .</t>
-  </si>
-  <si>
-    <t>Sách Trung Luận viết : Tôn-Tử ( hay Tuân-Tử ) nói : Cái họa của người làm vua chẳng tại lời nói không dùng người hiền , mà tại không thành tâm trong việc dùng người hiền . Miệng nói dùng người hiền , muốn người hiền làm việc . Miệng thì nói việc làm thì trái lại , vậy mà muốn người hiền tiến đến , kẻ ngu thoái lui chẳng phải lại khó khăn sao ? , lời nói hay lắm vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hạt Quan Tử viết : Bậc đế ở cùng với thầy ( giỏi ) , bậc vương ở cùng với bạn ( hiền ) , kẻ mất nước ở cùng người hầu ( nịnh hót ) .</t>
-  </si>
-  <si>
-    <t>Sách Hậu Hán Thư viết : Coi bề tôi như thầy thành bậc đế , coi bề tôi như khách thì thành bậc bá . Nên vua Võ-Vương tôn Thái-Công làm thầy , vua Tề-Hoàn-Công tôn Di-Ngô ( Quản-Trọng ) làm trọng-phụ ( người cha thứ 2 ) .</t>
-  </si>
-  <si>
-    <t>Sách Tam Lược viết : Nước trị , nhà an là tại có được lòng người ; Nước mất , nhà tan là tại mất lòng người . Nên vua sáng , bề tôi hiền dẫu mình có thiệt thòi cũng phải mở rộng tấm lòng với người .</t>
-  </si>
-  <si>
-    <t>Sách Hán Thư viết : Người hiền ở chức vị cao thì dẫn dắt những người cùng chí hướng đến quy tụ triều-đình , còn ở chức vị thấp thì mong những người cùng chí hướng được tiến cử . Nên vua Thang trọng dụng ông Y-Doãn làm những kẻ bất-nhân tránh xa , và thu hút những người hiền cúng chí hướng đến giúp .</t>
-  </si>
-  <si>
-    <t>Sách Thi Tử viết : Vua Trịnh-Giản-Công nói với ông Tử-Sản rằng : “uống rượu không nhạc , chuông trống không kêu , đó là trách nhiệm của quả-nhân . Quốc gia không có thu nhập , triều-đình không trị được , cùng nước chư-hầu kết giao mà không thỏa chí , đó là trách nhiệm của thầy vậy .” Tử-Sản trị nước Trịnh không có nạn trộm cướp , đường xá không kẻ đói . Đức Khổng Tử nói  : “ Nếu vua Trịnh-Giản-Công thích nhạc thế này dù ôm hết chuông vào triều-đình cũng được .” Dùng người hiền , thân thể an lạc mà danh tiếng càng thêm , ít việc mà nhiều thành công , nước trị mà có thể nhãn rỗi .</t>
-  </si>
-  <si>
-    <t>Sách Lã Thị Xuân Thu viết : Lời nói thật lòng nghịch lỗ tai , trái lại với lòng mình , không phải bậc vua hiền thì có thể chấp nhận nghe ư !  . Nên vua hiền phải vui với những lời không thuận mà chẳng nên trách phạt . Nay có một cái cây ở đây muốn nó đẹp , người ta tưới bón đều đặn thì ghét bỏ , rồi hàng ngày chặt rễ cây đi thì ắt cái cây không sống nổi . Nay ghét những lời nói thật lòng thì cũng như tự chặt ( rễ cây ) cho hết sạch vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hoài Nam Tư viết : Vua sáng nghe được kế sách có thể dùng của quần-thần , thì không xấu hổ vì chức vị khi tiếp nhận kế sách có thể thi hành ấy và không biện bác ngược lại . Vua ngu muội thì không như vậy , tin những kẻ mình yêu thích hay thân cận , dẫu kẻ tà ác , bất chánh , thì cũng không thể thấy biết được . Xa cách những người thấp hèn , dẫu họ có tận hết sức trung thành , thì cũng chẳng nhận ra . Có những lời khuyên tốt , thì dùng lời lẽ làm cho người khuyên cùng lý . Có những lời can gián , thì liền khiển trách rồi phạt tội . Làm như thế mà muốn soi sáng trong khắp biển , bảo bọc khắp nơi , thì khắc gì bịch kính lỗ tai mà nghe âm thanh trong đục , che kính mắt mà xem màu vàng xanh . Đó là lìa sự sáng suốt lại thêm xa vời vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hán Thư viết : Vua sáng mở lòng khoan dung để lắng nghe , tôn trọng những lời can gián thẳng của bề tôi , mở lối cho người ngay thẳng , không phạt tội những người nói lời ngông cuồng . Vậy mà sau bá quan đang tại vị tận hết lòng để mưu sự , không lo tai họa sau này , triều-đình không kẻ sĩ nịnh hót , vua không mất đường lối dẫn đến sai lầm vậy .</t>
-  </si>
-  <si>
-    <t>Sách Sử Ký viết : Phòng cái miệng của dân , còn hơn là phòng nước lũ . Nước tắc nghẽn tràn ra thì hại người ắt nhiều , ( cái miệng ) của dân lại cũng như thế . Cho nên người trị thủy phải khơi thông để dòng nước lưu thông , còn việc trị ( cái miệng ) của dân thì bày tỏ để họ nói ra . Nên dân có miệng cũng như việc trên đất có núi sông , tài vật cũng từ đó mà ra , như việc có cánh đồng ẩm ướt nước chảy tràn tươi tốt , quần áo , thức ăn cũng từ đó mà sinh ra . Cái miệng mà có thể bày tỏ lời nói , thì cái tốt , cái bại cũng từ đó mà hưng khởi . Khi người dân nói ra những lo âu trong lòng rồi bày tỏ ra miệng khi thành rồi thì động loạn . Như bịch miệng ( dân ) thì sao có thể cùng sống lâu bền được ?</t>
-  </si>
-  <si>
-    <t>Sách Sử Ký viết : Vua Thang nói : ta có nói , người nhìn nước thấy hình dáng , nhìn vào dân biết nền chính trị . Ông Y-Doãn nói : sáng suốt thay , biết lắng nghe ý kiến thì đạo bèn tiến tới , vua và dân được tốt lành nhờ có được quan giỏi . Cố gắng thay !  , cố gắng thay !</t>
-  </si>
-  <si>
-    <t>Sách Tả Truyện viết : Thầy nói với ta 9 điều rằng : 1 .Không khởi đầu loạn , 2 .Không cậy giàu , 3 .Không nhờ vào ân sủng , 4 .Không trái ý chung , 5 . Không cợt nhã lễ , 6 . Không vì tài mà kiêu mạng , 7 .Không giận nhiều lần , 8 .Không mưu tính việc phi-đức , 9 .Không phạm điều phi-nghĩa .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Quẻ Thiên Địa Bĩ . Thoán viết : trời đất không giao nên vạn vật không thông , trên dưới không giao nên thiên-hạ không đất nước . Trong âm mà ngoài dương , trong nhu mà ngoài cương , trong tiểu-nhân mà ngoài là quân-tử , đạo của tiểu-nhân sinh trưởng , đạo của quân-tử tiêu mất vậy .</t>
-  </si>
-  <si>
-    <t>Sách Thượng Thư viết : Tôi tớ chánh , vua sẽ chánh . Tôi tớ nịnh hót , vua tự cho mình là thánh trí . Vua có đức là do bề tồi , vua thất đức cũng do bề tôi . Ngươi không thân thiết với kẻ gian nịnh , không để họ làm quan tai mắt , để rồi đến nỗi làm trái lại với phép tắc của tiên-vương .</t>
-  </si>
-  <si>
-    <t>Sách Hậu Hán Thư viết : Bề tôi nghe tai họa của thiên-hạ chẳng phải do ở bên ngoài , đều ở bên trong hưng khởi lên . Cho nên vua Ngu-Thuấn thăng triều thì trước tiên trừ đi 4 kẻ hung ác , mà sau dùng 16 vị tướng . Rõ ràng kẻ ác không trừ khử thì người thiện không có lý do tiến tới vậy .</t>
-  </si>
-  <si>
-    <t>Sách Quản Tử viết : Bề tôi đoan-chính dùng được , thì bề tôi gian-tà khốn cùng thương tổn . Nên đoan-chính cùng gian-tà là hai thế không cùng tiến . Kẻ gian-tà ở bên thì vua không thể dừng việc ác suy tính việc ác thì ắt lợi dụng chổ sơ hỡ của vua mà ngày đêm ( tính kế ) hãm hại ( trung thần ) . Người làm vua bỏ đi không khảo sát mà tin dùng lời nói đó , thì ắt trung-thần vô tội bị hãm hại đến chết , kẻ gian-thần không công trạng được giàu sang . Nên trung-thần chết ở chổ không tội còn tà-thần trổi dậy ở chổ không công trạng gì .</t>
-  </si>
-  <si>
-    <t>Sách Doãn Văn Tử viết : Người thế tục nghe khen ngợi thì vui thích , nghe hủy báng thì buồn rầu , đó là lẽ thường tình lớn của người trong đại chúng . Giống với mình thì vui mừng , khác với mình thì tức giận đó cũng là lẽ thường tình lớn của người . Nên kẻ nịnh hót khéo hay khen ngợi , khéo thuận theo , người nói đúng lại cũng cho là đúng , người nói không lại cũng cho là không , vâng theo điều người thích , tùy thuận điều người ghét . Do đó vua sáng dù có thể dung nạp người chánh-trực nhưng chưa hẳn phải thân thiết với người chánh-trực đó , dù có thể xa lánh kẻ nịnh hót nhưng chưa hẳn phải rời xa kẻ nịnh hót đó . Nên vua Thuấn , vua Vũ có thể không dùng kẻ nịnh hót lại cũng chưa hẳn ghét kẻ nịnh hót đó . Ngạn ngữ nói : “Kẻ nịnh hót biện luận mê hoặc người , vua Thuấn , vua Vũ không thể được ghét” . Chẳng lẽ không xem xét ?  .</t>
-  </si>
-  <si>
-    <t>Sách Phó Tử viết : Người hỏi : kẻ nịnh hót thế nào là lớn , Phó-Tử đáp : việc làm đủ để người thế tục phục , biện luận đủ để mê hoặc quần chúng , lời nói ắt sẽ xưng việc nhân-nghĩa , lòng ác ẩn dấu mà không thể biết được , dò xét dục vọng của chủ phù hợp thì ẩn dấu đi , đắc chí thì dám dùng cả thủ đoạn phi đạo đức để hãm hại người tốt , xưng là có đạo thuật , ra vẻ là có lợi ích , không phải bậc thánh-nhân thì chẳng thể phân biệt được , đó là kẻ nịnh hót lớn . Kế đến là hạng người lòng không muốn làm việc nhân-nghĩa , nói lại tán dương ắt lại khen ngợi , phẩm hạnh không lớn có thể sai trái , hành động chẳng lìa thế tục , phù hợp với dục vọng của chủ thì chẳng dám sửa lại , như có kẻ hại ( mình ) thì liền ra sức hãm hại . Kẻ nịnh hót dưới chót , làm việc thì chẳng đoái hoài gì đến thiên-hạ , chỉ mong cầu vừa lòng của chủ , dùng lời nói văn vẻ xảo trá để làm lợi cho mình mà thôi , hiển-nhiên hại người tốt làm việc chẳng biết xấu hổ .</t>
-  </si>
-  <si>
-    <t>Sách Thuyết Uyển viết : Vua Tề-Hoàn-Công hỏi ông Quản-Trọng rằng : mối hại của đất nước là gì ? Quản-Trọng đáp : thưa mối hại lũ chuột ở đền thờ đất , Tề-Hoàn-Công hỏi : là sao ?  , Quản-Trọng đáp : đền thờ đất ràng buộc bằng gỗ và bùn đất nên chuột nhân đó đến ở , hun khói thì sợ đốt cháy gỗ , đổ nước vào thì sợ hư hoại bùn đất , lũ chuột đó sở dĩ không thể giết được là do đền thờ đất còn vậy . Đất nước lại có chuột như ở đền thờ đất , đó là quan trái phải của vua , trong thì che lấp việc tốt xấu của vua , ngoài thì lại lộng quyền làm hại dân chúng , không giết đi thì sẽ loạn , còn giết đi thì vua dựa vào bản án , chứng cứ rồi bao dung chúng . Đó cũng là chuột ở đền thờ đất của đất nước vậy .</t>
-  </si>
-  <si>
-    <t>Sách Quản Tử viết : Bậc thánh-nhân lựa lời có thể nói mà sau nói , chọn việc có thể làm mà sau làm . Trộm cắp được lợi mà sau có hại , vụng trộm được vui sướng mà sau có lo âu , thì thánh-nhân chẳng làm vậy . Nên thánh-nhân lựa lời nói ắt xem lại nhựng hệ lụy , chọn việc ắt xem lại những mối lo .</t>
-  </si>
-  <si>
-    <t>Sách Quản Tử viết : Trên dưới xa cách đến bất hòa , cho dù là an ổn ắt sắp nguy vong , do đó nói : “trên dưới bất hòa dù an ổn ắt sẽ nguy vong” .</t>
-  </si>
-  <si>
-    <t>Sách Trung Luận viết : Nay chẳng lo làm rõ việc nghĩa , mà chỉ bày ra bổng lộc thì chỉ thu được kẻ tiểu-nhân , khó mà có được người quân-tử . Người quân-tử làm việc chẳng tùy tiện cho phù hợp , giữ vững lập trường không thay đổi chí hướng , chẳng để thiên-hạ làm sai lệch đạo đức , cũng chẳng để sự ham thích sống hại lòng nhân , có thể lấy bổng lộc dụ họ ư !  , dù có dùng sức mạnh trói buộc giữ lại cũng chẳng được , rồi họ câm miệng giả ngu , tùy tiện cho qua , chẳng nhàn rỗi . Quốc gia an nguy thì tướng tá đâu ? mà nhờ cậy .</t>
-  </si>
-  <si>
-    <t>Sách Thân Giám viết : Người làm bề tôi có 3 tội : một là đạo , hai là a-thất , ba là thi-sủng . Trước làm sai hướng dẫn trên gọi là “đạo” , thuận theo trên gọi là “a-thất” , thấy việc sai trái chẳng nói gọi là “thi-sủng” . Bề tôi mắc tội “đạo” thì giết đi , mắc tội “a-thất” thì phạt hình , mắc tội “thi-sủng” thì giáng chức .</t>
-  </si>
-  <si>
-    <t>Sách Tả Truyện viết : Ông Tang-Tôn nói : Ông Quý-Tôn thích ta thì chỉ tai vạ , ông Mạnh-Tôn ghét ta thì như 1 tạ thuốc trị bệnh . Đẹp mang tai vạ chẳng bằng ghét được 1 tạ thuốc trị bệnh . 1 tạ thuốc trị bệnh còn cứu sống ta , đẹp mang tai vạ thì chỉ độc hại nhiều thêm . Mạnh-Tôn chết thì ngày diệt vong của ta không xa vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hoàn Tử Tân Luận viết : Người tốt lành mà không thể dùng , kẻ xấu ác không thể bỏ đi . Người tốt lành kia biết mình quý họ mà không trọng dụng thì oán hận , kẻ xấu ác biết mình khinh bỉ họ mà không yêu thích thì kết cừu thù . Cùng người tốt lành kết oán hận , cùng kẻ ác kết cừu thù , muốn không diệt vong có được chăng ?  .</t>
-  </si>
-  <si>
-    <t>Sách Tả Truyện viết : Ông Khánh-Trịnh nói : * bỏ thí xả là không thương yêu , * Thích tai họa là bất nhân . *Ham thích là không tốt lành , * Giận láng giềng là bất nghĩa . Bốn đức tốt đều mất , làm sao bảo vệ quốc gia ?  .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Bên cổng thành Dương-Môn ( nước Tống ) có lính canh chết , quan tư-không Tử-Hãn vào thành mà khóc rất bi ai . Người nước Tấn dò xét nước Tống rồi trở về báo với Tấn-Hầu rằng : “ thưa bên cổng thành Dương-Môn có lính cánh chết mà quan Tử-Hãn khóc rất bi ai , nên dân chúng rất vui lòng , thần sợ rằng không thể đánh phạt được” . Đức Khổng-Tử nghe được chuyện nói :  tốt lành thay ! việc dò xét quốc gia đó ư ?  .</t>
+    <t>Sách Thượng Thư viết : Có lời răn : trong thì ham mê nữ sắc, ngoài thì vui chơi săn bắn, rượu chè, ca hát không biết đủ, nhà cao cửa rộng trặm khắc lộng lẫy. Nếu có một trong những thứ trên sao không khỏi mất nước.</t>
+  </si>
+  <si>
+    <t>Sách Văn Tử viết : Vua của một nước loạn, chỉ vì chú trọng vào việc mở rộng đất đai mà không quan tâm đến nhân nghĩa, chỉ chú trọng đến địa vị cao mà không quan tâm đến đạo đức. Đó là bỏ đi cái còn mà tạo dựng cái mất.</t>
+  </si>
+  <si>
+    <t>Sách Thể Luận viết : Tai hoạ lớn nhất của người lãnh đạo, chẳng có cái nào lớn hơn ngoài việc háo danh, lãnh đạo háo danh thì cấp dưới cũng biết những điều đó vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hán Thư viết rằng : Người xưa nói rằng, một nông dân không cày thì có người bị đói, một phụ nữ không dệt thì có người bị lạnh, vạn vật sinh trưởng có thời mà dùng quá độ thì ắt sẽ cạn kiệt. Thời xưa khi trị thiên-hạ đạt đến mức nhỏ nhặt, đến mức tường tận thì sẽ tích chứa đủ (của cải, lương thực) để dự phòng.</t>
+  </si>
+  <si>
+    <t>Sách Chính Yếu Luận viết : Tu thân, trị quốc chẳng gì lớn hơn ngoài tiết chế dục vọng, Truyện (sách Lễ Ký) viết : “không buông thả dục vọng”, xét từ xưa đến nay người có nhà, có nước đạt được thành công chẳng gì hơn ngoài tiết kiệm mà mất đi chẳng phải do hoang phí đó sao. Người tiết kiệm biết tiết chế dục vọng, kẻ hoang phí thì sống phóng túng, kẻ phóng túng thì gặp nguy hiểm, người tiết chế dục vọng thì được an ổn.</t>
+  </si>
+  <si>
+    <t>Sách Bão Phác Tử viết : Lệnh cấm không rõ ràng mà dùng hình phạt nghiêm dẹp yên động loạn, mưu tính không thoả đáng mà dùng binh lực xâm lược nước láng giềng. Việc đó khác nào cắt hết hoa màu để diệt châu chấu, chặt hết cây cối để diệt sâu mọt, ăn thuốc độc để diệt chấy rận, phá bỏ nhà cửa để diệt chim sẻ và chuột.</t>
+  </si>
+  <si>
+    <t>Sách Hán Thư viết : Là bậc thánh-nhân thì bao dung hết thiên-hạ, không vì lòng yêu ghét của mình mà gây hại đến sự thành tựu của thiên-hạ.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Đức Khổng-tử nói : ba người đi cùng ắt có thầy ta, chọn người tốt mà gắng học theo, còn người không tốt xem đó mà sửa đổi.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Đức Khổng-tử nói : có lỗi mà không sửa đổi thì thật sai lầm vậy.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Thầy Tử-Cống nói : lỗi của người quân-tử thì như nhật thực, nguyệt thực, lỗi đó ai cũng nhìn thấy, đến khi sửa lỗi thì ai cũng ngưỡng mộ.</t>
+  </si>
+  <si>
+    <t>Sách Hán Thư viết : Thời xưa các vị vua thánh, định ra quan chép sử trước mặt, để ghi chép lại lỗi lầm của mình, định ra quan ngâm tụng, đọc các bài thơ khuyên gián, nói lên các lời chê bai của dân chúng, hay lời dị nghị của thương nhân ở chợ, nên sau vua mới nghe được lỗi mình, nghe được lỗi mà sửa đổi, vậy là thấy được lẽ phải để làm theo. Nên họ giữ được thiên-hạ lâu dài vậy.</t>
+  </si>
+  <si>
+    <t>Sách Dục Tử viết : Điều đại kỵ lớn nhất là biết lỗi mình mà không sửa đổi, đến nỗi hại đến thân, mất cả tánh mạng, như có hành vi như thế đó là điều đại kỵ.</t>
+  </si>
+  <si>
+    <t>Sách Trung Luận viết : Người đời trước có hai câu nói khó, là khó vui khi người nói lỗi mình, khó khi nói lỗi người.</t>
+  </si>
+  <si>
+    <t>Hiếu Kinh viết : Đức Khổng-Tử nói : Yêu cha mẹ không dám ghét người, kính cha mẹ không dám khinh người, hết lòng yêu kính phụng sự cha mẹ rồi dùng đức đó giáo hóa dân chúng, làm hình mẫu khắp bốn biển, đó là nết hiếu của thiên-tử. Thiên Lã-Hình (Kinh Thi) viết : Một người có phước, triệu dân được nhờ.</t>
+  </si>
+  <si>
+    <t>Sách Khổng-Tử Gia Ngữ viết : Xưa kia các vị vua hiền minh của ba nhà (Hạ, Thương, Chu) ắt kính trọng vợ con, thật là có đạo lý. Bởi vợ là người chủ chăm sóc người thân, con là người thừa kế gia đình sau này, chẳng dám không kính hai bậc đó. Cho nên người quân-tử chẳng dám không kính trọng về lòng kính, thì kính bản thân là lớn nhất, là người tiếp nối của cha mẹ, không dám không kính cha mẹ và kính bản thân. Nên làm tổn thương mình là làm tổn thương cha mẹ, làm tổn thương cha mẹ thì đã làm tổn thương căn gốc, làm thương căn gốc thì chi nhánh sẽ khô héo theo. Ba bậc đó (bản thân, vợ, con) nên lấy đó đó làm hình mẫu cho dân chúng, lấy lời ấy mà làm phép tắc cho dân chúng, mà làm từ mình, đến con và mình, đến con và vợ, rồi đến vợ. Vua mà làm được ba điều ấy thì sự giáo hóa sẽ sâu rộng khắp thiên-hạ.</t>
+  </si>
+  <si>
+    <t>Sách Hậu Hán Thư viết : Đế vương tuy yêu thương người thân thích nhưng ắt phải giữ sự tôn nghiêm của mình, tuy quý trọng nhưng ắt phải cấm đoán để họ không làm bậy.</t>
+  </si>
+  <si>
+    <t>Sách Xương Ngôn viết : Quý điều thiện bởi vì nó hợp lễ nghi, khinh điều ác bởi vì có tội lỗi. Nay người ta đem điều quý để dạy dân, đem điều khinh để dạy người thân thật là trái lẽ.</t>
+  </si>
+  <si>
+    <t>Sách Phó Tử viết : Gốc của lập đức chẳng gì hơn làm tâm chánh, tâm chánh sau thân chánh, thân chánh sau bề tôi chánh, bề tôi chánh sau triều đình chánh, triều đình chánh sau quốc gia chánh, quốc gia chánh sau thiên-hạ chánh.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết rằng : Thầy Tăng-Tử nói : Ta hằng ngày phản tỉnh ba điều, làm việc cho người đã dốc hết lòng chưa ?, qua lại cùng bạn bè đã giữ chữ tín chưa ?, điều thầy dạy đã học được và truyền lại chưa ?.</t>
+  </si>
+  <si>
+    <t>Sách Sử Ký viết : Vua không nói lời đùa giỡn, vì vừa nói một lời quan sử liền ghi chép lại để thành lễ pháp, thành ca khúc để truyền bá.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Đức Khổng-Tử nói : đối với bản thân phải nghiêm khắc, còn với người phải độ lượng thì xa rời sự oán hận vậy.</t>
+  </si>
+  <si>
+    <t>Sách Lục Thao viết : Vua không có phẩm hạnh tốt thì quốc gia sẽ lâm nguy, dân chúng loạn lạc. Vua hiền thánh thì quốc gia an ổn, thiên-hạ trị. Nên họa phước tại vua không phải tại số trời.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Trẫm (vua Thành-Thang) có tội thì không liên quan gì đến dân chúng, dân chúng có tội thì tội đó là tại trẫm.</t>
+  </si>
+  <si>
+    <t>Sách Quản Tử viết : Nên vị vua sáng có lỗi tắc phản tỉnh lại bản thân, còn có điều tốt lành thì quy hết cho dân chúng. Có lỗi mà phản tỉnh bản thân thì tự biết sợ sệt, có điều tốt lành quy hết cho dân thì dân vui mừng, cho dân sự vui mừng, mang cho mình sự sợ sệt như thế thì vị vua sáng mới trị an được dân chúng.</t>
+  </si>
+  <si>
+    <t>Sách Chính Yếu Luận viết : Trong sách Truyện (Tả-Truyện) viết : Vua Vũ, vua Thang quy hết tội cho bản thân mà trở nên tốt đẹp hơn. Còn như vua Kiệt, vua Trụ quy hết tội cho người mà mất nước. Từ đó cho thấy, lời nói nuôi dân trị quốc thì tại bản thân (vua) là căn gốc.</t>
+  </si>
+  <si>
+    <t>Sách Yến Tử viết rằng : Vua (Tề)-Cảnh-Công hỏi ông Yến-Tử rằng : làm cho dân giàu, người người được an định liệu có khó không ?, Yến-Tử đáp : thưa rất dễ, nếu vua tiết chế dục vọng thì dân giàu, xét xử công bằng thì người người an định, chỉ cần làm hai điều ấy mà thôi.</t>
+  </si>
+  <si>
+    <t>Sách Thuyết Uyển viết : Bậc vua sáng có ba điều sợ, thứ nhất là ở ngôi cao mà không nghe được lỗi lầm của mình, thứ hai được đắc ý sợ sẽ kiêu ngạo, thứ ba là nghe được lời đúng đắn của người thiên-hạ mà sợ không làm theo.</t>
+  </si>
+  <si>
+    <t>Sách Hậu Hán Thư viết : Xưa kia vua Thành-Thang gặp nạn hạn hán thì lấy sáu điều ra trách mình rằng : 1.việc chính sự có phù hợp không, 2.sai khiến dân có quá mức không, 3.cung thất có xa hoa quá không, 4.nữ nhân có can thiệp vào chính sự quá không, 5.việc nhận hối lộ có quá không, 6.kẻ nói lời gièm pha có quá không.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Thầy Tăng-Tử nói rằng : bậc trên đánh mất đạo đức, dân chúng không có phép tắc đã lâu, như biết được tình hình thì nên thương xót chớ mà vui mừng (khi xử án được).</t>
+  </si>
+  <si>
+    <t>Sách Khổng Tử Gia Ngữ viết : Bậc trên mất đạo đức mà giết cấp dưới là chuyện phi lý. Không dạy đạo hiếu, hễ nghe đến phạm tội thì cầm tù đó là giết người vô tội.</t>
+  </si>
+  <si>
+    <t>Sách Thân Giám viết : Cái thuật để có nền cai trị tốt trước tiên phải ngăn bốn họa hoạn và dùng năm chính sách sau. thứ nhất dối trá, hai là tư lợi, ba là phóng túng, bốn là xa xỉ. Dối trá làm loạn phong tục, tư lợi phá hoại pháp luật, phóng túng thì bỏ qua phép tắc, xa xỉ làm bại hoại chế độ, bốn cái họa hoạn ấy không trử bỏ thì nền chính trị tốt không thể thi hành được. Phong tục loạn thì đạo đức bại hoại dẫu trời đất cũng không thể bảo vệ được bản tính đó, pháp luật bị phá hại thì triều đại sẽ sụp đổ dẫu bậc vua chúa cũng không thể bảo vệ được chế độ, phóng túng bỏ qua phép tắc thì lễ nghĩa mất dẫu có bậc thánh-nhân cũng không thể làm gì bảo toàn được. Chế độ bại hoại thì dục vọng sẽ hoành hành, tuy lãnh thổ khắp bốn phương cũng không thể thỏa mãn lòng mong cầu đó. Đó là bốn điều họa hoạn. 1.đẩy mạnh việc làm ruộng, trồng dâu, nuôi tằm để dưỡng dân, 2.hiểu rõ tốt xấu để làm chánh phong tục, 3.tuyên dương việc giáo học để giáo hóa dân chúng, 4.xây dựng quân đội để thị uy bảo vệ quốc gia, 5. Thưởng phạt rõ ràng để thống nhất luật pháp, đó là năm chính sách.</t>
+  </si>
+  <si>
+    <t>Sách Thuyết Uyển viết : Quốc gia thường không an định, thì không trị dân lâu dài được, có người hiền giúp thì được an ổn tốt đẹp, mà mất đi thì sẽ diệt vong. Từ xưa đến nay chẳng phải như vậy ư.</t>
+  </si>
+  <si>
+    <t>Sách Ngụy Chí viết : Sách viết : không có vị vua xuất chúng thì ắt không dùng bề tôi xuất chúng. Không dùng bề tôi xuất chúng thì ắt không thể lập nên sự nghiệp xuất chúng.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Đức Khổng-Tử nói : bậc đại-thần không thể không kính trọng, vì họ là tấm gương của dân chúng. Chọn bề tôi thân cận không thể không thận trọng, vì họ là người dẫn dắt dân chúng.</t>
+  </si>
+  <si>
+    <t>Sách Hán Thư viết : Vua Văn-Vương thích điều nhân nên điều nhân hưng khởi, được kẻ sĩ thì kính trọng nên dùng được họ, khi dùng họ thì nương theo lễ nghi. Nên không có lòng yêu kính chí thành, thì họ không thể dốc hết lòng, không thể dốc hết lực, không thể không làm hết khả năng để nên công trạng được. Nên bậc vua hiền đức xưa đối với bề tôi, vì tôn kính mà ban tước lộc để được gần gũi, khi họ bệnh thì nhiều lần đến thăm hỏi, khi họ chết liền đến chia buồn khóc than, lại mặc áo tang, phải ba lần đến nơi an táng, khi tẩm liệm thì không uống rượu, không ăn thịt, khi lễ chôn cất chưa xong thì không tấu nhạc, đương lúc làm lễ tế nơi tông miếu mà ngay lúc họ chết thì bỏ đi việc tấu nhạc. Có thể thấy người làm vua thời xưa đối với bề tôi, đúng là tận hết lễ rồi vậy. Nên phận bề tôi chẳng dám không tận lực đến chết để báo ân vua.</t>
+  </si>
+  <si>
+    <t>Sách Sử Ký viết : Chu-Công răn (con là) Bá-Cầm rằng : ta là con của vua Văn-Vương, em của vua Võ-Vương, chú của vua Thành-Vương, địa vị của ta so với thiên-hạ không phải là thấp. Vậy mà nhiều khi đang gội đầu chưa kịp chải tóc, ăn cơm chưa kịp nuốt, đã phải đứng dậy mà đón tiếp các bậc sĩ, vì lo sợ sẽ để mất đi người tài đức đi. Con về đến nước Lỗ phải thận trọng, chớ lấy thân phận vua mà kiêu căng với người.</t>
+  </si>
+  <si>
+    <t>Sách Thân Giám viết : Suy ngẫm thì có 10 điều khó khi dùng bậc hiền-năng (tài giỏi), 1 là không biết, 2 là không cầu, 3 là không tín nhiệm, 4 là không đến cùng, 5 là thù oán nhỏ mà bỏ đi hết đức lớn, 6 là vì lỗi nhỏ mà bỏ đi hết công lớn, 7 là vì khuyết điểm nhỏ mà che lấp hết cái đẹp lớn, 8 là vì những lời nói bới móc mà làm tổn thương lòng trung chánh, 9 vì những lời tà thuyết mà làm loạn chánh độ (phép tắc), 10 vì những lời gièm pha mà phế đi bậc hiền-năng. Đó là 10 cái khó, không trừ bỏ thì bề tôi hiền đức không dùng được, bề tôi hiền đức không dùng được thì đất nước không phải là đất nước nữa.</t>
+  </si>
+  <si>
+    <t>Sách Lục Thao viết : Vua Văn-Vương hỏi Thái-Công rằng : Vua lo việc tiến cử người tài vậy mà không thu được kết quả thành công, thế gian loạn lạc vô cùng lại còn dẫn đến cảnh đất nước nguy vong, việc đó là sao ? Thái-Công đáp : vì (vua) tiến cử người tài mà không dùng họ, (nếu vua) có tiến cử người tài thì chỉ là trên danh nghĩa thôi, không thể (nói là) có người tài thực được . Vua Văn-Vương nói : vậy sai lầm nằm ở đâu ? Thái-Công đáp : sai lầm nằm ở chỗ (vua) thích dùng người do thế-tục tán tụng nên không thể có được người tài thực sự.</t>
+  </si>
+  <si>
+    <t>Sách Tân Tự viết : Người làm vua mà coi thường bề tôi, thì kẻ trí sẽ không mưu toan, kẻ giỏi biện luận không đi sứ, kẻ dũng cảm không chiến đấu. Kẻ trí không mưu toan thì xã-tắc (đất nước) lâm nguy, kẻ giỏi biện luận không đi sứ thì đất nước sẽ không thông, kẻ dũng cảm không chiến đấu thì biên giới bị giặc xâm lấn.</t>
+  </si>
+  <si>
+    <t>Sách Tiềm Phu Luận viết : Quốc gia được an trị là có vua sáng suốt, mà loạn lạc là vì vua hôn ám. Vua sáng suốt là nhờ biết lắng nghe khắp cả (quần thần), vua hôn ám là vì chỉ tin vào một phía. Nên người làm vua thông suốt ắt lắng nghe khắp cả (quần thần), họ sẽ thành thánh, đức hạnh ngày một lớn vậy. Còn chỉ thích nghe lời vui lòng, tin vào một phía, thì trở thành ngu muội, đức hạnh ngày càng suy vậy.</t>
+  </si>
+  <si>
+    <t>Sách Phó Tử viết : Lãnh đạo sáng suốt sẽ bị nhiều kẻ xu nịnh mình, nên không thể nghe biết được lỗi lầm. Nên phải phóng khoáng để nhận sự can gián, mở đường để thu nhận những lời nghịch mình. Nếu có những lời nói xuất phát từ lòng trung-thành tuy không đúng, thì cũng nên vui vẻ mà tiếp nhận.</t>
+  </si>
+  <si>
+    <t>Sách Ngô Chí viết : Vua của nước hưng thịnh vui khi nghe lỗi lầm, vua của nước loạn động vui nghe lời khen ngợi. Vui nghe lỗi lầm, thì lỗi lầm ngày càng tiêu mất, phước lộc đến theo. Vui nghe lời khen ngợi, thì lời khen ngợi ngày càng gây thêm tổn hại, tai họa đến theo.</t>
+  </si>
+  <si>
+    <t>Sách Hán Thư viết : Tổn hại tiết tháo của kẻ sĩ chính trực, bỏ qua lời khuyên của bề tôi. Quần-thần đều biết sai mà không tranh luận gì, người thiên-hạ nói ra thì ngăn cấm, đó thật là tai họa lớn của quốc gia.</t>
+  </si>
+  <si>
+    <t>Sách Khổng Tử Gia Ngữ viết : Đức Khổng-Tử nói : Thuốc tuy đắng miệng nhưng lợi cho việc trị bệnh, lời nói thật tuy nghịch lỗ tai nhưng lợi cho việc làm. Vua Thang, vua Võ thích nghe lời nói thật nên được hưng thịnh. Vua Kiệt, vua Trụ thích nghe lời thuận theo mình mà mất nước.</t>
+  </si>
+  <si>
+    <t>Sách Phó Tử viết : Nghe lời nói chưa xét rõ ràng, rồi lại cho là tốt xấu, thế thì thị-phi sẽ đảo lộn, những lời biện luận xảo trá theo đó mà khởi lên.</t>
+  </si>
+  <si>
+    <t>Sách Lưu Dực Chính Luận viết : Lãnh đạo chẳng ai là không yêu kẻ quý trọng mình, thế mà họ không biết được kẻ quý trọng mình không nên yêu quá mức. Nên (khi) say mê những lời nịnh hót của tiểu-thần thì không thể bỏ họ đi, đó là quên mất chính mình, muốn tốt cho mình thì đừng trọng dụng họ (quá mức).</t>
+  </si>
+  <si>
+    <t>Sách Lão Tử viết : Vàng bạc đầy nhà không giữ được lâu, phú quý mà kiêu ngạo tự mời họa đến, việc đã làm thành thì nên thoái lui, đó là đạo trời.</t>
+  </si>
+  <si>
+    <t>Sách Thể Luận viết : Việc lắng nghe, xem xét là điều trọng yếu của việc tồn vong hay an nguy của nước nhà. Nếu người lãnh đạo lắng nghe, xem xét không rõ chỉ thiên tin về một phía, thì khi mưu sự sẽ có sơ hỡ không hoàn bị. Còn như có kế sách tốt biết lắng nghe, quan sát thu nhận từ nhiều phía, nhưng không biết phương pháp làm, khảo sát thì không tinh thì chỉ mang nhiều rối rắm.</t>
+  </si>
+  <si>
+    <t>Sách Tiềm Phu Luận viết : Đức Khổng-Tử nói : Kẻ có nhiều người thích ắt phải xét lại, kẻ có nhiều người ghét ắt phải xét lại. Nên bậc thánh-nhân thì xả bỏ, không ắt phải tin mọi người, lại cũng không ắt phải tin chính mình, mà ắt phải xét bên họ bên mình rồi phán xét cho hợp với đạo nghĩa. Nên khi tiến cử người thì không sai mất, và công lao cũng không mất đi.</t>
+  </si>
+  <si>
+    <t>Sách Trung Luận viết : Người làm vua có họa lớn, chẳng gì lớn bằng chỉ biết việc nhỏ mà bỏ qua việc lớn, chỉ thấy vật trước mắt mà mù cái nhiều ở xa. Từ xưa đến nay chưa có vua nào như thế mà không mất nước.</t>
+  </si>
+  <si>
+    <t>Sách Yến Tử viết : Vua (Tề) Cảnh-Công hỏi Yến-Tử rằng : Xưa kia khi ly tán dân chúng thì mất nước, thường những việc (dẫn đến mất nước) đó là gì ? Yến-Tử đáp : thưa nước nghèo thích làm việc lớn, trí kém thích tự làm, thích lời nịn hót mà bỏ đi đi người hiền, khoái sự kiêu mạn mà xem thường dân chúng, luật pháp quốc gia lúc có lúc không, dân chúng không có kỷ luật, thích biện luận cho rằng là hiểu biết, hà khắc với dân cho rằng làm hết mình, uống rượu quá mức đến mất nước, thích việc bịnh bị mà quên mất dân, răn đe giết kẻ có tội mà trì hoãn việc ban thưởng khen tặng, lấy sự đau khổ của người là niềm vui, cho lợi người là hại, đức trạch không đủ để dân nhớ tới, chính sách không đủ để giúp dân, khen thưởng không đủ để khuyến thiện, hình phạt không đủ để răn đe, đó là những việc làm dẫn đến mất nước. Nay dân nghe đến lệnh công như gặp kẻ thù, đó chẳng phải là việc xưa kia ly tán dân chúng thì mất nước thường làm đó.</t>
+  </si>
+  <si>
+    <t>Sách Hoài Nam Tử viết : Bậc thánh-nhân giữ cái có, không cầu cái chưa có. Cầu cái chưa có thì những cái có sẽ mất đi. Bồi dưỡng cái mình đã có thì những điều mong muốn sẽ đến vậy.</t>
+  </si>
+  <si>
+    <t>Sách Ngô Chí viết : Tuyệt dứt những dục vọng vô ích mà vâng theo đạo-đức, nhân-nghĩa, gác lại những việc không nguy cấp để lo gây dựng công nghiệp, đó là nền móng cho danh tiếng, đức hạnh há chẳng phải là việc tốt ư !.</t>
+  </si>
+  <si>
+    <t>Sách Hàn Thi Ngoại Truyện viết : Phúc sinh ra từ không, mà họa sinh ra từ nhiều dục vọng. Nên biết đủ thì phúc thường theo, vua có đức thì sự quý trọng theo sau. Vì vậy người trọng tước vị mà khinh đức hạnh cho dù là thiên-tử thì cũng không cho là quý. Kẻ tham lam vật chất không biết dừng tuy có được cả thiên-hạ cũng không thể giàu nổi vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hoài Nam Tử viết : Kẻ có nhiều dục vọng sẽ bại vong, chưa có người vô dục mà bị nguy hiểm. Kẻ có dục vọng cai trị thì loạn, chưa có người giữ đạo thường mà tổn thất bao giờ.</t>
+  </si>
+  <si>
+    <t>Sách Tấn Thư viết : Ba triều đại (Hạ, Thương, Chu) được hưng vượng chẳng phải là biết đè nén lòng ham muốn, đến cuối triều đại suy vong chẳng phải là phóng túng, xa xỉ quá mức (đó ư).</t>
+  </si>
+  <si>
+    <t>Sách Hoài Nam Tử viết : Mặt trời, mặt trăng muốn sáng nhưng bị mây che, sông nước muốn trong nhưng bị cát đá làm đục, tính người muốn được bình lặng mà bị thị dục làm hại. Thường phóng túng dục vọng thì mất đi nhân tính, nên khi làm gì thì thường không chánh, dẫn đến việc sửa thân cũng sai, đến việc trị nước cũng thất bại.</t>
+  </si>
+  <si>
+    <t>Sách Ngô Việt Xuân Thu viết : Trong thiên-hạ không có cái ngu nào hơn là chỉ biết lợi ích trước mắt, mà không trông thấy được họa hoạn sau này.</t>
+  </si>
+  <si>
+    <t>Sách Hoài Nam Tử viết : Ngày nay người sở dĩ phạm phải lao ngục, bị tội mà phải chịu họa hình-lục (giết phanh thây), chẳng phải là do ham mê dục vọng vô bờ bến, không biết răn sửa mình mà gây nên đó ư.</t>
+  </si>
+  <si>
+    <t>Sách Hậu Hán Thư viết : Thường vật sinh trưởng đột ngột ắt sẽ chết yểu, sự nghiệp thành công quá nhanh ắt sẽ hoại nhanh chóng.</t>
+  </si>
+  <si>
+    <t>Sách Tấn Thư viết : Tiết kiệm là đức tính nên tôn trọng, xa xỉ là điều xấu lớn.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Quẻ (Sơn Trạch) Tổn, người quân-tử phải kiềm chế nóng giận và ngăn che dục vọng của mình.</t>
+  </si>
+  <si>
+    <t>Sách Phó Tử viết : Vua Tần-Thủy-Hoàng vô đạo há chẳng quá đáng ư !, xem việc giết người như giết chó lợn, chó lợn người nhân dùng đến còn có tiết chế, vua (Tần) Thủy-Hoàng giết người chỉ do kích động mà thôi, việc làm vô đạo như vậy vậy mà (thừa tướng) Lý-Tư lại còn thêm hình phạt hà khắc nữa, chỉ tùy theo ý muốn của mình mà giết người tùy tiện, kết quả nhà Tần không trụ nổi hai đời vua rồi diệt vong , còn Lý-Tư không thoát cảnh ấy (diệt tộc).</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Đức Khổng Tử nói : gặp người hiền phải nghĩ sao cho giống họ, gặp người chẳng hiền thì tự phản tỉnh lại mình.</t>
+  </si>
+  <si>
+    <t>Sách Tăng Tử viết : Cảnh giới cao nhất là vui với việc thiện, kế là an trong việc thiện, dưới nữa tự cố gắng làm thiện.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Quẻ (Phong Lôi) Ích, người quân-tử thấy việc thiện thì theo, có lỗi phải sửa đổi.</t>
+  </si>
+  <si>
+    <t>Sách Tả Truyện viết : Người ai mà không lỗi, lỗi mà sửa đổi thì chẳng gì tốt hơn.</t>
+  </si>
+  <si>
+    <t>Sách Tăng Tử viết : Bậc cao nhất là không nảy sinh điều ác, bậc kế là nảy sinh rồi mà sớm đoạn tuyệt, bậc dưới mắc nhiều lần rồi sửa đổi lại.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Đức Khổng Tử nói : người quân-tử không biết tự trọng thì không có uy nghi, việc học sẽ không vững bền. Lấy đức trung-tín làm đầu, không kết bạn với người không như mình, có lỗi chớ ngại sửa đổi.</t>
+  </si>
+  <si>
+    <t>Sách Mao Thi (Kinh Thi) viết: Làm ra hình mẫu tốt cho vợ con, rồi lan đến anh em, rồi đến cả nước.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Vua với thế-tử (con), có quan hệ gần gũi là cha, nhưng là vua phải có sự tôn nghiêm. Làm cha thì gẫn gũi, làm vua thì tôn nghiêm, như thế sau mới có thể kiêm quản thiên-hạ được.</t>
+  </si>
+  <si>
+    <t>Sách Ngụy Chí viết : Trong Truyện (Tả Truyện) viết : nhà Chu hội hợp các nước đồng minh đối với người khác họ hàng, thì xếp ngồi sau. Đó là ân tình với cốt-nhục không đổi, khoáng đạt mà không xa người thân, yêu người thân chân thật bền chắc. Không có đạo nghĩa mà sau (người khác họ hàng xếp ngồi sau) đó là lòng nhân từ của vua không lìa xa người thân vậy.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Người quân-tử dốc hết lòng với người thân thì dân hưng khởi lòng nhân , không bỏ rơi bậc cố-cựu thì dân sống không bạt bẽo.</t>
+  </si>
+  <si>
+    <t>Sách Hán Thư viết : Đức Khổng Tử nói : Người có thể hoằng đạo, đạo không thể hoằng người. Nên bình trị, loạn lạc, suy bại, hưng thịnh, là tại chính mình không phải mệnh trời, làm gì không được thì nên phản tỉnh lại mình.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Thầy Tử-Lộ hỏi về người quân-tử ?, đức Khổng-Tử đáp : sửa mình trở nên cung kính, thầy Tử-Lộ hỏi : thưa chỉ như thế thôi sao , đức Khổng-Tử đáp : sửa mình để bách-tính an ổn, việc sửa mình để bách-tính an ổn đến vua Nghiêu, vua Thuấn còn chưa làm được.</t>
+  </si>
+  <si>
+    <t>Sách Hoài Nam Tử viết : Lãnh đạo như tâm của cả nước, tâm trị thì trăm hạnh tốt an, tâm nhiễu thì trăm hạnh tốt loạn.</t>
+  </si>
+  <si>
+    <t>Sách Phó Tử viết : Nên thiên-hạ không đúng thì tu sửa quốc-gia, quốc-gia không đúng thì tu sửa lại triều-đình, triều-đình không đúng thì tu sửa lại (các quan) trái phải, (các quan) trái phải không đúng thì tu sửa lại thân mình, thân mình không đúng thì tu sửa lại tâm. Nên tu sửa trọn khắp từ chổ gần mà tiến giúp trọn khắp những chổ xa. Vua Vũ, vua Thang trách tội mình mà hưng thịnh nhanh chóng, tâm chánh mới được vậy.</t>
+  </si>
+  <si>
+    <t>Sách Phó Tử viết : Không suy lòng ta ra lòng người, cho nên dùng người như cỏ rác. Khiến chổ dụng của người như chổ dụng của mình thì đạt được bản tính ư ?. Người xưa thông đạt đạo trị nước thì hiểu tâm, làm mọi việc mà không chủ động và hành vi không tiết độ thì loạn. Nên trước phải làm tâm ngay thẳng, tâm ngay thẳng bên trong mà sau khi làm việc động hay tĩnh sẽ không tùy tiện, trước cho thiên-hạ noi theo mà sau thiên-hạ sẽ theo sự ngay thẳng mà bảo toàn được bản tính. Những yêu cầu này có xa chăng ? chẳng qua là cầu nơi tâm mà thôi vậy.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Nên trên kính dưỡng người già thì dân hưng khởi nết hiếu, trên tôn kính người lớn thì dân hưng khởi nết đễ (kính nhường), trên thương xót người lẻ loi thì dân không phản bội nhau. Trên ghét gì thì đừng lấy đó sai khiến dưới, dưới ghét gì thì đừng lấy đó phụng sự trên.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Vua Nghiêu, vua Thuấn dùng lòng nhân lãnh đạo thiên-hạ thế mà dân theo. Vua Kiệt, vua Trụ dùng tàn bạo lãnh đạo thiên-hạ thế mà dân (miễn cưỡng) theo.</t>
+  </si>
+  <si>
+    <t>Sách Tả Truyện viết : Việc làm của trên sẽ là quy phạm (hình mẫu) cho dân, trên không làm lẽ nào bắt dân làm, (dân không làm) rồi nhân đó xử phạt họ thì ai mà không dám đề phòng. Nên việc trên làm thì dân cũng làm theo vậy, sao lại có thể ngăn cấm ?.</t>
+  </si>
+  <si>
+    <t>Sách Diêm Thiết Luận viết: Đức Khổng-Tử nói : người mà không có lòng nhân, lại có tật đố kị thì chỉ làm rối loạn thêm. Nên dân loạn thì xem lại nền chính trị, nền trính trị loạn thì xem lại bản thân, bản thân chánh thì sau thiên-hạ an định. Do đó người quân-tử khen ngợi điều tốt mà không thể khoe khoang, ban ân tới kẻ đang chịu hình phạt, bố đức trạch khắp cả người cùng khổ. Bố thí ân huệ thì lòng vui sướng vậy, còn chấp hành hình phạt thì không vui.</t>
+  </si>
+  <si>
+    <t>Sách Chính Yếu Luận viết : Vì thế trời che phủ vạn-vật, vua thì che trùm vạn-vật. Thường mọi loài sinh vật loài nào chưa nhuần-thấm ân trạch thì trời đã phụ lòng, trong dân chúng có một người nào chưa thấm-ướt ân huệ thì vua thì lấy làm hổ thẹn.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Tượng viết : Núi cao có nước chảy bế tắc, người quân-tử xem lại bản thân, tu đức. Thoán viết : quẻ Thủy Sơn Kiển gian nan, nguy hiểm trước mặt, thấy nguy hiểm mà có thể dừng lại sáng suốt vậy thay.</t>
+  </si>
+  <si>
+    <t>Sách Tả Truyện viết : Sửa mình mà không trách người thì tránh được hoạn nạn.</t>
+  </si>
+  <si>
+    <t>Sách Tân Tự viết : Người nhân từ là vật bảo của quốc gia, bậc trí-sĩ là tài sản của quốc gia, bậc học sĩ uyên bác quốc gia phải tôn trọng. Nên quốc gia có người nhân từ thì quần-thần không tranh nhau, quốc gia có bậc trí-sĩ thì không có họa hoạn bốn phía các nước chư-hầu láng giềng xâm lấn, quốc gia có bậc học sĩ uyên bác thì lãnh đạo được tôn trọng.</t>
+  </si>
+  <si>
+    <t>Sách Tôn Khanh Tử viết : Tôn sùng thánh-nhân thì làm vua, quý trọng hiền-nhân thì làm bá. Kính hiền-nhân thì nước còn, khinh mạn hiền-nhân thì mất nước, từ xưa đến nay là vậy.</t>
+  </si>
+  <si>
+    <t>Sách Tả Truyện viết : Người tốt ở trên thì quốc gia không cho là may mắn. Dân chúng có câu ngạn ngữ : “dân nhiều hy vọng, nước không may mắn”. Đó là nói không có người tốt (dẫn dắt) vậy.</t>
+  </si>
+  <si>
+    <t>Sách Tả Truyện viết : Không có người tốt thì quốc gia sẽ theo đó (mà diệt vong). Kinh Thi viết : “Người tốt nói cùng nhau ẩn trốn, thì nước nhà nguy khốn diệt vong”. Đó là nói (nước) không có người tốt vậy. Nên sách Hạ Thư viết : thà thiếu sót do không dùng hình pháp, còn hơn giết nhầm người vô tội. Đó là sợ mất người tốt vậy.</t>
+  </si>
+  <si>
+    <t>Sách Tân Tự viết : Nên vua phải lao nhọc tìm cầu người hiền, khi có được thì rất an nhàn. Vua Thuấn tiến cử người hiền trong dân chúng, cho họ ở đúng chức vị, (nên cứ thế an nhiên) áo quần rủ xuống, chính mình cung kính, không làm gì mà trị yên được thiên-hạ.</t>
+  </si>
+  <si>
+    <t>Sách Thi Tử viết : Các vị vua sáng suốt xưa kia tìm cầu người hiền, không kể xa gần, không luận sang hèn, buông bỏ tước vị để đón tiếp người hiền, hạ thấp bản thân trước kẻ sĩ.</t>
+  </si>
+  <si>
+    <t>Sách Lục Thao viết : Nay vua địa vị tôn quý tiếp đãi bậc hiền-sĩ trong thiên-hạ, chớ coi như bề tôi, mà nên xem như bạn thì vua sẽ có được thiên-hạ vậy.</t>
+  </si>
+  <si>
+    <t>Sách Thuyết Uyển viết : Chu-Công thay thiên-tử nhiếp chính 7 năm, ngài thay kẻ sĩ tặng quà gặp mặt cho thầy giáo có 10 người, gặp gỡ 12 người bạn (đối đãi theo lễ), số người cùng xóm nghèo khó được ưu tiên gặp mặt có 49 người, số người đưa ra lời khuyên thiện có cả trăm người, kẻ sĩ được ngài chỉ bảo có cả ngàn người, số người (được ngài tiến cử) đang làm quan trong triều đình có cả vạn người. Đó là vì ngài chân thành giả như Chu-Công kiêu mạng và hẹp hòi thì chắc bậc hiền-sĩ trong thiên-hạ đến rất ít vậy.</t>
+  </si>
+  <si>
+    <t>Sách Chính Yếu Luận viết : Người làm vua chú trọng tại việc khơi thông bế tắc, khơi thông bế tắc thì chú trọng tại lời khuyên cấp dưới, được lời khuyên cấp dưới thì đạo lý tại lắng nghe nhiều, lắng nghe nhiều nghĩa là không phân sang hay hèn, giống hay khác, dẫu là nô bộc đến kẻ chăn trâu ngựa hễ đúng lý thì dùng được.</t>
+  </si>
+  <si>
+    <t>Sách Lã Thị Xuân Thu viết : Muốn biết vật ngay hay thẳng thì ắt phải dùng thước đo, dây đo. Muốn biết vật vuông hay tròn thì ắt phải dùng thước tròn, thước vuông. Lãnh đạo muốn tự biết thì ắt phải dùng kẻ sĩ chính trực.</t>
+  </si>
+  <si>
+    <t>Sách Phó Tử viết : Các vị vua hiền xưa kia thích nghe lỗi (mình). Nên (khi nghe) được lời nói chính trực thì liền sửa lại khuyết điểm đó.</t>
+  </si>
+  <si>
+    <t>Sách Hậu Hán Thư viết : Vua có lòng nhân thì quảng đại như núi, là chổ chứa lớn để thu nạp những mưu lược thẳng thắng.</t>
+  </si>
+  <si>
+    <t>Sách Hậu Hán Thư viết : Ngày nay quần-thần nên lấy vua Thái-Ung mà răn, trên lo tai nạn khó lường, dưới sợ kiếm-khách đến giết hại, quần-thần biết triều-đình không thể gặp lại được những lời trung thành. Lời nói ra không chỉ rõ điều lỗi, thì cũng như trách khi dùng gương soi vì không thấy được tỳ vết nên oán ghét, lời nói ra ghi lại có lỗi thì không đáng học, không muốn gương sáng soi thấy tỳ vết thì đừng soi. Mong bệ-hạ hãy suy nghĩ kỹ về lời thần nói, không ai ghi lại lỗi lầm, không thấy tỳ vết thì phải khiển trách.</t>
+  </si>
+  <si>
+    <t>Sách Ngụy Chí viết : Vua sáng thì bề tôi chính trực, thời xưa các vị thánh-vương lo sợ không nghe được điều lỗi nên có để cái trống mong người đến can gián.</t>
+  </si>
+  <si>
+    <t>Sách Hậu Hán Thư viết : Thời đại vua Nghiêu, vua Thuấn có để cái trống can gián, dựng cột gỗ chê bai ở triều-đình. Các vị vua sáng suốt nhà Ân, Chu đối với các oán trách, lời chửi mắng của dân chúng thì liền rửa mắt, đổi sắc mà lắng nghe nên họ thông đạt, rõ được sự tình, họ khai mở không kiêng dè ai, tiếp thu rộng để hiểu được tường tận hơn tình cảnh của dân chúng.</t>
+  </si>
+  <si>
+    <t>Sách Dục Tử viết : Vua Vũ trị thiên-hạ, thì nghe 5 loại âm thanh. Trước cửa (triều đình) treo cái chuông, trống, đạc, khánh bên cạnh có cái trống cơm lấy đó mà tiếp nhận (các ý kiến) kẻ sĩ trong bốn biển, trên cái đòn ngang treo khánh có khắc bài văn rằng : “ dạy đạo lý cho quả-nhân thì đánh vào trống, dạy quả-nhân điều nghĩa thì đánh vào chuông, dạy quả-nhân công việc thì rung cái đạc, báo cáo quả-nhân về nỗi ưu lo thì đánh vào cái khánh, bàn luận với quả-nhân chuyện kiện tụng, ngục tù thì rung cái trống cơm”, đó là 5 loại âm thanh. Cho nên vua Vũ thường trong một bữa ăn mà phải bảy lần đứng dậy, đến giữa ngày mà chưa rảnh để ăn no bụng, vua nói : “ ta không sợ kẻ sĩ trong bốn biển dừng lại ở bên đường, ta sợ không lưu lại (các ý kiến của họ trên) cửa triều đình ta”. Do vậy kẻ sĩ trong bốn biển đều kéo đến thế mà bên trong cửa triều-đình vùa Vũ khá là yên tĩnh (la-tước).</t>
+  </si>
+  <si>
+    <t>Sách Hán Thư viết : Xưa kia Hán Cao Tổ (Lưu Bang) tiếp nhận điều thiện như theo không kịp, nghe theo lời can gián như quay vòng (liên tục).</t>
+  </si>
+  <si>
+    <t>Sách Phó Tử viết : Tiếp nhận những lời nói xấu thẳng thắng mà hướng đến không vì danh. Khi không nghe những lời nói chính trực, thì tai mắt bế tắc, tai mắt bế tắc thì bên trong nịnh hót, bên ngoài thuận theo. Đó cũng chính là nguyên nhân khiến ba triều đại (Hạ, Thương, Chu) bị diệt vong thế mà chính họ không biết.</t>
+  </si>
+  <si>
+    <t>Sách Diêm Thiết Luận viết : Ông Biển-Thước không thể trị bệnh mà không dùng đến kim châm và thuốc thang, bậc thánh hiền không thể giúp khi vua không tiếp nhận những lời nói tốt lành. Nên vua Kiệt có ông Loan-Long-Phùng mà nhà Hạ vẫn diệt vong, vua Trụ có 3 người nhân đức mà cũng diệt vong. Nên thấy chẳng lo không có người như ông Di-Ngô (Quản-Trọng) hay ông Do-Dư, còn bàn đến thì lo sợ không có vua như Tề Hoàn Công và Tần Mục Công biết lắng tai nghe.</t>
+  </si>
+  <si>
+    <t>Sách Ngô Chí viết : Cho nên người làm vua cùng người giao du ắt phải chọn người đứng đắn, xem nhìn ắt phải xét hình tượng cho ngay thẳng, âm nhạc buông thả nước Trịnh (dâm đãng) thì không nghe, xa lánh kẻ nịnh bợ mà không gần gũi, có như vậy sau lòng gian tà không sinh mà chánh đạo có thể hoằng dương.</t>
+  </si>
+  <si>
+    <t>Sách Thân Giám viết : Có người hỏi thiên-tử canh phòng bốn phía các tộc man-di (xâm phạm) có phải không ? đáp : đó là canh phòng ở ngoài, thiên-tử bên trong canh phòng bản thân, hỏi : nghĩa là sao ?, đáp : người ở địa vị rất tôn quý (thiên-tử) bị người công kích rất nhiều. Nên những kẻ hầu khéo giả bộ công kích vua (thiên-tử) để chiếm đoạt của cải, gần thì thê-thiếp công kích vua để giành sự sủng ái, kẻ du ca múa hát công kích vua để đoạt chí hướng, các quan nhỏ trái phải công kích vua để đoạt đi đức hạnh, không lệnh mà bề tôi công kích vua để chiếm việc đó gọi là giặc từ bên trong.</t>
+  </si>
+  <si>
+    <t>Sách Viên Tử Chính Thư viết : Gian thần nhân đó làm ra hình tượng và lời lẽ khiến vua vui lòng, nên (vua) không có khả năng phân biệt (đúng sai) rồi cho là đúng, vui lòng trong mê hoặc loạn tâm, cử động hàng ngày lầm lỗi mà thường tự cho mình là theo đúng đạo, việc đó là mối lo thường của người có quốc gia. Lời lẽ kẻ tà nịnh nhu thuận mà không tốt đẹp, lời người trung-chánh thẳng tắt mà đa phần khó nghe.</t>
+  </si>
+  <si>
+    <t>Sách Bão Phác Tử viết : Kẻ tiểu-nhân nịnh hót vui đùa để tán dương việc tốt, mặt thì thuận theo vỗ tay phụ tiết để khen ngợi công lao. Nhưng việc đó chỉ khiến người thêm mê hoặc không biết gì, tự cho lanh lẹ như Đoan Yến (Yến Tử và Tử Cống), biện luận hơn người mà không tỉnh ngộ đó là chiêu vời tai họa đến thật rõ ràng.</t>
+  </si>
+  <si>
+    <t>Sách Ngụy Chí viết : Xưa (thừa tướng) Lý-Tư dạy hai đời vua Tần rằng : “ làm vua mà không bạo ngược phóng túng thì sai khiến thiên-hạ phải ràng buộc”. Hai đời vua Tần làm theo, nước Tần bị lật đổ , (thừa tướng) Lý-Tư cũng bị họa diệt tộc.</t>
+  </si>
+  <si>
+    <t>Sách Hán Thư viết : Dùng người hiền thì làm tốt việc chính trị, nghe theo lời gièm pha thì người hiền sẽ thoái lui, dẫn đến không thể làm tốt việc chính trị vậy.</t>
+  </si>
+  <si>
+    <t>Sách Thời Vụ Luận viết : Các nước trong thiên-hạ chẳng thể không có trung-thần và mưu-sĩ. Như việc hao binh, tổn tướng, hại thân, mất nước, thành thực là do tại vua lắng nghe không tinh tường, không tỉ mỉ.</t>
+  </si>
+  <si>
+    <t>Sách Hậu Hán Thư viết : Kẻ nói lời gièm pha, xảo trá nhìn tựa như thật thà, như cái lưỡi gà (trong kèn sáo thổi lên) khiến người nghe bị mê hoặc, người nhìn bị tối tăm. Sự lành dữ dấu hiệu ở đâu ? là ở sự khéo léo nhận thức, sự thành bại then chốt tại biết xét rõ lời nói.</t>
+  </si>
+  <si>
+    <t>Sách Phó Tử viết : Phàm loài có huyết khí nếu không thuận nhau thì sẽ nảy sinh lòng tranh đấu, sự việc đó ẩn dấu nên khó phân biệt được, nó nhỏ nhặt nên tai hại cũng sâu, đó chẳng phải là lời nói quá mức. Người làm vua hòa thuận với mọi người, an định dân chúng mà biết phân biệt việc tốt xấu để Rõ được cái chí của thiên-hạ, nên nghe lời nói không thể không xem xét kỹ càng vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hoài Nam Tử viết : Luật pháp không dùng được thánh-chủ không làm. Lời nói không chứng cứ minh-chủ không nghe.</t>
+  </si>
+  <si>
+    <t>Sách Tam Lược viết : Vua xét rõ lời nói dị thường bèn thấy rõ mầm móng tai họa, vua mời đón nho sĩ hiền-đức kẻ gian-hùng bèn trốn chạy, vua tín nhiệm cựu thần muôn sự bèn được xử lý, vua tìm hỏi ẩn sĩ bèn có được sự thật.</t>
+  </si>
+  <si>
+    <t>Sách Thuyết Uyển viết : Tề hầu hỏi Yến Tử rằng : làm chính trị thì lo việc gì ?, Yến Tử đáp : thưa (lo) không phân biệt được việc tốt xấu, Tề hầu nói : thế phải phân biệt khảo sát thế nào ?, Yến Tử đáp : phải khảo sát chọn lựa bề tôi thân tín (trái phải) , bề tôi thân tín tốt thì trăm quan có được vị trí phù hợp, nên việc tốt xấu phân biệt được vậy. Đức Khổng-Tử nghe được lời đó rồi khen rằng : Lời nói đó thật đúng, người tốt được tiến cử thì kẻ xấu không thể vào (triều-đình), kẻ xấu được tiến cử thì người tốt lẽ nào lại vào được.</t>
+  </si>
+  <si>
+    <t>Sách Hàn Thi Ngoại Truyện viết : Số đông người dạ dạ (vâng vâng) không bằng lời nói thẳng của kẻ sĩ chính trực.</t>
+  </si>
+  <si>
+    <t>Sách Viên Tử Chính Thư viết : Người làm vua chẳng ai là không mong cầu có được người hiền để dùng nhưng đến khi dùng thì không thể tránh khỏi cảnh dùng kẻ bất tài, chẳng ai là không muốn trừ bỏ kẻ gian tà nhưng đến khi trừ bỏ thì không thể thoát khỏi cảnh trừ bỏ luôn người hiền. Nếu có chuyện đó là do việc thưởng phạt, bổ nhiệm, sai khiến, không thích đáng vậy. Người làm vua không thưởng việc không đáng thưởng, thì ắt là việc làm thích đáng vậy. Người làm vua không kết tội việc không đáng kết tội, thì ắt là việc làm đúng vậy. Có trí tuệ không thể thấy rõ chuyện thị-phi, rõ lý mà không thể tra xét, để những lời nói sai dần thấm vào, rồi tín nhiệm kẻ chưa hẳn là giỏi, tin dùng người không hẳn là trung thành. Nên trên danh nghĩa có việc thưởng người hiền, phạt kẻ hung bạo thì cũng có thực tế việc giết (người hiền), dưỡng kẻ gian tà. Đó là cái họa lớn của thiên-hạ vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hán Thư viết : Thiên Hồng-Phạm (Kinh Thư) viết : Thiên-tử làm cha mẹ của dân, là vua của thiên-hạ, bậc thánh-nhân lấy đó để làm rõ danh phận nên gọi vua là cha mẹ của dân. Làm rõ chữ nhân, chữ ái, chữ đức, chữ nhượng đó là đạo căn bản để làm vua vậy.</t>
+  </si>
+  <si>
+    <t>Sách Văn Tử viết : Bậc thánh-nhân theo việc tuy có khác đường lối nhưng cùng mục tiêu. Việc nước được mất, an định hay nghiêng đổ nếu họ không cùng một chí hướng lẽ nào quên đi ?, muốn lợi người nên lòng của thánh-nhân sáng tối lẽ nào quên đi ?, vì muốn lợi người mà ân trạch bèn lại lan ra rất xa vậy.</t>
+  </si>
+  <si>
+    <t>Sách Giả Tử viết : Đạo là gốc của phúc, là điềm báo vinh quang của phúc. Vô đạo ắt là gốc của họa, là điềm báo ắt mất vinh quang của phúc. Do đó hành động mà không theo đạo dẫn đến lời nói, ắt không đoái hoài đến nghĩa vậy. Nên thấy vua Trụ tự xưng là thiên-vương còn vua Kiệt tự xưng là thiên-tử sau bị diệt vong dân chúng còn lăng mạ. Lấy đó thì biết địa vị của họ không đủ để được tôn trọng mà danh hiệu không đủ để được người tôn vinh vậy. Nên cái quý của người quân-tử (vua) là được dân chúng và kẻ sĩ quý trọng thì mới thật gọi là quý vậy. Nên cái giàu của người quân-tử là vui cùng dân chúng và kẻ sĩ, thì mới thật gọi là giàu vậy. Nên cái quý của người quân-tử là cùng hưởng phúc với dân, nên họ quý kẻ sĩ với dân chúng. Nên cái giàu của người quân-tử là hưởng của cải cùng với dân, nên họ vui cùng kẻ sĩ với dân chúng.</t>
+  </si>
+  <si>
+    <t>Sách Hoài Nam Tử viết : Vua Võ-Vương chiến thắng nhà Ân, liền phát lúa ở đất Cự-Kiều, tháo dỡ cung Lộc-Đài lấy tiền chia cho dân, phong cho Tỷ-Can coi giữ mộ tổ tiên , giải thoát Cơ-Tử khỏi tù, ngài không phân biệt quan cũ mới miễn là người hiền tài thì liền thân cận, vật dùng không nhất thiết là cái vốn có, sai khiến không nhất thiết là người thân cận, cứ thế ngài cứ an nhiên, coi những việc đó là thứ vốn có. Từ đó thấy được cái chí hướng lớn của thánh-nhân vậy.</t>
+  </si>
+  <si>
+    <t>Sách Lão Tử viết : Chẳng tội nào lớn bằng (tội) dâm dục, chẳng họa nào lớn bằng (họa) không biết đủ, chẳng hại nào lớn bằng (hại) muốn được. Nên biết đủ trong cái đủ, thì thường đủ vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hoài Nam Tử viết : Nay dòng nước chảy nhiều có thể tràn đầy cái khạp, thế mà nước từ sông ngòi không thể làm tràn cái chén lủng. Nên lòng con người cũng như vậy, phải lấy đạo thuật để đo lường, ăn để no bụng, quần áo để tránh rét thì đủ dưỡng cái hình hài bảy thước này. Nhưng nếu không dùng đạo thuật để đo lường thì dù có dùng gì đi nữa cũng không cảm thấy đủ, ví được tôn quý nhất (làm vua) thiên-hạ, thì sự giàu có cũng không đủ để vui vậy.</t>
+  </si>
+  <si>
+    <t>Sách Văn Tử viết : Mắt thích hình sắc, miệng muốn vị ngon, tai thích đắm chìm trong năm thanh âm. Khi thất-khiếu (7 lỗ trên thân : 2 con mắt, 1 cái miệng, 2 lỗ tai, 2 lỗ mũi) giao-tranh thì chỉ hại đến bản tính, hàng ngày bị dẫn dụ bởi tà-dục làm kiệt quệ đến bản tính hài hòa của trời. Bản thân cứ không thể trị được thì làm sao xử trí được việc thiên-hạ ?.</t>
+  </si>
+  <si>
+    <t>Sách Quốc Ngữ viết : Vẻ đẹp mà trên-dưới, trong-ngoài, lớn-nhỏ, xa-gần đều không bị hại gì, vậy mới gọi là đẹp. Như mắt xem thì phải đẹp, thì tiền của sẽ thiếu hụt. Nên tụ hợp dân vì lợi, thì tự che lấp mình mà làm tổn hại dân, như thế thì sao gọi là đẹp ?. Vua một nước cùng với dân ở cùng một chổ, dân thật đúng gầy yếu, vua béo đích xác an vui (ư ?).</t>
+  </si>
+  <si>
+    <t>Sách Hàn Thi Ngoại Truyện viết : Vua Tề-Cảnh-Công sai sứ-giả đến nước Sở, vua Sở cùng với sứ-giả đứng trên tòa tháp cao 9 tầng rồi ngoảnh lại nhìn vị sứ-giả hỏi : nước Tề cũng có tòa tháp như thế không ?, vị sứ-giả đáp : thưa vua của tôi có nhà triều-đường để xử lý việc nước, nhà có bậc thềm bằng đất cao 3 thước, mái lợp cỏ tranh không cắt tỉa, cột nhà không đẽo gọt, vua tôi cho làm vậy là cực nhọc, mà sống trong đó quá thư thái. Nên vua của tôi rất ghét việc đó nên sao có được tòa tháp như thế ?, vua Sở nghe xong liền tỏ vẻ bất an.</t>
+  </si>
+  <si>
+    <t>Sách Tân Ngữ viết : Bậc thánh-nhân ở trong cung-thất tồi tàn mà đề cao đạo-đức, y phục sơ sài mà chăm làm việc nhân-nghĩa, không tổn hại phẩm hạnh để cho hình dáng được tốt đẹp, không tổn hại đức tốt để làm đẹp cho bản thân, đất nước không hưng thịnh không làm chuyện vô ích, nhà không chứa khí cụ không dùng được.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Đức Khổng-Tử nói : đối với vua Vũ ta thật không chê vào đâu được, ăn uống đạm bạc mà cúng tế tổ tiên rất trí-hiếu, quần áo sơ sài mà khi thăng triều áo mũ rất đẹp đẽ, cung-thất ở tồi tàn mà dốc sức vào việc khơi thông kênh gạch, sông ngòi. Vua Vũ ta thật không chê vào đâu được vậy !.</t>
+  </si>
+  <si>
+    <t>Sách Thượng Thư viết : Đối với kẻ bạo ngược và ngoan cố thì không tức giận, không mong cầu một người hoàn bị (hoàn hảo mọi mặt).</t>
+  </si>
+  <si>
+    <t>Sách Hàn Tử viết : Trên không phẫn-nộ lây xuống dưới, dưới không giấu oán hận gây họa lên trên. Việc đó giúp tăng thêm lợi ích, tích nhiều sự thành công lớn, lập nên những danh tốt trước mắt, lưu truyền đức tốt đến đời sau, việc cai trị đạt tốt đẹp vậy.</t>
+  </si>
+  <si>
+    <t>Sách Chính Yếu Luận viết : Có bề tôi nói chuyện vụng về mà đúng công việc, hay lời nói hơi nghịch mà thuận lợi cho công việc, chẳng lẽ bỏ qua lời nói chính trực đó ?. Có bề tôi chất phát, ngây ngốc và lời lẽ vụng về bề ngoài sơ sài mà bên trong rất thông minh, chẳng lẽ bỏ qua những lời nói chất phát đó ?. Có bề tôi mạo phạm khuyên nhưng điều khó của một kẻ sĩ, nhận phỉ báng của người trong nước, chẳng lẽ bỏ qua những lời nói trung thành đó ?. Có bề tôi tuân thủ đúng việc mà nghịch lại với ý đại chúng, chấp-pháp mà không màng đến ý riêng, chẳng lẽ bỏ qua những lời nói công bằng đó ?. Có bề tôi không uốn mình, chẳng cầu người thế gian để lấy chổ dung thân, chẳng lẽ bỏ qua nhưng lời nói liêm khiết đó ?. Có bề tôi theo địa vị thấp hèn mà dâng lên những lời nói rõ ràng, chẳng màng địa vị ty-tiện mà nói công việc đất nước, chẳng lẽ bỏ qua những lời nói khó có đó ?. Có bề tôi bị cô lập mà biết giữ tiết khí, thân phận độc lập mà gặp nhiều hủy báng, chẳng lẽ bỏ qua những lời nói cứng mạnh đó ?. Đó là 7 điều chẳng thể bỏ qua, để tiếp nhận những lời nói tốt lành, là đạo lý để tiếp nhận ý kiến từ cấp dưới vậy.</t>
+  </si>
+  <si>
+    <t>Sách Mao Thi (Kinh Thi) viết : Không cày làm ruộng đất to, khỏi lo cỏ dại mọc đầy. Không nhớ tưởng đến người xa, thì chẳng lao tâm khổ trí.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Đức Khổng Tử nói : thấy việc thiện như cảm thấy chưa đủ, thấy việc bất thiện như thò (tay) vào nước sôi.</t>
+  </si>
+  <si>
+    <t>Sách Mạnh Tử viết : Thầy Mạnh Tử nói : thầy Tử-Lộ khi thấy người chỉ ra sai lầm liền vui vẻ. Vua Vũ khi nghe một lời nói phải thì liền bái tạ. Vua Thuấn lại còn lớn hơn nữa, làm thiện cùng người, bỏ mình theo người, vui vẻ nhận lấy (chỉ dẫn) từ người để làm thiện. Từ lúc cày cày ruộng, trồng lúa, làm đồ gốm, đánh cá, cho đến khi làm vua, không lúc nào mà ngài chẳng giữ lấy điều thiện của người để học theo. Giữ lấy những điều thiện của người, đó cũng như cùng người làm thiện. Nên công việc của người quân-tử chẳng gì lớn hơn là cùng người làm thiện.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Tượng viết (quẻ Chấn): sấm liên tiếp thì chấn động. Người quân-tử nên sợ hãi mà tu tỉnh (xét mình sửa lỗi) lại .</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Đức Khổng Tử nói : Con của họ Nhan (ám chỉ thầy Nhan Hồi) cơ hồ đã gần đạt đạo ư !. Có điều bất-thiện chưa từng không biết, đã biết rồi thì không làm lại nữa. Dịch viết : xa rời không làm trở lại thì không hối hận nhiều, thì bắt đầu tốt lành.</t>
+  </si>
+  <si>
+    <t>Sách Trung Luận viết : Tài trí nhạy bén hơn người chưa đủ để quý, biện bác thông suốt hơn người chưa đủ để quý, dũng cảm quyết đoán hơn người chưa đủ để quý. Cái quý của người quân-tử là thay đổi để thành thiện, lo lắng khi làm không tới, sửa chữa những điều xấu, sợ hãi khi làm còn thiếu sót.</t>
+  </si>
+  <si>
+    <t>Sách Trung Luận viết : Khi nghe lỗi mà chẳng sửa đổi thì gọi là táng-tâm, nghĩ tới lỗi mà chẳng sửa đổi thì gọi là thất-thể. Người bị thất-thể và táng-tâm thì họa loạn sẽ tìm đến. Người quân-tử xả bỏ (hai) thứ đó.</t>
+  </si>
+  <si>
+    <t>Sách Ngụy Chí viết : Kinh Dịch viết : gia-đạo ăn ở đúng phép rồi thiên-hạ được an định, là (sửa trị) từ trong đến ngoài. Đó là lệnh-điển (hiến pháp) của tiên-vương vậy.</t>
+  </si>
+  <si>
+    <t>Sách Thượng Thư viết : Gây dựng lòng yêu thương nơi cha mẹ, gây dựng sự cung kính nơi bậc lớn. Ban đầu từ gia đình, rồi đến đất nước, sau cùng lan khắp nơi trong bốn-biển.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Thế nên đạo-người là yêu cha-mẹ mình, yêu cha-mẹ mình nên mới tôn kính tổ-tiên, tôn kính tổ-tiên nên kính trọng dòng-họ, kính trọng dòng-họ nên mới thu-tộc (trên dưới ăn ở theo phép), thu-tộc rồi nên tông-miếu trang nghiêm, tông-miếu trang nghiêm nên biết quý trọng xã-tắc (đất nước), quý trọng xã-tắc nên yêu thương bách-tính (dân chúng), yêu thương bách-tính nên hình phạt đúng, hình phạt đúng nên lòng thứ-dân an, lòng thứ-dân an nên của cải đủ dùng, của cải đủ dùng nên mọi chí hướng điều thành, mọi chí hướng thành nên lễ tục thành hình, lễ tục thành hình mà sau (đất nước) được yên ổn. Kinh Thi viết : “ (Đức của vua Văn-vương) chẳng rõ rệt chẳng vâng theo (sao ?), cái đức ấy không bị người chán ghét.” Điều ở trên đã nói lên vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hán Thư viết : Nhà Hạ ở ngôi thiên-tử được hơn 10 đời (vua), nhà Ân ở ngôi thiên-tử được hơn 20 đời, nhà Chu ở ngôi thiên-tử được hơn 30 đời, nhà Tần ở ngôi ở ngôi thiên-tử được 2 đời (vua) rồi diệt vong. Tính người không quá xa, vì sao vua của ba nhà (Hạ, Ân, Chu) có đạo đức thì truyền lâu dài mà vua nhà Tần vô đạo đức tàn bạo (bị diệt vong) ?, việc đó có thể biết được vậy. Các vị vua xưa, khi thái-tử vừa sinh ra lúc cử động thì chấp theo lễ pháp, sai quan-sĩ cõng thế-tử, cùng quan hữu-tư sửa lại mũ áo chỉnh tề đến lễ tế trời đất. Khi đi qua cửa cung điện thì xuống đi bộ, khi đến tông miếu thì đi nhanh, đó là đạo của người con hiếu vậy. Nên từ khi còn là trẻ sơ sinh (thế-tử) đã được dạy phải chấp hành (theo lễ pháp) vậy.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Nói chung ba đời vua (Hạ, Thương, Chu) dạy thế-tử ắt lấy lễ-nhạc. (Dạy) Nhạc là để tu dưỡng bên trong, (dạy) lễ là để tu dưỡng bên ngoài. Lễ-nhạc đã hòa lẫn vào trong, thì biểu hiện ra ngoài hình tướng.</t>
+  </si>
+  <si>
+    <t>Sách Tả Truyện viết : Quan đại phu Thạch-Thác can gián (vua nước Vệ) rằng : bề tôi nghe yêu thương con thì phải dạy nghĩa lý, không cho chúng tiếp thu những tật xấu. Kiêu-mạn, xa-xỉ, dâm-loạn, phóng-túng là các tật xấu. Bốn thứ đó tìm đến là do sự nuông chiều quá mức vậy.</t>
+  </si>
+  <si>
+    <t>Sách Ngụy Chí viết : (Tào) Cổn bệnh nặng bảo thế-tử rằng : ta thuở nhỏ không hiểu biết nghĩa lý, làm vua từ rất sớm, chỉ biết hưởng lạc mà không biết khổ gì là ắt sẽ vướng phải lỗi kiêu căng, xa xỉ. Khi tiếp các bậc đại-thần (con) phải dùng lễ, còn không phải là đại-thần nhưng với người già thì phải vái chào đáp lại, làm việc cho anh phải cung kính, chăm sóc em thì phải yêu thương. Anh em làm không tốt, thì phải can gián hết lòng. Can gián mà không theo, thì khóc lóc khuyên bảo, khuyên bảo mà không sửa đổi thì liền báo cho mẹ. Nếu không sửa đổi thì phải trình tấu lên trên, để trên tước bớt đất đai. Chuyện đó so với việc giữ lấy sự nuông chiều đến bị họa, thì chẳng bằng nghèo hèn để bảo toàn thân mạng. Đó lại là nói đến những tội lớn, còn những việc xấu nhỏ, thì nên che dấu đi. Than ôi ! con trai phải cẩn thận mà tu dưỡng bản thân. Phụng mệnh thánh-chỉ của triều-đình phải tận hết lòng trung-trinh, phụng sự cho Thái-Phi phải tận hết lòng hiếu-kính, việc trong cửa cung vâng theo lệnh của Thái-Phi, còn việc bên ngoài cửa cung thì nhận sự dạy bảo từ Bái-Vương, không được để lòng chểnh mảng, lấy điều ấy mà an ủi lình hồn ta.</t>
+  </si>
+  <si>
+    <t>Sách Mao Thi (Kinh Thi bài Quan-Thư) viết : Thư-Cưu kiêu quan quan, ở tại bãi sông xa. Cô thục-nữ diệu hiền, quân-tử mong sánh đôi.</t>
+  </si>
+  <si>
+    <t>Sách Chính Yếu Luận viết : Ngựa của Ngô-Phản nếu người tầm thường đến cưỡi thì rất tệ hại, còn đưa cho ông Bá-Lạc cầm dây cương thì thành ngựa lương-ký, ngựa không khác nhau là mấy vậy. Việc dạy dân cũng như thế, nên gặp vua Vũ, vua Thang thì họ làm dân tốt, gặp vua Trụ, vua Kiệt thì họ làm dân ngu ác, do việc cai trị khiến cho họ như thế vậy. Nên khéo trị nước thì chẳng oán hận người dân mà nên đổ hết tội nơi mình, không trách phạt các cấp dưới mà nên tìm cầu (lỗi) hết nơi mình.</t>
+  </si>
+  <si>
+    <t>Sách Giả Tử viết : Vua có thể làm tốt, thì quan-lại ắt có thể làm tốt, quan-lại có thể làm tốt, thì dân chúng ắt có thể làm tốt. Nên dân không tốt là tội của quan-lại, quan-lại không tốt là lỗi của vua. Than-Ôi ! nên răn ! nên răn !.</t>
+  </si>
+  <si>
+    <t>Sách Khổng Tử Gia Ngữ viết : Yêu người thì người yêu lại, ghét người thì người ghét lại. Biết đạt được nơi mình, thì biết đạt được nơi người. Sở dĩ không ra khỏi tường rào nhà mà biết được việc thiên-hạ, là vì biết phản tỉnh chính mình mà được vậy.</t>
+  </si>
+  <si>
+    <t>Sách Phó Tử viết : Bậc đại quân-tử thời xưa khi sửa mình, trị người, thì trước làm lòng dạ ngay thẳng mà sau đạt đạo mà thôi. Có thể đạt đạo thì không gì chẳng đạt được vậy. Nếu mất đạo thì không gì chẳng mất vậy, không gì chẳng đạt được thì việc trị thiên- hạ rất nhàn rỗi, nếu không thì cũng sẽ bảo toàn được bản thân, ở nơi chánh đáng hết năm không mất hòa thuận, đạt được thì làm thiên-hạ trở nên tốt đẹp, và mọi vật không gì chẳng đạt được. Còn mất đạo không gì chẳng mất, đến nỗi không đủ nuôi sống vợ con. Nếu không phản tỉnh chính mình lại trách người thì tai họa bèn đuổi theo thân. Lúc thịnh đạt thì phóng túng tình cảm hoang phí vật dụng thì tai ương bèn giáng xuống người thiên-hạ vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hàn Thi Ngoại Truyện viết : Biết căn nguyên mệnh trời, hiểu trị tâm thuật, rõ đạo lý ưa ghét, làm thích hợp với tính tình đó là đạo lý cai trị hoàn bị. Biết căn nguyên mệnh trời thì không nghi hoặc việc họa phúc, không nghi hoặc việc họa phúc thì hành động hay nghĩ ngơi đều hợp lý. Hiểu trị tâm thuật thì không có chuyện vui giận thất thường, không có chuyện vui giận thất thường thì việc thưởng phạt không thiêng vị. Rõ đạo lý ưa ghét thì không tham những thứ vô dụng, không tham những thứ vô dụng thì vật chất không hại được bản tính. Làm thích hợp với tính tình thì lòng dục không quá mức, lòng dục không quá mức thì nuôi dưỡng bản tính biết đủ vậy. Bốn điều ấy chẳng cầu ở ngoài, chẳng cần người trợ giúp, chỉ quay lại tìm hết ở nơi mình mà thôi.</t>
+  </si>
+  <si>
+    <t>Sách Hán Thư viết : Truyện viết : “ Xét đạo lý ưa ghét của tính tình mà sự nghiệp vương-đạo được hoàn bị”. Có thể biết được hết bản tính (mình) rồi sau mới có thể biết được bản tính người và vật, biết hết bản tính người và vật thì có thể giúp đỡ trời đất vào việc giáo hóa. Cái đạo của việc sửa trị bản tính, ắt phải xét rõ mình để biết những chổ dư thừa, rồi biết ra sức bù vào chổ còn thiếu. Như thông-minh sáng suốt phải ngừa xét nét chuyện lớn, nghe biết ít ỏi phải ngừa che lấp sự bế tắc, dũng mãnh kiên cường phải ngừa sự bạo ngược quá đáng, nhân ái hiền lành phải ngừa sự không quyết đoán, trầm tĩnh thư thái phải ngừa sự bỏ lỡ thời cơ sau này, tâm lượng rộng lớn phải ngừa sự quên mất việc. Ắt hẳn phải xét rõ mình để ngăn lại, sửa mình theo điều nghĩa sau ứng hóa theo đạo trung hòa, thì những kẻ xảo trá chẳng dám lộng hành và không dám mơ đến nữa.</t>
+  </si>
+  <si>
+    <t>Sách Thi Tử viết : Đức Khổng Tử nói : Người quân-tử như cái bát, dân như nước trong bát. Bát hình vuông thì nước vuông, bát hình tròn thì nước tròn. Trên thích gì ? mà dân chẳng làm theo.</t>
+  </si>
+  <si>
+    <t>Sách Hoài Nam Tử viết : Bậc trên tham gỗ, bề tôi hủy hoại cây cối. Bậc trên tham cá, bề tôi tát khô sông suối. Bậc trên ham mái trèo mà cấp dưới đem cả con thuyền. Bậc trên nói ra một mà cấp dưới nói như cả bó sợi tơ. Bậc trên có một việc tốt thì cấp dưới khen ngợi hai việc. Bậc trên giảm ba phần thì cấp dưới bớt chín phần.</t>
+  </si>
+  <si>
+    <t>Sách Ngụy Chí viết : Tục ngữ nói : “ Đời có người làm loạn, mà pháp luật không loạn “. Như lấy luật pháp sử dụng có thể dụng được thì thời Đường, Ngu có thể không cần đến sự giúp đỡ của ông Tắc, ông Tiết, nhà Ân, nhà Chu không quý trọng sự phụ giúp của ông Y-Doãn, ông Lã-Thượng rồi.</t>
+  </si>
+  <si>
+    <t>Sách Thi Tử viết : Thường đạo lý của việc cai trị chẳng gì hơn nương theo cái khôn của kẻ trí, đạo lý của kẻ trí chẳng gì hơn là nương theo người hiền. Thí dụ như việc nhận biết ngựa thì phải nhờ đến ông Bá-Nhạc, nhận biết ngọc thạch thì phải nhờ đến ông Y-Đốn, thế thì ắt không sai lầm vậy.</t>
+  </si>
+  <si>
+    <t>Sách Lã Thị Xuân Thu viết : Qua sông dựa vào thuyền, đi xa dựa vào ngựa-ký, còn làm bá-vương thì dựa vào người hiền.</t>
+  </si>
+  <si>
+    <t>Sách Hàn Thi Ngoại Truyện viết : Kìa chim, thú, cá còn biết mượn (sức của tự nhiên) huống chi là vua có vạn binh mã mà lại đơn độc, không biết mượn sức của các bậc anh-hùng xuất chúng trong thiên-hạ cùng làm việc trong hàng ngũ sao, há chẳng phải là việc đáng tiếc ư ! Nên nói : lấy người mắt sáng giúp kẻ mắt sáng thì thăng hoa lên trời, lấy người mắt sáng giúp kẻ mắt mờ thì giúp nhau quay về (đường tốt), cả hai mắt đều mù giúp nhau không va vào tường hay cây cối, không rớt xuống giếng hay hố bẫy thì may mắn lắm rồi.</t>
+  </si>
+  <si>
+    <t>Sách Quản Tử viết : Nghe lời người hiền mà không cất nhắc thì nguy hiểm, nghe lời tốt lành mà không tìm hiểu thì nguy khốn, thấy có thể mà không sử dụng thì mỏi mệt, gần người nhân mà không kiên trì thì nguy ngập, cùng mưu sự mà không tuân theo thì không yên.</t>
+  </si>
+  <si>
+    <t>Sách Trung Luận viết : Tôn-Tử (hay Tuân-Tử) nói : Cái họa của người làm vua chẳng tại lời nói không dùng người hiền, mà tại không thành tâm trong việc dùng người hiền. Miệng nói dùng người hiền, muốn người hiền làm việc. Miệng thì nói việc làm thì trái lại, vậy mà muốn người hiền tiến đến, kẻ ngu thoái lui chẳng phải lại khó khăn sao ? , lời nói hay lắm vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hạt Quan Tử viết : Bậc đế ở cùng với thầy (giỏi), bậc vương ở cùng với bạn (hiền), kẻ mất nước ở cùng người hầu (nịnh hót).</t>
+  </si>
+  <si>
+    <t>Sách Hậu Hán Thư viết : Coi bề tôi như thầy thành bậc đế, coi bề tôi như khách thì thành bậc bá. Nên vua Võ-Vương tôn Thái-Công làm thầy, vua Tề-Hoàn-Công tôn Di-Ngô (Quản-Trọng) làm trọng-phụ (người cha thứ 2).</t>
+  </si>
+  <si>
+    <t>Sách Tam Lược viết : Nước trị, nhà an là tại có được lòng người ; Nước mất, nhà tan là tại mất lòng người . Nên vua sáng, bề tôi hiền dẫu mình có thiệt thòi cũng phải mở rộng tấm lòng với người.</t>
+  </si>
+  <si>
+    <t>Sách Hán Thư viết : Người hiền ở chức vị cao thì dẫn dắt những người cùng chí hướng đến quy tụ triều-đình, còn ở chức vị thấp thì mong những người cùng chí hướng được tiến cử. Nên vua Thang trọng dụng ông Y-Doãn làm những kẻ bất-nhân tránh xa, và thu hút những người hiền cúng chí hướng đến giúp.</t>
+  </si>
+  <si>
+    <t>Sách Lã Thị Xuân Thu viết : Lời nói thật lòng nghịch lỗ tai, trái lại với lòng mình, không phải bậc vua hiền thì có thể chấp nhận nghe ư !. Nên vua hiền phải vui với những lời không thuận mà chẳng nên trách phạt. Nay có một cái cây ở đây muốn nó đẹp, người ta tưới bón đều đặn thì ghét bỏ, rồi hàng ngày chặt rễ cây đi thì ắt cái cây không sống nổi. Nay ghét những lời nói thật lòng thì cũng như tự chặt (rễ cây) cho hết sạch vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hoài Nam Tư viết : Vua sáng nghe được kế sách có thể dùng của quần-thần, thì không xấu hổ vì chức vị khi tiếp nhận kế sách có thể thi hành ấy và không biện bác ngược lại. Vua ngu muội thì không như vậy, tin những kẻ mình yêu thích hay thân cận, dẫu kẻ tà ác, bất chánh, thì cũng không thể thấy biết được. Xa cách những người thấp hèn, dẫu họ có tận hết sức trung thành, thì cũng chẳng nhận ra. Có những lời khuyên tốt, thì dùng lời lẽ làm cho người khuyên cùng lý. Có những lời can gián, thì liền khiển trách rồi phạt tội. Làm như thế mà muốn soi sáng trong khắp biển, bảo bọc khắp nơi, thì khắc gì bịch kính lỗ tai mà nghe âm thanh trong đục, che kính mắt mà xem màu vàng xanh. Đó là lìa sự sáng suốt lại thêm xa vời vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hán Thư viết : Vua sáng mở lòng khoan dung để lắng nghe, tôn trọng những lời can gián thẳng của bề tôi, mở lối cho người ngay thẳng, không phạt tội những người nói lời ngông cuồng. Vậy mà sau bá quan đang tại vị tận hết lòng để mưu sự, không lo tai họa sau này, triều-đình không kẻ sĩ nịnh hót, vua không mất đường lối dẫn đến sai lầm vậy.</t>
+  </si>
+  <si>
+    <t>Sách Sử Ký viết : Phòng cái miệng của dân, còn hơn là phòng nước lũ. Nước tắc nghẽn tràn ra thì hại người ắt nhiều, (cái miệng) của dân lại cũng như thế. Cho nên người trị thủy phải khơi thông để dòng nước lưu thông, còn việc trị (cái miệng) của dân thì bày tỏ để họ nói ra. Nên dân có miệng cũng như việc trên đất có núi sông, tài vật cũng từ đó mà ra, như việc có cánh đồng ẩm ướt nước chảy tràn tươi tốt, quần áo, thức ăn cũng từ đó mà sinh ra. Cái miệng mà có thể bày tỏ lời nói, thì cái tốt, cái bại cũng từ đó mà hưng khởi. Khi người dân nói ra những lo âu trong lòng rồi bày tỏ ra miệng khi thành rồi thì động loạn. Như bịch miệng (dân) thì sao có thể cùng sống lâu bền được ?</t>
+  </si>
+  <si>
+    <t>Sách Sử Ký viết : Vua Thang nói : ta có nói, người nhìn nước thấy hình dáng, nhìn vào dân biết nền chính trị. Ông Y-Doãn nói : sáng suốt thay, biết lắng nghe ý kiến thì đạo bèn tiến tới, vua và dân được tốt lành nhờ có được quan giỏi. Cố gắng thay !, cố gắng thay !</t>
+  </si>
+  <si>
+    <t>Sách Tả Truyện viết : Thầy nói với ta 9 điều rằng : 1.Không khởi đầu loạn, 2.Không cậy giàu, 3.Không nhờ vào ân sủng, 4.Không trái ý chung, 5. Không cợt nhã lễ, 6. Không vì tài mà kiêu mạng, 7.Không giận nhiều lần, 8.Không mưu tính việc phi-đức, 9.Không phạm điều phi-nghĩa.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Quẻ Thiên Địa Bĩ . Thoán viết : trời đất không giao nên vạn vật không thông, trên dưới không giao nên thiên-hạ không đất nước. Trong âm mà ngoài dương, trong nhu mà ngoài cương, trong tiểu-nhân mà ngoài là quân-tử, đạo của tiểu-nhân sinh trưởng, đạo của quân-tử tiêu mất vậy.</t>
+  </si>
+  <si>
+    <t>Sách Thượng Thư viết : Tôi tớ chánh, vua sẽ chánh. Tôi tớ nịnh hót, vua tự cho mình là thánh trí. Vua có đức là do bề tồi, vua thất đức cũng do bề tôi. Ngươi không thân thiết với kẻ gian nịnh, không để họ làm quan tai mắt, để rồi đến nỗi làm trái lại với phép tắc của tiên-vương.</t>
+  </si>
+  <si>
+    <t>Sách Hậu Hán Thư viết : Bề tôi nghe tai họa của thiên-hạ chẳng phải do ở bên ngoài, đều ở bên trong hưng khởi lên. Cho nên vua Ngu-Thuấn thăng triều thì trước tiên trừ đi 4 kẻ hung ác, mà sau dùng 16 vị tướng. Rõ ràng kẻ ác không trừ khử thì người thiện không có lý do tiến tới vậy.</t>
+  </si>
+  <si>
+    <t>Sách Quản Tử viết : Bề tôi đoan-chính dùng được, thì bề tôi gian-tà khốn cùng thương tổn. Nên đoan-chính cùng gian-tà là hai thế không cùng tiến. Kẻ gian-tà ở bên thì vua không thể dừng việc ác suy tính việc ác thì ắt lợi dụng chổ sơ hỡ của vua mà ngày đêm (tính kế) hãm hại (trung thần). Người làm vua bỏ đi không khảo sát mà tin dùng lời nói đó, thì ắt trung-thần vô tội bị hãm hại đến chết, kẻ gian-thần không công trạng được giàu sang. Nên trung-thần chết ở chổ không tội còn tà-thần trổi dậy ở chổ không công trạng gì.</t>
+  </si>
+  <si>
+    <t>Sách Doãn Văn Tử viết : Người thế tục nghe khen ngợi thì vui thích, nghe hủy báng thì buồn rầu, đó là lẽ thường tình lớn của người trong đại chúng. Giống với mình thì vui mừng, khác với mình thì tức giận đó cũng là lẽ thường tình lớn của người. Nên kẻ nịnh hót khéo hay khen ngợi, khéo thuận theo, người nói đúng lại cũng cho là đúng, người nói không lại cũng cho là không, vâng theo điều người thích, tùy thuận điều người ghét. Do đó vua sáng dù có thể dung nạp người chánh-trực nhưng chưa hẳn phải thân thiết với người chánh-trực đó, dù có thể xa lánh kẻ nịnh hót nhưng chưa hẳn phải rời xa kẻ nịnh hót đó. Nên vua Thuấn, vua Vũ có thể không dùng kẻ nịnh hót lại cũng chưa hẳn ghét kẻ nịnh hót đó. Ngạn ngữ nói : “Kẻ nịnh hót biện luận mê hoặc người, vua Thuấn, vua Vũ không thể được ghét”. Chẳng lẽ không xem xét ?.</t>
+  </si>
+  <si>
+    <t>Sách Phó Tử viết : Người hỏi : kẻ nịnh hót thế nào là lớn, Phó-Tử đáp : việc làm đủ để người thế tục phục, biện luận đủ để mê hoặc quần chúng, lời nói ắt sẽ xưng việc nhân-nghĩa, lòng ác ẩn dấu mà không thể biết được, dò xét dục vọng của chủ phù hợp thì ẩn dấu đi, đắc chí thì dám dùng cả thủ đoạn phi đạo đức để hãm hại người tốt, xưng là có đạo thuật, ra vẻ là có lợi ích, không phải bậc thánh-nhân thì chẳng thể phân biệt được, đó là kẻ nịnh hót lớn. Kế đến là hạng người lòng không muốn làm việc nhân-nghĩa, nói lại tán dương ắt lại khen ngợi, phẩm hạnh không lớn có thể sai trái, hành động chẳng lìa thế tục, phù hợp với dục vọng của chủ thì chẳng dám sửa lại, như có kẻ hại (mình) thì liền ra sức hãm hại. Kẻ nịnh hót dưới chót, làm việc thì chẳng đoái hoài gì đến thiên-hạ, chỉ mong cầu vừa lòng của chủ, dùng lời nói văn vẻ xảo trá để làm lợi cho mình mà thôi, hiển-nhiên hại người tốt làm việc chẳng biết xấu hổ.</t>
+  </si>
+  <si>
+    <t>Sách Thuyết Uyển viết : Vua Tề-Hoàn-Công hỏi ông Quản-Trọng rằng : mối hại của đất nước là gì ? Quản-Trọng đáp : thưa mối hại lũ chuột ở đền thờ đất, Tề-Hoàn-Công hỏi : là sao ?, Quản-Trọng đáp : đền thờ đất ràng buộc bằng gỗ và bùn đất nên chuột nhân đó đến ở, hun khói thì sợ đốt cháy gỗ, đổ nước vào thì sợ hư hoại bùn đất, lũ chuột đó sở dĩ không thể giết được là do đền thờ đất còn vậy. Đất nước lại có chuột như ở đền thờ đất, đó là quan trái phải của vua, trong thì che lấp việc tốt xấu của vua, ngoài thì lại lộng quyền làm hại dân chúng, không giết đi thì sẽ loạn, còn giết đi thì vua dựa vào bản án, chứng cứ rồi bao dung chúng. Đó cũng là chuột ở đền thờ đất của đất nước vậy.</t>
+  </si>
+  <si>
+    <t>Sách Quản Tử viết : Bậc thánh-nhân lựa lời có thể nói mà sau nói, chọn việc có thể làm mà sau làm. Trộm cắp được lợi mà sau có hại, vụng trộm được vui sướng mà sau có lo âu, thì thánh-nhân chẳng làm vậy. Nên thánh-nhân lựa lời nói ắt xem lại nhựng hệ lụy, chọn việc ắt xem lại những mối lo.</t>
+  </si>
+  <si>
+    <t>Sách Quản Tử viết : Trên dưới xa cách đến bất hòa, cho dù là an ổn ắt sắp nguy vong, do đó nói : “trên dưới bất hòa dù an ổn ắt sẽ nguy vong”.</t>
+  </si>
+  <si>
+    <t>Sách Trung Luận viết : Nay chẳng lo làm rõ việc nghĩa, mà chỉ bày ra bổng lộc thì chỉ thu được kẻ tiểu-nhân, khó mà có được người quân-tử. Người quân-tử làm việc chẳng tùy tiện cho phù hợp, giữ vững lập trường không thay đổi chí hướng, chẳng để thiên-hạ làm sai lệch đạo đức, cũng chẳng để sự ham thích sống hại lòng nhân, có thể lấy bổng lộc dụ họ ư !, dù có dùng sức mạnh trói buộc giữ lại cũng chẳng được, rồi họ câm miệng giả ngu, tùy tiện cho qua, chẳng nhàn rỗi. Quốc gia an nguy thì tướng tá đâu ? mà nhờ cậy.</t>
+  </si>
+  <si>
+    <t>Sách Thân Giám viết : Người làm bề tôi có 3 tội : một là đạo, hai là a-thất, ba là thi-sủng. Trước làm sai hướng dẫn trên gọi là “đạo”, thuận theo trên gọi là “a-thất”, thấy việc sai trái chẳng nói gọi là “thi-sủng”. Bề tôi mắc tội “đạo” thì giết đi, mắc tội “a-thất” thì phạt hình, mắc tội “thi-sủng” thì giáng chức.</t>
+  </si>
+  <si>
+    <t>Sách Tả Truyện viết : Ông Tang-Tôn nói : Ông Quý-Tôn thích ta thì chỉ tai vạ, ông Mạnh-Tôn ghét ta thì như 1 tạ thuốc trị bệnh. Đẹp mang tai vạ chẳng bằng ghét được 1 tạ thuốc trị bệnh. 1 tạ thuốc trị bệnh còn cứu sống ta, đẹp mang tai vạ thì chỉ độc hại nhiều thêm. Mạnh-Tôn chết thì ngày diệt vong của ta không xa vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hoàn Tử Tân Luận viết : Người tốt lành mà không thể dùng, kẻ xấu ác không thể bỏ đi. Người tốt lành kia biết mình quý họ mà không trọng dụng thì oán hận, kẻ xấu ác biết mình khinh bỉ họ mà không yêu thích thì kết cừu thù. Cùng người tốt lành kết oán hận, cùng kẻ ác kết cừu thù, muốn không diệt vong có được chăng ?.</t>
+  </si>
+  <si>
+    <t>Sách Tả Truyện viết : Ông Khánh-Trịnh nói : * bỏ thí xả là không thương yêu, * Thích tai họa là bất nhân. *Ham thích là không tốt lành, * Giận láng giềng là bất nghĩa. Bốn đức tốt đều mất, làm sao bảo vệ quốc gia ?.</t>
+  </si>
+  <si>
+    <t>Sách Hán Thư viết : Từ thời đại (thái bình của) vua Thành Khang đến nay, cũng gần 1000 năm, có nhiều bậc vua chúa muốn được vậy, thế mà cảnh thái bình ấy không thể hưng khởi trở lại, tại vì sao ? Bởi vì họ đã bỏ đi pháp độ mà chỉ thích theo Ý riêng, làm việc thì xa xỉ mà phế đi nhân-nghĩa.</t>
+  </si>
+  <si>
+    <t>Sách Nguỵ Chí viết : Phàm vật gì phát triển quá nhanh, thì suy vong cũng nhanh. Phát triển từ từ, thì được tốt lành. Hoa cỏ nở vào buổi sáng đến chiều thì đã héo, còn cây tùng, cây bách thì lá xum xuê, dù mùa đông lạnh giá cũng không thể suy tàn. Cho nên người quân-tử cao thượng ghét sự mau thành.</t>
+  </si>
+  <si>
+    <t>Sách Sử Ký viết : Ông Vinh-(Di)-Công thích chiếm quyền lợi mà không biết đó là cái nạn lớn, làm lợi ích cho mọi vật sinh sống, thì trời đất che chở, còn thích chiếm riêng thì nhiều tai hại. Trời đất và mọi vật điều muốn lấy Điều đó chiếm được ư ? hay chỉ tạo ra nhiều sự phẫn nộ, không biết đề phòng cái nạn lớn, rồi đi chỉ bảo vua, liệu vua có thể trụ lâu dày sao ?.</t>
+  </si>
+  <si>
+    <t>Sách Lão Tử viết : 5 màu khiến người mù mắt, 5 âm khiến người điếc tai, 5 mùi khiến người tê lưỡi, cưỡi ngựa săn bắn khiến lòng người phát cuồng, của cải khó được khiến người gặp nhiều tai hoạ.</t>
+  </si>
+  <si>
+    <t>Sách Mạnh-Tử viết : Thầy Mạnh-Tử đến gặp vua Tề-Tuyên-Vương nói : vua mà coi bề tôi như tay chân thì bề tôi sẽ coi vua tim gan, vua mà coi bề tôi như chó ngựa thì bề tôi sẽ coi vua như người dưng, vua mà coi bề tôi như đất cỏ thì bề tôi sẽ coi vua như kẻ thù.</t>
+  </si>
+  <si>
+    <t>Sách Hậu Hán Thư viết : Thần nghe người làm vua chẳng ai không thích người trung-chánh ghét kẻ xu nịnh, thế mà lịch sử ghi chép tai họa của các triều đại chẳng phải là người trung-chánh bị kết tội còn kẻ xu nịnh lại được sủng ái. Nên thấy nghe lời người trung khó, nghe /theo kẻ xu nịnh thì dễ.</t>
+  </si>
+  <si>
+    <t>Sách Tiềm Phu Luận viết : Vua Thuấn nói : như ta có lỗi thì các khanh phải giúp ta sữa, đừng có trước mặt thì thuận theo sau khi thoái lui lại bàn tán. Nên cái đạo của việc trị quốc là phải khuyến khích mọi người can gián, tuyên dương những lời nói phải, như thế vua mới sáng suốt để trị nước thấu tình, đạt lý.</t>
+  </si>
+  <si>
+    <t>Sách Phó Tử viết : Thời xưa lời nói không phù hợp với nghĩa lý kinh điển thì kẻ sĩ không để tâm. Việc chẳng phải làm ruộng, trồng dâu thì nông dân không làm rối việc và không coi trọng. Dụng cụ không dùng được người thợ sẽ không động tay làm. Vật phẩm không phải thế gian cần đến thì thương nhân sẽ không mang ra chợ bán. Kẻ sĩ nghĩ đến giáo huấn, nông dân nghĩ đến mùa vụ, người thợ nghĩ đến vật dùng được, thương nhân nghĩ đến đồ thường dùng, thế nên trên thì vật dụng đầy đủ mà dưới không thiếu thốn.</t>
+  </si>
+  <si>
+    <t>Sách Tiềm Phu Luận viết : Vua sáng cai trị dân chúng, thì chăm chú tiếp nhận lời nói của cấp dưới để rõ tình hình bên ngoài (triều đình). Cung kính thu nạp những kẻ thấp hèn để thu hút người tài, nên không cự tuyệt những lời khuyên sai thì ắt những lời khuyên ấy đều có chổ dùng, chỉ sợ khi cự tuyệt những lời khuyên vô dụng thì sẽ mất luôn những lời khuyên hữu dụng vậy.</t>
+  </si>
+  <si>
+    <t>Sách Phó Tử viết : Có thể bao dung bề tôi chính trực, thì dù trên có lỗi cũng không hại đến dưới, mà nỗi lo của dân trên cũng nghe được vậy.</t>
+  </si>
+  <si>
+    <t>Sách Phó Tử viết : Cái hại trong thiên-hạ chẳng gì tệ hại bằng để nữ-nhân trang điểm (quá mức). Người trên không tiết chế dục vọng tai mắt sẽ làm cạn kiệt việc sinh kế của dân, đồ vật tinh xảo quá mức sẽ làm thiên-hạ biến đổi. Một món đồ trang sức đầy đủ trên đầu giá đến ngàn lượng vàng, áo quần của tỳ thiếp thì gấp đôi của báu trong bốn biển. Buông thả dục vọng thì vô-hạn, mà dụng sức thì có giới-hạn. Dùng cái-giới hạn để làm thỏa mãn dục vọng cái vô-hạn, đấy cũng là nguyên nhân khiến vua Hán Linh (Đế) mất (lòng) dân. Trên không không tiết chế dục vọng, thì việc kẻ dưới túng tình, dâm đãng quá mức sẽ hưng khởi rồi làm dân chúng nhận lãnh nhiều tai hại vậy.</t>
+  </si>
+  <si>
+    <t>Sách Thi Tử viết : Vua Trịnh-Giản-Công nói với ông Tử-Sản rằng : “uống rượu không nhạc, chuông trống không kêu, đó là trách nhiệm của quả-nhân. Quốc gia không có thu nhập, triều-đình không trị được, cùng nước chư-hầu kết giao mà không thỏa chí, đó là trách nhiệm của thầy vậy.” Tử-Sản trị nước Trịnh không có nạn trộm cướp, đường xá không kẻ đói. Đức Khổng Tử nói : “ Nếu vua Trịnh-Giản-Công thích nhạc thế này dù ôm hết chuông vào triều-đình cũng được.” Dùng người hiền, thân thể an lạc mà danh tiếng càng thêm, ít việc mà nhiều thành công, nước trị mà có thể nhãn rỗi.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Bên cổng thành Dương-Môn (nước Tống) có lính canh chết, quan tư-không Tử-Hãn vào thành mà khóc rất bi ai. Người nước Tấn dò xét nước Tống rồi trở về báo với Tấn-Hầu rằng : “ thưa bên cổng thành Dương-Môn có lính cánh chết mà quan Tử-Hãn khóc rất bi ai, nên dân chúng rất vui lòng, thần sợ rằng không thể đánh phạt được”. Đức Khổng-Tử nghe được chuyện nói : tốt lành thay ! việc dò xét quốc gia đó ư ?.</t>
+  </si>
+  <si>
+    <t>Sách Mặc Tử viết : Các bậc vua thánh xưa kia làm chính trị, thì biểu dương đức hạnh và tôn trọng người hiền. Dù là hạng nông dân hay thợ nghề, kẻ bán buôn có năng lực thì được tiến cử, ban tước vị cao, thưởng bỗng lộc hậu để họ đảm nhiệm việc chính sự, không vì tài đức của họ mà ban thưởng để mong nên việc. Nên người có đức hạnh tốt thì sắp đặt theo quan-phục và công việc, lấy công lao để xét thưởng, lấy thành tích mà chia bổng lộc. Do đó quan chức không thường quý hiển mà dân chúng không mãi thấp hèn, có năng lực thì được tiến cử, không có năng lực thì bị hạ xuống, tiến cử thì công bằng theo lẽ phải thì ngừa lòng thù oán riêng. Nên có được kẻ sĩ, có được kẻ sĩ thì kế sách không khốn đốn, thân thể không lao nhọc, danh tiếng tốt mà công việc thành tựu mỹ mãng, điều xấu chẳng sinh. Cho nên tôn trọng người hiền là gốc của làm chính trị vậy.</t>
   </si>
 </sst>
 </file>
@@ -2161,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2186,7 +2186,7 @@
         <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>401</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>402</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2208,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>403</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2219,7 +2219,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>404</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2230,7 +2230,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2241,7 +2241,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2252,7 +2252,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2263,7 +2263,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2274,7 +2274,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2285,7 +2285,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2296,7 +2296,7 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2307,7 +2307,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -2318,7 +2318,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2329,7 +2329,7 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -2340,7 +2340,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2351,7 +2351,7 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -2362,7 +2362,7 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -2373,7 +2373,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -2384,7 +2384,7 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -2395,7 +2395,7 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -2406,7 +2406,7 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2417,7 +2417,7 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2428,7 +2428,7 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -2439,7 +2439,7 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -2450,7 +2450,7 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -2461,7 +2461,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -2472,7 +2472,7 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -2483,7 +2483,7 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -2494,7 +2494,7 @@
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -2505,7 +2505,7 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>430</v>
+        <v>590</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -2516,7 +2516,7 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2527,7 +2527,7 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -2538,7 +2538,7 @@
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -2549,7 +2549,7 @@
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -2560,7 +2560,7 @@
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -2571,7 +2571,7 @@
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -2582,7 +2582,7 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -2593,7 +2593,7 @@
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -2604,7 +2604,7 @@
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2615,7 +2615,7 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -2626,7 +2626,7 @@
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -2637,7 +2637,7 @@
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -2648,7 +2648,7 @@
         <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -2659,7 +2659,7 @@
         <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -2670,7 +2670,7 @@
         <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -2681,7 +2681,7 @@
         <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>446</v>
+        <v>591</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -2692,7 +2692,7 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -2703,7 +2703,7 @@
         <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>448</v>
+        <v>592</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -2714,7 +2714,7 @@
         <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -2725,7 +2725,7 @@
         <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -2736,7 +2736,7 @@
         <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -2747,7 +2747,7 @@
         <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -2758,7 +2758,7 @@
         <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -2769,7 +2769,7 @@
         <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -2780,7 +2780,7 @@
         <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -2791,7 +2791,7 @@
         <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -2802,7 +2802,7 @@
         <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -2813,7 +2813,7 @@
         <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -2824,7 +2824,7 @@
         <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -2835,7 +2835,7 @@
         <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -2846,7 +2846,7 @@
         <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -2857,7 +2857,7 @@
         <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -2868,7 +2868,7 @@
         <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -2879,7 +2879,7 @@
         <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -2890,7 +2890,7 @@
         <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -2901,7 +2901,7 @@
         <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -2912,7 +2912,7 @@
         <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -2923,7 +2923,7 @@
         <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -2934,7 +2934,7 @@
         <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>469</v>
+        <v>593</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -2945,7 +2945,7 @@
         <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -2956,7 +2956,7 @@
         <v>69</v>
       </c>
       <c r="C72" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -2967,7 +2967,7 @@
         <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -2978,7 +2978,7 @@
         <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -2989,7 +2989,7 @@
         <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -3000,7 +3000,7 @@
         <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -3011,7 +3011,7 @@
         <v>74</v>
       </c>
       <c r="C77" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -3022,7 +3022,7 @@
         <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -3033,7 +3033,7 @@
         <v>76</v>
       </c>
       <c r="C79" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -3044,7 +3044,7 @@
         <v>77</v>
       </c>
       <c r="C80" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -3055,7 +3055,7 @@
         <v>78</v>
       </c>
       <c r="C81" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -3066,7 +3066,7 @@
         <v>79</v>
       </c>
       <c r="C82" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -3077,7 +3077,7 @@
         <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -3088,7 +3088,7 @@
         <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -3099,7 +3099,7 @@
         <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -3110,7 +3110,7 @@
         <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -3121,7 +3121,7 @@
         <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -3132,7 +3132,7 @@
         <v>85</v>
       </c>
       <c r="C88" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -3143,7 +3143,7 @@
         <v>86</v>
       </c>
       <c r="C89" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -3154,7 +3154,7 @@
         <v>87</v>
       </c>
       <c r="C90" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -3165,7 +3165,7 @@
         <v>88</v>
       </c>
       <c r="C91" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -3176,7 +3176,7 @@
         <v>89</v>
       </c>
       <c r="C92" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -3187,7 +3187,7 @@
         <v>90</v>
       </c>
       <c r="C93" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -3198,7 +3198,7 @@
         <v>91</v>
       </c>
       <c r="C94" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -3209,7 +3209,7 @@
         <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -3220,7 +3220,7 @@
         <v>93</v>
       </c>
       <c r="C96" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -3231,7 +3231,7 @@
         <v>94</v>
       </c>
       <c r="C97" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -3242,7 +3242,7 @@
         <v>95</v>
       </c>
       <c r="C98" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -3253,7 +3253,7 @@
         <v>96</v>
       </c>
       <c r="C99" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -3264,7 +3264,7 @@
         <v>97</v>
       </c>
       <c r="C100" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -3275,7 +3275,7 @@
         <v>98</v>
       </c>
       <c r="C101" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -3286,7 +3286,7 @@
         <v>99</v>
       </c>
       <c r="C102" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -3297,7 +3297,7 @@
         <v>100</v>
       </c>
       <c r="C103" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -3308,7 +3308,7 @@
         <v>101</v>
       </c>
       <c r="C104" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -3319,7 +3319,7 @@
         <v>102</v>
       </c>
       <c r="C105" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -3330,7 +3330,7 @@
         <v>103</v>
       </c>
       <c r="C106" t="s">
-        <v>505</v>
+        <v>594</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -3341,7 +3341,7 @@
         <v>104</v>
       </c>
       <c r="C107" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -3352,7 +3352,7 @@
         <v>105</v>
       </c>
       <c r="C108" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -3363,7 +3363,7 @@
         <v>106</v>
       </c>
       <c r="C109" t="s">
-        <v>508</v>
+        <v>595</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -3374,7 +3374,7 @@
         <v>107</v>
       </c>
       <c r="C110" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -3385,7 +3385,7 @@
         <v>108</v>
       </c>
       <c r="C111" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -3396,7 +3396,7 @@
         <v>109</v>
       </c>
       <c r="C112" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -3407,7 +3407,7 @@
         <v>110</v>
       </c>
       <c r="C113" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -3418,7 +3418,7 @@
         <v>111</v>
       </c>
       <c r="C114" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -3429,7 +3429,7 @@
         <v>112</v>
       </c>
       <c r="C115" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -3440,7 +3440,7 @@
         <v>113</v>
       </c>
       <c r="C116" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -3451,7 +3451,7 @@
         <v>114</v>
       </c>
       <c r="C117" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -3462,7 +3462,7 @@
         <v>115</v>
       </c>
       <c r="C118" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -3473,7 +3473,7 @@
         <v>116</v>
       </c>
       <c r="C119" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -3484,7 +3484,7 @@
         <v>117</v>
       </c>
       <c r="C120" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -3495,7 +3495,7 @@
         <v>118</v>
       </c>
       <c r="C121" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -3506,7 +3506,7 @@
         <v>119</v>
       </c>
       <c r="C122" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -3517,7 +3517,7 @@
         <v>120</v>
       </c>
       <c r="C123" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -3528,7 +3528,7 @@
         <v>121</v>
       </c>
       <c r="C124" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -3539,7 +3539,7 @@
         <v>122</v>
       </c>
       <c r="C125" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -3550,7 +3550,7 @@
         <v>123</v>
       </c>
       <c r="C126" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -3561,7 +3561,7 @@
         <v>124</v>
       </c>
       <c r="C127" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -3572,7 +3572,7 @@
         <v>125</v>
       </c>
       <c r="C128" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -3583,7 +3583,7 @@
         <v>126</v>
       </c>
       <c r="C129" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -3594,7 +3594,7 @@
         <v>127</v>
       </c>
       <c r="C130" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -3605,7 +3605,7 @@
         <v>128</v>
       </c>
       <c r="C131" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -3616,7 +3616,7 @@
         <v>129</v>
       </c>
       <c r="C132" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -3627,7 +3627,7 @@
         <v>130</v>
       </c>
       <c r="C133" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -3638,7 +3638,7 @@
         <v>131</v>
       </c>
       <c r="C134" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -3649,7 +3649,7 @@
         <v>132</v>
       </c>
       <c r="C135" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -3660,7 +3660,7 @@
         <v>133</v>
       </c>
       <c r="C136" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -3671,7 +3671,7 @@
         <v>134</v>
       </c>
       <c r="C137" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -3682,7 +3682,7 @@
         <v>135</v>
       </c>
       <c r="C138" t="s">
-        <v>537</v>
+        <v>596</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -3693,7 +3693,7 @@
         <v>136</v>
       </c>
       <c r="C139" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -3704,7 +3704,7 @@
         <v>137</v>
       </c>
       <c r="C140" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -3715,7 +3715,7 @@
         <v>138</v>
       </c>
       <c r="C141" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -3726,7 +3726,7 @@
         <v>139</v>
       </c>
       <c r="C142" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -3737,7 +3737,7 @@
         <v>140</v>
       </c>
       <c r="C143" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -3748,7 +3748,7 @@
         <v>141</v>
       </c>
       <c r="C144" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -3759,7 +3759,7 @@
         <v>142</v>
       </c>
       <c r="C145" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -3770,7 +3770,7 @@
         <v>143</v>
       </c>
       <c r="C146" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -3781,7 +3781,7 @@
         <v>144</v>
       </c>
       <c r="C147" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -3792,7 +3792,7 @@
         <v>145</v>
       </c>
       <c r="C148" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -3803,7 +3803,7 @@
         <v>146</v>
       </c>
       <c r="C149" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -3814,7 +3814,7 @@
         <v>147</v>
       </c>
       <c r="C150" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -3825,7 +3825,7 @@
         <v>148</v>
       </c>
       <c r="C151" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -3836,7 +3836,7 @@
         <v>149</v>
       </c>
       <c r="C152" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -3847,7 +3847,7 @@
         <v>150</v>
       </c>
       <c r="C153" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -3858,7 +3858,7 @@
         <v>151</v>
       </c>
       <c r="C154" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -3869,7 +3869,7 @@
         <v>152</v>
       </c>
       <c r="C155" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -3880,7 +3880,7 @@
         <v>153</v>
       </c>
       <c r="C156" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -3891,7 +3891,7 @@
         <v>154</v>
       </c>
       <c r="C157" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -3902,7 +3902,7 @@
         <v>155</v>
       </c>
       <c r="C158" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -3913,7 +3913,7 @@
         <v>156</v>
       </c>
       <c r="C159" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -3924,7 +3924,7 @@
         <v>157</v>
       </c>
       <c r="C160" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -3935,7 +3935,7 @@
         <v>158</v>
       </c>
       <c r="C161" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -3946,7 +3946,7 @@
         <v>159</v>
       </c>
       <c r="C162" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -3957,7 +3957,7 @@
         <v>160</v>
       </c>
       <c r="C163" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -3968,7 +3968,7 @@
         <v>161</v>
       </c>
       <c r="C164" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -3979,7 +3979,7 @@
         <v>162</v>
       </c>
       <c r="C165" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -3990,7 +3990,7 @@
         <v>163</v>
       </c>
       <c r="C166" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -4001,7 +4001,7 @@
         <v>164</v>
       </c>
       <c r="C167" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -4012,7 +4012,7 @@
         <v>165</v>
       </c>
       <c r="C168" t="s">
-        <v>567</v>
+        <v>599</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -4023,7 +4023,7 @@
         <v>166</v>
       </c>
       <c r="C169" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -4034,7 +4034,7 @@
         <v>167</v>
       </c>
       <c r="C170" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -4045,7 +4045,7 @@
         <v>168</v>
       </c>
       <c r="C171" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -4056,7 +4056,7 @@
         <v>169</v>
       </c>
       <c r="C172" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -4067,7 +4067,7 @@
         <v>170</v>
       </c>
       <c r="C173" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -4078,7 +4078,7 @@
         <v>171</v>
       </c>
       <c r="C174" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -4089,7 +4089,7 @@
         <v>172</v>
       </c>
       <c r="C175" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -4100,7 +4100,7 @@
         <v>173</v>
       </c>
       <c r="C176" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -4111,7 +4111,7 @@
         <v>174</v>
       </c>
       <c r="C177" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -4122,7 +4122,7 @@
         <v>175</v>
       </c>
       <c r="C178" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -4133,7 +4133,7 @@
         <v>176</v>
       </c>
       <c r="C179" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -4144,7 +4144,7 @@
         <v>177</v>
       </c>
       <c r="C180" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -4155,7 +4155,7 @@
         <v>178</v>
       </c>
       <c r="C181" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -4166,7 +4166,7 @@
         <v>179</v>
       </c>
       <c r="C182" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -4177,7 +4177,7 @@
         <v>180</v>
       </c>
       <c r="C183" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -4188,7 +4188,7 @@
         <v>181</v>
       </c>
       <c r="C184" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -4199,7 +4199,7 @@
         <v>182</v>
       </c>
       <c r="C185" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -4210,7 +4210,7 @@
         <v>183</v>
       </c>
       <c r="C186" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -4221,7 +4221,7 @@
         <v>184</v>
       </c>
       <c r="C187" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -4232,7 +4232,7 @@
         <v>185</v>
       </c>
       <c r="C188" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -4243,7 +4243,7 @@
         <v>186</v>
       </c>
       <c r="C189" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -4254,7 +4254,7 @@
         <v>187</v>
       </c>
       <c r="C190" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -4265,7 +4265,7 @@
         <v>188</v>
       </c>
       <c r="C191" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -4276,7 +4276,7 @@
         <v>189</v>
       </c>
       <c r="C192" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -4287,7 +4287,7 @@
         <v>190</v>
       </c>
       <c r="C193" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -4298,7 +4298,7 @@
         <v>191</v>
       </c>
       <c r="C194" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -4309,7 +4309,7 @@
         <v>192</v>
       </c>
       <c r="C195" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -4320,7 +4320,7 @@
         <v>193</v>
       </c>
       <c r="C196" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -4331,7 +4331,7 @@
         <v>194</v>
       </c>
       <c r="C197" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -4342,7 +4342,7 @@
         <v>195</v>
       </c>
       <c r="C198" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -4353,7 +4353,7 @@
         <v>196</v>
       </c>
       <c r="C199" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -4364,7 +4364,7 @@
         <v>197</v>
       </c>
       <c r="C200" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
